--- a/Input/PDAcalc.xlsx
+++ b/Input/PDAcalc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79566A4B-02D1-49A7-8AE4-C8E9295CFF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8E88DD-B68D-4D70-8CE0-1A982139A43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATIONS" sheetId="66" r:id="rId1"/>
@@ -386,6 +386,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB25" authorId="0" shapeId="0" xr:uid="{43AAA761-58FF-4FE1-A57F-7975D5760FFC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 = normal driving
+1 = hybrid driving, depth is distance from embedment depth
+2 = hybrid driving, depth is distance from mudline</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0" xr:uid="{576C90F1-D1EC-4115-B2DF-9179E2FEAB98}">
       <text>
         <r>
@@ -744,7 +770,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="293">
   <si>
     <t>Setting</t>
   </si>
@@ -1567,9 +1593,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>IHC S-4000</t>
-  </si>
-  <si>
     <t>Analysis no.</t>
   </si>
   <si>
@@ -1620,6 +1643,15 @@
   <si>
     <t>Input Database
 Switch</t>
+  </si>
+  <si>
+    <t>Hybrid pile</t>
+  </si>
+  <si>
+    <t>Hybrid driving strategy</t>
+  </si>
+  <si>
+    <t>Depth</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1661,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1710,6 +1742,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2353,7 +2398,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2640,54 +2685,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2730,6 +2730,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2738,21 +2777,7 @@
     <cellStyle name="Normal 3" xfId="3" xr:uid="{BB2A21B6-ED26-4A17-A481-3F1C823DC031}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{DC5E9318-48F4-4F4E-B624-85906B79C1B1}"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -2908,6 +2933,13 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3166,10 +3198,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3458,30 +3486,30 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="15.85546875" style="54" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="15.88671875" style="54" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.88671875" customWidth="1"/>
     <col min="29" max="29" width="23" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="116" t="s">
         <v>153</v>
       </c>
@@ -3571,12 +3599,12 @@
       <c r="AO1" s="54"/>
       <c r="AP1" s="54"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="110">
         <v>1</v>
       </c>
       <c r="B2" s="100" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="129">
         <v>70</v>
@@ -3662,7 +3690,7 @@
       </c>
       <c r="X2" s="72"/>
       <c r="AC2" s="134" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AD2" s="135">
         <v>70</v>
@@ -3680,7 +3708,7 @@
       <c r="AO2" s="54"/>
       <c r="AP2" s="54"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="35"/>
       <c r="B3" s="125"/>
       <c r="C3" s="129"/>
@@ -3720,7 +3748,7 @@
       <c r="AO3" s="54"/>
       <c r="AP3" s="54"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="35"/>
       <c r="B4" s="125"/>
       <c r="C4" s="129"/>
@@ -3760,7 +3788,7 @@
       <c r="AO4" s="54"/>
       <c r="AP4" s="54"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
       <c r="B5" s="125"/>
       <c r="C5" s="129"/>
@@ -3800,7 +3828,7 @@
       <c r="AO5" s="54"/>
       <c r="AP5" s="54"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="125"/>
       <c r="C6" s="129"/>
@@ -3840,7 +3868,7 @@
       <c r="AO6" s="54"/>
       <c r="AP6" s="54"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
       <c r="B7" s="125"/>
       <c r="C7" s="129"/>
@@ -3880,7 +3908,7 @@
       <c r="AO7" s="54"/>
       <c r="AP7" s="54"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="35"/>
       <c r="B8" s="125"/>
       <c r="C8" s="129"/>
@@ -3920,7 +3948,7 @@
       <c r="AO8" s="54"/>
       <c r="AP8" s="54"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="35"/>
       <c r="B9" s="125"/>
       <c r="C9" s="129"/>
@@ -3960,7 +3988,7 @@
       <c r="AO9" s="54"/>
       <c r="AP9" s="54"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="35"/>
       <c r="B10" s="125"/>
       <c r="C10" s="129"/>
@@ -4000,7 +4028,7 @@
       <c r="AO10" s="54"/>
       <c r="AP10" s="54"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="35"/>
       <c r="B11" s="125"/>
       <c r="C11" s="129"/>
@@ -4040,7 +4068,7 @@
       <c r="AO11" s="54"/>
       <c r="AP11" s="54"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="125"/>
       <c r="C12" s="129"/>
@@ -4078,7 +4106,7 @@
       <c r="AO12" s="54"/>
       <c r="AP12" s="54"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="35"/>
       <c r="B13" s="125"/>
       <c r="C13" s="129"/>
@@ -4116,7 +4144,7 @@
       <c r="AO13" s="54"/>
       <c r="AP13" s="54"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="125"/>
       <c r="C14" s="129"/>
@@ -4154,7 +4182,7 @@
       <c r="AO14" s="54"/>
       <c r="AP14" s="54"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="35"/>
       <c r="B15" s="125"/>
       <c r="C15" s="129"/>
@@ -4192,7 +4220,7 @@
       <c r="AO15" s="54"/>
       <c r="AP15" s="54"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="125"/>
       <c r="C16" s="129"/>
@@ -4230,7 +4258,7 @@
       <c r="AO16" s="54"/>
       <c r="AP16" s="54"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="125"/>
       <c r="C17" s="129"/>
@@ -4268,7 +4296,7 @@
       <c r="AO17" s="54"/>
       <c r="AP17" s="54"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="125"/>
       <c r="C18" s="129"/>
@@ -4306,7 +4334,7 @@
       <c r="AO18" s="54"/>
       <c r="AP18" s="54"/>
     </row>
-    <row r="19" spans="1:42" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35"/>
       <c r="B19" s="125"/>
       <c r="C19" s="129"/>
@@ -4344,7 +4372,7 @@
       <c r="AO19" s="54"/>
       <c r="AP19" s="54"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="35"/>
       <c r="B20" s="125"/>
       <c r="C20" s="129"/>
@@ -4382,7 +4410,7 @@
       <c r="AO20" s="54"/>
       <c r="AP20" s="54"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="125"/>
       <c r="C21" s="129"/>
@@ -4420,7 +4448,7 @@
       <c r="AO21" s="54"/>
       <c r="AP21" s="54"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" s="35"/>
       <c r="B22" s="125"/>
       <c r="C22" s="129"/>
@@ -4458,7 +4486,7 @@
       <c r="AO22" s="54"/>
       <c r="AP22" s="54"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
       <c r="B23" s="125"/>
       <c r="C23" s="129"/>
@@ -4496,7 +4524,7 @@
       <c r="AO23" s="54"/>
       <c r="AP23" s="54"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
       <c r="B24" s="125"/>
       <c r="C24" s="129"/>
@@ -4534,7 +4562,7 @@
       <c r="AO24" s="54"/>
       <c r="AP24" s="54"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="125"/>
       <c r="C25" s="129"/>
@@ -4572,7 +4600,7 @@
       <c r="AO25" s="54"/>
       <c r="AP25" s="54"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="125"/>
       <c r="C26" s="129"/>
@@ -4610,7 +4638,7 @@
       <c r="AO26" s="54"/>
       <c r="AP26" s="54"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" s="125"/>
       <c r="C27" s="129"/>
@@ -4648,7 +4676,7 @@
       <c r="AO27" s="54"/>
       <c r="AP27" s="54"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" s="35"/>
       <c r="B28" s="125"/>
       <c r="C28" s="129"/>
@@ -4686,7 +4714,7 @@
       <c r="AO28" s="54"/>
       <c r="AP28" s="54"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="125"/>
       <c r="C29" s="129"/>
@@ -4716,7 +4744,7 @@
       <c r="AE29" s="37"/>
       <c r="AJ29" s="39"/>
     </row>
-    <row r="30" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="35"/>
       <c r="B30" s="125"/>
       <c r="C30" s="129"/>
@@ -4746,7 +4774,7 @@
       <c r="AE30" s="42"/>
       <c r="AJ30" s="39"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="125"/>
       <c r="C31" s="129"/>
@@ -4773,7 +4801,7 @@
       <c r="X31" s="72"/>
       <c r="AJ31" s="39"/>
     </row>
-    <row r="32" spans="1:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="125"/>
       <c r="C32" s="129"/>
@@ -4800,7 +4828,7 @@
       <c r="X32" s="72"/>
       <c r="AJ32" s="39"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="125"/>
       <c r="C33" s="129"/>
@@ -4827,7 +4855,7 @@
       <c r="X33" s="72"/>
       <c r="AJ33" s="39"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="35"/>
       <c r="B34" s="125"/>
       <c r="C34" s="129"/>
@@ -4854,7 +4882,7 @@
       <c r="X34" s="72"/>
       <c r="AJ34" s="39"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
       <c r="B35" s="125"/>
       <c r="C35" s="129"/>
@@ -4881,7 +4909,7 @@
       <c r="X35" s="72"/>
       <c r="AJ35" s="39"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" s="35"/>
       <c r="B36" s="125"/>
       <c r="C36" s="129"/>
@@ -4908,7 +4936,7 @@
       <c r="X36" s="72"/>
       <c r="AJ36" s="39"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" s="35"/>
       <c r="B37" s="125"/>
       <c r="C37" s="129"/>
@@ -4935,7 +4963,7 @@
       <c r="X37" s="72"/>
       <c r="AJ37" s="39"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" s="35"/>
       <c r="B38" s="125"/>
       <c r="C38" s="129"/>
@@ -4962,7 +4990,7 @@
       <c r="X38" s="72"/>
       <c r="AJ38" s="39"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" s="35"/>
       <c r="B39" s="125"/>
       <c r="C39" s="129"/>
@@ -4989,7 +5017,7 @@
       <c r="X39" s="72"/>
       <c r="AJ39" s="39"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" s="35"/>
       <c r="B40" s="125"/>
       <c r="C40" s="129"/>
@@ -5015,7 +5043,7 @@
       <c r="W40" s="130"/>
       <c r="X40" s="72"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
       <c r="B41" s="125"/>
       <c r="C41" s="129"/>
@@ -5041,7 +5069,7 @@
       <c r="W41" s="130"/>
       <c r="X41" s="72"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
       <c r="B42" s="125"/>
       <c r="C42" s="129"/>
@@ -5067,7 +5095,7 @@
       <c r="W42" s="130"/>
       <c r="X42" s="72"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" s="125"/>
       <c r="C43" s="129"/>
@@ -5093,7 +5121,7 @@
       <c r="W43" s="130"/>
       <c r="X43" s="72"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="35"/>
       <c r="B44" s="125"/>
       <c r="C44" s="129"/>
@@ -5119,7 +5147,7 @@
       <c r="W44" s="130"/>
       <c r="X44" s="72"/>
     </row>
-    <row r="45" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="125"/>
       <c r="C45" s="129"/>
@@ -5145,7 +5173,7 @@
       <c r="W45" s="130"/>
       <c r="X45" s="72"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="35"/>
       <c r="B46" s="125"/>
       <c r="C46" s="129"/>
@@ -5171,7 +5199,7 @@
       <c r="W46" s="130"/>
       <c r="X46" s="72"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
       <c r="B47" s="125"/>
       <c r="C47" s="129"/>
@@ -5197,7 +5225,7 @@
       <c r="W47" s="130"/>
       <c r="X47" s="72"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
       <c r="B48" s="125"/>
       <c r="C48" s="129"/>
@@ -5223,7 +5251,7 @@
       <c r="W48" s="130"/>
       <c r="X48" s="72"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="35"/>
       <c r="B49" s="125"/>
       <c r="C49" s="129"/>
@@ -5249,7 +5277,7 @@
       <c r="W49" s="130"/>
       <c r="X49" s="72"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="35"/>
       <c r="B50" s="125"/>
       <c r="C50" s="131"/>
@@ -5277,7 +5305,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="125"/>
       <c r="C51" s="131"/>
@@ -5303,7 +5331,7 @@
       <c r="W51" s="35"/>
       <c r="X51" s="72"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="35"/>
       <c r="B52" s="125"/>
       <c r="C52" s="131"/>
@@ -5329,7 +5357,7 @@
       <c r="W52" s="35"/>
       <c r="X52" s="72"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="35"/>
       <c r="B53" s="125"/>
       <c r="C53" s="131"/>
@@ -5355,7 +5383,7 @@
       <c r="W53" s="35"/>
       <c r="X53" s="72"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="35"/>
       <c r="B54" s="125"/>
       <c r="C54" s="131"/>
@@ -5381,7 +5409,7 @@
       <c r="W54" s="35"/>
       <c r="X54" s="72"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="35"/>
       <c r="B55" s="125"/>
       <c r="C55" s="131"/>
@@ -5407,7 +5435,7 @@
       <c r="W55" s="35"/>
       <c r="X55" s="72"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="35"/>
       <c r="B56" s="125"/>
       <c r="C56" s="131"/>
@@ -5433,7 +5461,7 @@
       <c r="W56" s="35"/>
       <c r="X56" s="72"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="35"/>
       <c r="B57" s="125"/>
       <c r="C57" s="131"/>
@@ -5459,7 +5487,7 @@
       <c r="W57" s="35"/>
       <c r="X57" s="72"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="125"/>
       <c r="C58" s="131"/>
@@ -5487,7 +5515,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="B59" s="125"/>
       <c r="C59" s="131"/>
@@ -5513,7 +5541,7 @@
       <c r="W59" s="35"/>
       <c r="X59" s="72"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
       <c r="B60" s="125"/>
       <c r="C60" s="132"/>
@@ -5539,7 +5567,7 @@
       <c r="W60" s="128"/>
       <c r="X60" s="72"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="35"/>
       <c r="B61" s="125"/>
       <c r="C61" s="131"/>
@@ -5565,7 +5593,7 @@
       <c r="W61" s="35"/>
       <c r="X61" s="72"/>
     </row>
-    <row r="62" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
       <c r="B62" s="125"/>
       <c r="C62" s="131"/>
@@ -5591,7 +5619,7 @@
       <c r="W62" s="35"/>
       <c r="X62" s="72"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="35"/>
       <c r="B63" s="125"/>
       <c r="C63" s="131"/>
@@ -5617,7 +5645,7 @@
       <c r="W63" s="35"/>
       <c r="X63" s="72"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="35"/>
       <c r="B64" s="125"/>
       <c r="C64" s="131"/>
@@ -5643,7 +5671,7 @@
       <c r="W64" s="35"/>
       <c r="X64" s="72"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="35"/>
       <c r="B65" s="125"/>
       <c r="C65" s="129"/>
@@ -5669,7 +5697,7 @@
       <c r="W65" s="130"/>
       <c r="X65" s="72"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="35"/>
       <c r="B66" s="125"/>
       <c r="C66" s="129"/>
@@ -5695,7 +5723,7 @@
       <c r="W66" s="130"/>
       <c r="X66" s="72"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="B67" s="125"/>
       <c r="C67" s="131"/>
@@ -5721,7 +5749,7 @@
       <c r="W67" s="35"/>
       <c r="X67" s="72"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="35"/>
       <c r="B68" s="125"/>
       <c r="C68" s="131"/>
@@ -5747,7 +5775,7 @@
       <c r="W68" s="35"/>
       <c r="X68" s="72"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
       <c r="B69" s="125"/>
       <c r="C69" s="131"/>
@@ -5773,7 +5801,7 @@
       <c r="W69" s="35"/>
       <c r="X69" s="72"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="35"/>
       <c r="B70" s="125"/>
       <c r="C70" s="129"/>
@@ -5799,7 +5827,7 @@
       <c r="W70" s="130"/>
       <c r="X70" s="72"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="35"/>
       <c r="B71" s="125"/>
       <c r="C71" s="129"/>
@@ -5825,7 +5853,7 @@
       <c r="W71" s="130"/>
       <c r="X71" s="72"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="35"/>
       <c r="B72" s="125"/>
       <c r="C72" s="129"/>
@@ -5851,7 +5879,7 @@
       <c r="W72" s="130"/>
       <c r="X72" s="72"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="35"/>
       <c r="B73" s="125"/>
       <c r="C73" s="131"/>
@@ -5877,7 +5905,7 @@
       <c r="W73" s="35"/>
       <c r="X73" s="72"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="35"/>
       <c r="B74" s="125"/>
       <c r="C74" s="131"/>
@@ -5905,7 +5933,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="35"/>
       <c r="B75" s="125"/>
       <c r="C75" s="131"/>
@@ -5931,7 +5959,7 @@
       <c r="W75" s="35"/>
       <c r="X75" s="72"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="35"/>
       <c r="B76" s="125"/>
       <c r="C76" s="131"/>
@@ -5957,7 +5985,7 @@
       <c r="W76" s="35"/>
       <c r="X76" s="72"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="35"/>
       <c r="B77" s="125"/>
       <c r="C77" s="131"/>
@@ -5983,7 +6011,7 @@
       <c r="W77" s="35"/>
       <c r="X77" s="72"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" s="35"/>
       <c r="B78" s="125"/>
       <c r="C78" s="131"/>
@@ -6009,7 +6037,7 @@
       <c r="W78" s="35"/>
       <c r="X78" s="72"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" s="35"/>
       <c r="B79" s="125"/>
       <c r="C79" s="131"/>
@@ -6035,7 +6063,7 @@
       <c r="W79" s="35"/>
       <c r="X79" s="72"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" s="35"/>
       <c r="B80" s="125"/>
       <c r="C80" s="131"/>
@@ -6061,7 +6089,7 @@
       <c r="W80" s="35"/>
       <c r="X80" s="72"/>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A81" s="35"/>
       <c r="B81" s="125"/>
       <c r="C81" s="131"/>
@@ -6087,7 +6115,7 @@
       <c r="W81" s="35"/>
       <c r="X81" s="72"/>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A82" s="35"/>
       <c r="B82" s="125"/>
       <c r="C82" s="129"/>
@@ -6113,7 +6141,7 @@
       <c r="W82" s="130"/>
       <c r="X82" s="72"/>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A83" s="35"/>
       <c r="B83" s="125"/>
       <c r="C83" s="129"/>
@@ -6139,7 +6167,7 @@
       <c r="W83" s="130"/>
       <c r="X83" s="72"/>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A84" s="35"/>
       <c r="B84" s="125"/>
       <c r="C84" s="129"/>
@@ -6165,7 +6193,7 @@
       <c r="W84" s="130"/>
       <c r="X84" s="72"/>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A85" s="35"/>
       <c r="B85" s="125"/>
       <c r="C85" s="129"/>
@@ -6191,7 +6219,7 @@
       <c r="W85" s="130"/>
       <c r="X85" s="72"/>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A86" s="35"/>
       <c r="B86" s="125"/>
       <c r="C86" s="129"/>
@@ -6217,7 +6245,7 @@
       <c r="W86" s="130"/>
       <c r="X86" s="72"/>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A87" s="35"/>
       <c r="B87" s="125"/>
       <c r="C87" s="129"/>
@@ -6243,7 +6271,7 @@
       <c r="W87" s="130"/>
       <c r="X87" s="72"/>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A88" s="35"/>
       <c r="B88" s="125"/>
       <c r="C88" s="129"/>
@@ -6269,7 +6297,7 @@
       <c r="W88" s="130"/>
       <c r="X88" s="72"/>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A89" s="35"/>
       <c r="B89" s="125"/>
       <c r="C89" s="131"/>
@@ -6295,7 +6323,7 @@
       <c r="W89" s="35"/>
       <c r="X89" s="72"/>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A90" s="35"/>
       <c r="B90" s="125"/>
       <c r="C90" s="131"/>
@@ -6321,7 +6349,7 @@
       <c r="W90" s="35"/>
       <c r="X90" s="72"/>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A91" s="35"/>
       <c r="B91" s="125"/>
       <c r="C91" s="132"/>
@@ -6347,7 +6375,7 @@
       <c r="W91" s="128"/>
       <c r="X91" s="72"/>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A92" s="35"/>
       <c r="B92" s="125"/>
       <c r="C92" s="131"/>
@@ -6373,7 +6401,7 @@
       <c r="W92" s="35"/>
       <c r="X92" s="72"/>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A93" s="35"/>
       <c r="B93" s="125"/>
       <c r="C93" s="131"/>
@@ -6399,7 +6427,7 @@
       <c r="W93" s="35"/>
       <c r="X93" s="72"/>
     </row>
-    <row r="94" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="35"/>
       <c r="B94" s="125"/>
       <c r="C94" s="131"/>
@@ -6429,7 +6457,7 @@
       <c r="AE94" s="42"/>
       <c r="AJ94" s="39"/>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A95" s="35"/>
       <c r="B95" s="125"/>
       <c r="C95" s="131"/>
@@ -6456,7 +6484,7 @@
       <c r="X95" s="72"/>
       <c r="AJ95" s="39"/>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A96" s="35"/>
       <c r="B96" s="125"/>
       <c r="C96" s="129"/>
@@ -6483,7 +6511,7 @@
       <c r="X96" s="72"/>
       <c r="AJ96" s="39"/>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A97" s="35"/>
       <c r="B97" s="125"/>
       <c r="C97" s="129"/>
@@ -6510,7 +6538,7 @@
       <c r="X97" s="72"/>
       <c r="AJ97" s="39"/>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A98" s="35"/>
       <c r="B98" s="125"/>
       <c r="C98" s="129"/>
@@ -6537,7 +6565,7 @@
       <c r="X98" s="72"/>
       <c r="AJ98" s="39"/>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A99" s="35"/>
       <c r="B99" s="125"/>
       <c r="C99" s="129"/>
@@ -6564,7 +6592,7 @@
       <c r="X99" s="72"/>
       <c r="AJ99" s="39"/>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A100" s="35"/>
       <c r="B100" s="125"/>
       <c r="C100" s="129"/>
@@ -6591,7 +6619,7 @@
       <c r="X100" s="72"/>
       <c r="AJ100" s="39"/>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A101" s="35"/>
       <c r="B101" s="125"/>
       <c r="C101" s="129"/>
@@ -6617,7 +6645,7 @@
       <c r="W101" s="130"/>
       <c r="X101" s="72"/>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A102" s="35"/>
       <c r="B102" s="125"/>
       <c r="C102" s="131"/>
@@ -6643,7 +6671,7 @@
       <c r="W102" s="35"/>
       <c r="X102" s="72"/>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A103" s="35"/>
       <c r="B103" s="125"/>
       <c r="C103" s="131"/>
@@ -6669,7 +6697,7 @@
       <c r="W103" s="35"/>
       <c r="X103" s="72"/>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A104" s="35"/>
       <c r="B104" s="125"/>
       <c r="C104" s="132"/>
@@ -6695,7 +6723,7 @@
       <c r="W104" s="128"/>
       <c r="X104" s="72"/>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A105" s="35"/>
       <c r="B105" s="125"/>
       <c r="C105" s="131"/>
@@ -6721,7 +6749,7 @@
       <c r="W105" s="35"/>
       <c r="X105" s="72"/>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A106" s="35"/>
       <c r="B106" s="125"/>
       <c r="C106" s="131"/>
@@ -6747,7 +6775,7 @@
       <c r="W106" s="35"/>
       <c r="X106" s="72"/>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A107" s="35"/>
       <c r="B107" s="125"/>
       <c r="C107" s="131"/>
@@ -6773,7 +6801,7 @@
       <c r="W107" s="35"/>
       <c r="X107" s="72"/>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A108" s="35"/>
       <c r="B108" s="125"/>
       <c r="C108" s="131"/>
@@ -6799,7 +6827,7 @@
       <c r="W108" s="35"/>
       <c r="X108" s="72"/>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A109" s="35"/>
       <c r="B109" s="125"/>
       <c r="C109" s="129"/>
@@ -6825,7 +6853,7 @@
       <c r="W109" s="130"/>
       <c r="X109" s="72"/>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A110" s="35"/>
       <c r="B110" s="125"/>
       <c r="C110" s="129"/>
@@ -6853,7 +6881,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A111" s="35"/>
       <c r="B111" s="125"/>
       <c r="C111" s="129"/>
@@ -6879,7 +6907,7 @@
       <c r="W111" s="130"/>
       <c r="X111" s="127"/>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A112" s="35"/>
       <c r="B112" s="125"/>
       <c r="C112" s="129"/>
@@ -6905,7 +6933,7 @@
       <c r="W112" s="130"/>
       <c r="X112" s="127"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A113" s="35"/>
       <c r="B113" s="125"/>
       <c r="C113" s="129"/>
@@ -6931,7 +6959,7 @@
       <c r="W113" s="130"/>
       <c r="X113" s="127"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="35"/>
       <c r="B114" s="125"/>
       <c r="C114" s="129"/>
@@ -6957,7 +6985,7 @@
       <c r="W114" s="130"/>
       <c r="X114" s="127"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A115" s="35"/>
       <c r="B115" s="125"/>
       <c r="C115" s="129"/>
@@ -6983,7 +7011,7 @@
       <c r="W115" s="130"/>
       <c r="X115" s="127"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" s="35"/>
       <c r="B116" s="125"/>
       <c r="C116" s="129"/>
@@ -7009,7 +7037,7 @@
       <c r="W116" s="130"/>
       <c r="X116" s="127"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A117" s="35"/>
       <c r="B117" s="125"/>
       <c r="C117" s="129"/>
@@ -7035,7 +7063,7 @@
       <c r="W117" s="130"/>
       <c r="X117" s="127"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118" s="35"/>
       <c r="B118" s="125"/>
       <c r="C118" s="129"/>
@@ -7061,7 +7089,7 @@
       <c r="W118" s="130"/>
       <c r="X118" s="127"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A119" s="35"/>
       <c r="B119" s="125"/>
       <c r="C119" s="129"/>
@@ -7087,7 +7115,7 @@
       <c r="W119" s="130"/>
       <c r="X119" s="127"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A120" s="35"/>
       <c r="B120" s="125"/>
       <c r="C120" s="129"/>
@@ -7113,7 +7141,7 @@
       <c r="W120" s="130"/>
       <c r="X120" s="127"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A121" s="35"/>
       <c r="B121" s="125"/>
       <c r="C121" s="129"/>
@@ -7139,7 +7167,7 @@
       <c r="W121" s="130"/>
       <c r="X121" s="127"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A122" s="35"/>
       <c r="B122" s="125"/>
       <c r="C122" s="129"/>
@@ -7165,7 +7193,7 @@
       <c r="W122" s="130"/>
       <c r="X122" s="127"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A123" s="130"/>
       <c r="B123" s="125"/>
       <c r="C123" s="129"/>
@@ -7191,7 +7219,7 @@
       <c r="W123" s="130"/>
       <c r="X123" s="127"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A124" s="35"/>
       <c r="B124" s="125"/>
       <c r="C124" s="129"/>
@@ -7217,7 +7245,7 @@
       <c r="W124" s="130"/>
       <c r="X124" s="127"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A125" s="35"/>
       <c r="B125" s="125"/>
       <c r="C125" s="129"/>
@@ -7243,7 +7271,7 @@
       <c r="W125" s="130"/>
       <c r="X125" s="127"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A126" s="35"/>
       <c r="B126" s="125"/>
       <c r="C126" s="129"/>
@@ -7269,7 +7297,7 @@
       <c r="W126" s="130"/>
       <c r="X126" s="127"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A127" s="35"/>
       <c r="B127" s="125"/>
       <c r="C127" s="129"/>
@@ -7295,7 +7323,7 @@
       <c r="W127" s="130"/>
       <c r="X127" s="127"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A128" s="35"/>
       <c r="B128" s="125"/>
       <c r="C128" s="129"/>
@@ -7321,7 +7349,7 @@
       <c r="W128" s="130"/>
       <c r="X128" s="127"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A129" s="35"/>
       <c r="B129" s="125"/>
       <c r="C129" s="129"/>
@@ -7347,7 +7375,7 @@
       <c r="W129" s="130"/>
       <c r="X129" s="127"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A130" s="35"/>
       <c r="B130" s="125"/>
       <c r="C130" s="129"/>
@@ -7373,7 +7401,7 @@
       <c r="W130" s="130"/>
       <c r="X130" s="127"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A131" s="35"/>
       <c r="B131" s="125"/>
       <c r="C131" s="129"/>
@@ -7399,7 +7427,7 @@
       <c r="W131" s="130"/>
       <c r="X131" s="127"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132" s="35"/>
       <c r="B132" s="125"/>
       <c r="C132" s="129"/>
@@ -7425,7 +7453,7 @@
       <c r="W132" s="130"/>
       <c r="X132" s="127"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A133" s="35"/>
       <c r="B133" s="125"/>
       <c r="C133" s="129"/>
@@ -7451,7 +7479,7 @@
       <c r="W133" s="130"/>
       <c r="X133" s="127"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A134" s="35"/>
       <c r="B134" s="125"/>
       <c r="C134" s="129"/>
@@ -7477,7 +7505,7 @@
       <c r="W134" s="130"/>
       <c r="X134" s="127"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A135" s="35"/>
       <c r="B135" s="125"/>
       <c r="C135" s="129"/>
@@ -7503,7 +7531,7 @@
       <c r="W135" s="130"/>
       <c r="X135" s="127"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A136" s="35"/>
       <c r="B136" s="125"/>
       <c r="C136" s="129"/>
@@ -7529,7 +7557,7 @@
       <c r="W136" s="130"/>
       <c r="X136" s="127"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A137" s="35"/>
       <c r="B137" s="125"/>
       <c r="C137" s="129"/>
@@ -7555,7 +7583,7 @@
       <c r="W137" s="130"/>
       <c r="X137" s="72"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A138" s="35"/>
       <c r="B138" s="125"/>
       <c r="C138" s="129"/>
@@ -7581,7 +7609,7 @@
       <c r="W138" s="130"/>
       <c r="X138" s="72"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A139" s="35"/>
       <c r="B139" s="125"/>
       <c r="C139" s="129"/>
@@ -7607,7 +7635,7 @@
       <c r="W139" s="130"/>
       <c r="X139" s="72"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A140" s="35"/>
       <c r="B140" s="125"/>
       <c r="C140" s="129"/>
@@ -7633,7 +7661,7 @@
       <c r="W140" s="130"/>
       <c r="X140" s="127"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A141" s="35"/>
       <c r="B141" s="125"/>
       <c r="C141" s="129"/>
@@ -7659,7 +7687,7 @@
       <c r="W141" s="130"/>
       <c r="X141" s="127"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A142" s="35"/>
       <c r="B142" s="125"/>
       <c r="C142" s="129"/>
@@ -7685,7 +7713,7 @@
       <c r="W142" s="130"/>
       <c r="X142" s="127"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A143" s="35"/>
       <c r="B143" s="125"/>
       <c r="C143" s="129"/>
@@ -7711,7 +7739,7 @@
       <c r="W143" s="130"/>
       <c r="X143" s="127"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A144" s="35"/>
       <c r="B144" s="125"/>
       <c r="C144" s="129"/>
@@ -7737,7 +7765,7 @@
       <c r="W144" s="130"/>
       <c r="X144" s="72"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A145" s="35"/>
       <c r="B145" s="125"/>
       <c r="C145" s="129"/>
@@ -7763,7 +7791,7 @@
       <c r="W145" s="130"/>
       <c r="X145" s="72"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A146" s="35"/>
       <c r="B146" s="125"/>
       <c r="C146" s="129"/>
@@ -7789,7 +7817,7 @@
       <c r="W146" s="130"/>
       <c r="X146" s="127"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A147" s="35"/>
       <c r="B147" s="125"/>
       <c r="C147" s="129"/>
@@ -7815,7 +7843,7 @@
       <c r="W147" s="130"/>
       <c r="X147" s="127"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A148" s="35"/>
       <c r="B148" s="125"/>
       <c r="C148" s="129"/>
@@ -7841,7 +7869,7 @@
       <c r="W148" s="130"/>
       <c r="X148" s="127"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A149" s="35"/>
       <c r="B149" s="125"/>
       <c r="C149" s="129"/>
@@ -7867,7 +7895,7 @@
       <c r="W149" s="130"/>
       <c r="X149" s="127"/>
     </row>
-    <row r="150" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="35"/>
       <c r="B150" s="125"/>
       <c r="C150" s="129"/>
@@ -7893,7 +7921,7 @@
       <c r="W150" s="130"/>
       <c r="X150" s="127"/>
     </row>
-    <row r="151" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="35"/>
       <c r="B151" s="125"/>
       <c r="C151" s="129"/>
@@ -7919,7 +7947,7 @@
       <c r="W151" s="130"/>
       <c r="X151" s="127"/>
     </row>
-    <row r="152" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="35"/>
       <c r="B152" s="125"/>
       <c r="C152" s="129"/>
@@ -7945,7 +7973,7 @@
       <c r="W152" s="130"/>
       <c r="X152" s="127"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A153" s="35"/>
       <c r="B153" s="125"/>
       <c r="C153" s="129"/>
@@ -7971,7 +7999,7 @@
       <c r="W153" s="130"/>
       <c r="X153" s="72"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A154" s="35"/>
       <c r="B154" s="125"/>
       <c r="C154" s="129"/>
@@ -7997,7 +8025,7 @@
       <c r="W154" s="130"/>
       <c r="X154" s="72"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A155" s="35"/>
       <c r="B155" s="125"/>
       <c r="C155" s="129"/>
@@ -8023,7 +8051,7 @@
       <c r="W155" s="130"/>
       <c r="X155" s="72"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A156" s="35"/>
       <c r="B156" s="125"/>
       <c r="C156" s="129"/>
@@ -8049,7 +8077,7 @@
       <c r="W156" s="130"/>
       <c r="X156" s="72"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A157" s="35"/>
       <c r="B157" s="125"/>
       <c r="C157" s="129"/>
@@ -8075,7 +8103,7 @@
       <c r="W157" s="130"/>
       <c r="X157" s="72"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A158" s="35"/>
       <c r="B158" s="125"/>
       <c r="C158" s="129"/>
@@ -8101,7 +8129,7 @@
       <c r="W158" s="130"/>
       <c r="X158" s="72"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A159" s="35"/>
       <c r="B159" s="125"/>
       <c r="C159" s="129"/>
@@ -8127,7 +8155,7 @@
       <c r="W159" s="130"/>
       <c r="X159" s="72"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A160" s="35"/>
       <c r="B160" s="125"/>
       <c r="C160" s="129"/>
@@ -8156,12 +8184,12 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>$D2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:W1048576">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>$A2=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8184,36 +8212,36 @@
   <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.85546875" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.88671875" customWidth="1"/>
+    <col min="26" max="26" width="20.6640625" customWidth="1"/>
+    <col min="27" max="27" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="105" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" s="106" t="s">
         <v>35</v>
@@ -8228,7 +8256,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H2" s="149" t="s">
         <v>98</v>
@@ -8236,17 +8264,17 @@
       <c r="I2" s="148" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="161" t="s">
+      <c r="K2" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="162"/>
+      <c r="L2" s="180"/>
       <c r="M2" s="53"/>
-      <c r="N2" s="161" t="s">
+      <c r="N2" s="179" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="162"/>
-    </row>
-    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="180"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13">
         <v>1</v>
       </c>
@@ -8281,7 +8309,7 @@
       </c>
       <c r="M3" s="53"/>
       <c r="N3" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O3" s="27">
         <v>0</v>
@@ -8289,7 +8317,7 @@
       <c r="Y3" s="72"/>
       <c r="Z3" s="72"/>
     </row>
-    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <f>IF(C4="","",B3+1)</f>
         <v>2</v>
@@ -8299,7 +8327,7 @@
         <v>Full_UB_4000</v>
       </c>
       <c r="D4" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="54">
         <f t="shared" si="1"/>
@@ -8331,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <f t="shared" ref="B5:B22" si="2">IF(C5="","",B4+1)</f>
         <v>3</v>
@@ -8341,7 +8369,7 @@
         <v>Full_UB_5500</v>
       </c>
       <c r="D5" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="54">
         <f t="shared" si="1"/>
@@ -8370,10 +8398,10 @@
         <v>9</v>
       </c>
       <c r="O5" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -8383,7 +8411,7 @@
         <v>PileRun_UB</v>
       </c>
       <c r="D6" s="54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="54">
         <f t="shared" si="1"/>
@@ -8409,7 +8437,7 @@
       </c>
       <c r="M6" s="53"/>
     </row>
-    <row r="7" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8419,7 +8447,7 @@
         <v>PileRun_LB</v>
       </c>
       <c r="D7" s="54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="54">
         <f t="shared" si="1"/>
@@ -8447,7 +8475,7 @@
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
     </row>
-    <row r="8" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -8476,14 +8504,14 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L8" s="47">
         <v>0</v>
       </c>
       <c r="M8" s="53"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -8512,12 +8540,12 @@
         <v>0</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="53"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -8546,14 +8574,14 @@
         <v>0</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L10" s="48">
         <v>1000</v>
       </c>
       <c r="M10" s="53"/>
     </row>
-    <row r="11" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -8582,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L11" s="48">
         <v>0</v>
@@ -8591,7 +8619,7 @@
       <c r="N11" s="53"/>
       <c r="O11" s="53"/>
     </row>
-    <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8626,7 +8654,7 @@
       </c>
       <c r="M12" s="53"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -8657,7 +8685,7 @@
       <c r="L13" s="53"/>
       <c r="M13" s="53"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -8690,7 +8718,7 @@
       <c r="L14" s="53"/>
       <c r="M14" s="53"/>
     </row>
-    <row r="15" spans="2:26" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" s="53" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8706,7 +8734,7 @@
       <c r="H15" s="54"/>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="2:26" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" s="53" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8721,12 +8749,12 @@
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
       <c r="I16" s="34"/>
-      <c r="K16" s="161" t="s">
+      <c r="K16" s="179" t="s">
         <v>217</v>
       </c>
-      <c r="L16" s="162"/>
-    </row>
-    <row r="17" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="180"/>
+    </row>
+    <row r="17" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8745,13 +8773,13 @@
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P17" s="53" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="53" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8773,7 +8801,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8789,7 +8817,7 @@
       <c r="H19" s="54"/>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8805,7 +8833,7 @@
       <c r="H20" s="54"/>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8821,7 +8849,7 @@
       <c r="H21" s="54"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8843,198 +8871,204 @@
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="159" t="s">
+    <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="166"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="166"/>
-      <c r="Q24" s="166"/>
-      <c r="R24" s="166"/>
-      <c r="S24" s="166"/>
-      <c r="T24" s="166"/>
-      <c r="U24" s="166"/>
-      <c r="V24" s="166"/>
-      <c r="W24" s="166"/>
-      <c r="X24" s="166"/>
-      <c r="Y24" s="166"/>
-      <c r="Z24" s="166"/>
-      <c r="AA24" s="160"/>
-    </row>
-    <row r="25" spans="1:28" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="150" t="s">
-        <v>274</v>
-      </c>
-      <c r="C25" s="151" t="s">
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="184"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="184"/>
+      <c r="O24" s="184"/>
+      <c r="P24" s="184"/>
+      <c r="Q24" s="184"/>
+      <c r="R24" s="184"/>
+      <c r="S24" s="184"/>
+      <c r="T24" s="184"/>
+      <c r="U24" s="184"/>
+      <c r="V24" s="184"/>
+      <c r="W24" s="184"/>
+      <c r="X24" s="184"/>
+      <c r="Y24" s="184"/>
+      <c r="Z24" s="184"/>
+      <c r="AA24" s="184"/>
+      <c r="AB24" s="178"/>
+    </row>
+    <row r="25" spans="1:28" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="143" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="151" t="s">
+      <c r="D25" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="151" t="s">
+      <c r="E25" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="151" t="s">
+      <c r="F25" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="151" t="s">
+      <c r="G25" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="151" t="s">
+      <c r="H25" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="151" t="s">
+      <c r="I25" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="151" t="s">
+      <c r="J25" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="151" t="s">
+      <c r="K25" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="L25" s="151" t="s">
+      <c r="L25" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="M25" s="151" t="s">
+      <c r="M25" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="151" t="s">
+      <c r="N25" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="151" t="s">
+      <c r="O25" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="151" t="s">
+      <c r="P25" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="Q25" s="151" t="s">
+      <c r="Q25" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="R25" s="151" t="s">
+      <c r="R25" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="S25" s="151" t="s">
+      <c r="S25" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="T25" s="151" t="s">
+      <c r="T25" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="U25" s="151" t="s">
+      <c r="U25" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="V25" s="151" t="s">
+      <c r="V25" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="W25" s="151" t="s">
+      <c r="W25" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="X25" s="151" t="s">
+      <c r="X25" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="Y25" s="151" t="s">
+      <c r="Y25" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="Z25" s="151" t="s">
+      <c r="Z25" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="AA25" s="152" t="s">
+      <c r="AA25" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="AB25" s="53"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB25" s="145" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="52"/>
-      <c r="B26" s="153">
+      <c r="B26" s="52">
         <v>1</v>
       </c>
-      <c r="C26" s="154" t="s">
+      <c r="C26" s="142" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="154">
-        <v>0</v>
-      </c>
-      <c r="E26" s="154">
+      <c r="D26" s="142">
+        <v>0</v>
+      </c>
+      <c r="E26" s="142">
         <v>1</v>
       </c>
-      <c r="F26" s="154">
+      <c r="F26" s="142">
+        <v>0</v>
+      </c>
+      <c r="G26" s="142">
+        <v>1372</v>
+      </c>
+      <c r="H26" s="142">
+        <v>2.02</v>
+      </c>
+      <c r="I26" s="142">
+        <v>0.95</v>
+      </c>
+      <c r="J26" s="142">
+        <v>2575.1000000000004</v>
+      </c>
+      <c r="K26" s="142">
+        <v>0</v>
+      </c>
+      <c r="L26" s="142">
+        <v>90</v>
+      </c>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" s="142">
+        <v>500</v>
+      </c>
+      <c r="P26" s="142">
         <v>1</v>
       </c>
-      <c r="G26" s="154">
-        <v>1372</v>
-      </c>
-      <c r="H26" s="154">
-        <v>2.02</v>
-      </c>
-      <c r="I26" s="154">
-        <v>0.95</v>
-      </c>
-      <c r="J26" s="154">
-        <v>2575.1000000000004</v>
-      </c>
-      <c r="K26" s="154">
-        <v>38487</v>
-      </c>
-      <c r="L26" s="154">
-        <v>90</v>
-      </c>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154" t="s">
-        <v>43</v>
-      </c>
-      <c r="O26" s="154">
-        <v>500</v>
-      </c>
-      <c r="P26" s="154">
+      <c r="Q26" s="142" t="s">
+        <v>287</v>
+      </c>
+      <c r="R26" s="142">
         <v>1</v>
       </c>
-      <c r="Q26" s="154" t="s">
-        <v>288</v>
-      </c>
-      <c r="R26" s="154">
-        <v>1</v>
-      </c>
-      <c r="S26" s="154" t="s">
+      <c r="S26" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="T26" s="154">
+      <c r="T26" s="142">
         <v>300</v>
       </c>
-      <c r="U26" s="154">
+      <c r="U26" s="142">
         <v>400</v>
       </c>
-      <c r="V26" s="154">
+      <c r="V26" s="142">
         <v>3411.4</v>
       </c>
-      <c r="W26" s="154" t="s">
+      <c r="W26" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="X26" s="154" t="s">
+      <c r="X26" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="Y26" s="154">
+      <c r="Y26" s="142">
         <v>200</v>
       </c>
-      <c r="Z26" s="154">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z26" s="142">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="142">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="52"/>
       <c r="B27" s="52">
         <f>IF(C27="","",B26+1)</f>
@@ -9065,7 +9099,7 @@
         <v>2575.1000000000004</v>
       </c>
       <c r="K27" s="142">
-        <v>38487</v>
+        <v>0</v>
       </c>
       <c r="L27" s="142">
         <v>90</v>
@@ -9081,13 +9115,13 @@
         <v>1</v>
       </c>
       <c r="Q27" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R27" s="142">
         <v>1</v>
       </c>
       <c r="S27" s="142" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="T27" s="142">
         <v>0</v>
@@ -9110,11 +9144,14 @@
       <c r="Z27" s="142">
         <v>0</v>
       </c>
-      <c r="AA27" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA27" s="142">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="52"/>
       <c r="B28" s="52">
         <f t="shared" ref="B28:B45" si="3">IF(C28="","",B27+1)</f>
@@ -9133,7 +9170,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="142">
-        <v>5500</v>
+        <v>1372</v>
       </c>
       <c r="H28" s="142">
         <v>2.02</v>
@@ -9145,7 +9182,7 @@
         <v>2575.1000000000004</v>
       </c>
       <c r="K28" s="142">
-        <v>38487</v>
+        <v>0</v>
       </c>
       <c r="L28" s="142">
         <v>90</v>
@@ -9161,7 +9198,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R28" s="142">
         <v>1</v>
@@ -9182,7 +9219,7 @@
         <v>74</v>
       </c>
       <c r="X28" s="142" t="s">
-        <v>273</v>
+        <v>91</v>
       </c>
       <c r="Y28" s="142">
         <v>0</v>
@@ -9190,11 +9227,14 @@
       <c r="Z28" s="142">
         <v>0</v>
       </c>
-      <c r="AA28" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA28" s="142">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="52"/>
       <c r="B29" s="52">
         <f t="shared" si="3"/>
@@ -9219,13 +9259,13 @@
         <v>2.02</v>
       </c>
       <c r="I29" s="142">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="J29" s="142">
-        <v>2540.3000000000002</v>
+        <v>2575.1</v>
       </c>
       <c r="K29" s="142">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="L29" s="142">
         <v>90</v>
@@ -9241,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="Q29" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R29" s="142">
         <v>1</v>
@@ -9270,11 +9310,14 @@
       <c r="Z29" s="142">
         <v>0</v>
       </c>
-      <c r="AA29" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA29" s="142">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="52"/>
       <c r="B30" s="52">
         <f t="shared" si="3"/>
@@ -9299,13 +9342,13 @@
         <v>2.02</v>
       </c>
       <c r="I30" s="142">
-        <v>0.1</v>
+        <v>0.95</v>
       </c>
       <c r="J30" s="142">
-        <v>2540.3000000000002</v>
+        <v>2575.1</v>
       </c>
       <c r="K30" s="142">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="L30" s="142">
         <v>90</v>
@@ -9321,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R30" s="142">
         <v>1</v>
@@ -9350,11 +9393,14 @@
       <c r="Z30" s="142">
         <v>0</v>
       </c>
-      <c r="AA30" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA30" s="142">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="52"/>
       <c r="B31" s="52">
         <f t="shared" si="3"/>
@@ -9370,10 +9416,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="142">
-        <v>5500</v>
+        <v>1372</v>
       </c>
       <c r="H31" s="142">
         <v>2.02</v>
@@ -9382,10 +9428,10 @@
         <v>0.95</v>
       </c>
       <c r="J31" s="142">
-        <v>2540.3000000000002</v>
+        <v>2575.1</v>
       </c>
       <c r="K31" s="142">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="L31" s="142">
         <v>90</v>
@@ -9401,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R31" s="142">
         <v>1</v>
@@ -9430,11 +9476,14 @@
       <c r="Z31" s="142">
         <v>0</v>
       </c>
-      <c r="AA31" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA31" s="142">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="52"/>
       <c r="B32" s="52">
         <f t="shared" si="3"/>
@@ -9450,10 +9499,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="142">
-        <v>5500</v>
+        <v>1372</v>
       </c>
       <c r="H32" s="142">
         <v>2.02</v>
@@ -9462,10 +9511,10 @@
         <v>0.95</v>
       </c>
       <c r="J32" s="142">
-        <v>2540.3000000000002</v>
+        <v>2575.1</v>
       </c>
       <c r="K32" s="142">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="L32" s="142">
         <v>90</v>
@@ -9481,7 +9530,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R32" s="142">
         <v>1</v>
@@ -9510,11 +9559,14 @@
       <c r="Z32" s="142">
         <v>2</v>
       </c>
-      <c r="AA32" s="156">
+      <c r="AA32" s="142">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB32" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="52"/>
       <c r="B33" s="52">
         <f t="shared" si="3"/>
@@ -9530,10 +9582,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="142">
-        <v>5500</v>
+        <v>1372</v>
       </c>
       <c r="H33" s="142">
         <v>2.02</v>
@@ -9542,10 +9594,10 @@
         <v>0.95</v>
       </c>
       <c r="J33" s="142">
-        <v>2540.3000000000002</v>
+        <v>2575.1</v>
       </c>
       <c r="K33" s="142">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="L33" s="142">
         <v>90</v>
@@ -9561,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R33" s="142">
         <v>1</v>
@@ -9590,11 +9642,14 @@
       <c r="Z33" s="142">
         <v>0</v>
       </c>
-      <c r="AA33" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA33" s="142">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="52"/>
       <c r="B34" s="52">
         <f t="shared" si="3"/>
@@ -9610,10 +9665,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="142">
-        <v>5500</v>
+        <v>1372</v>
       </c>
       <c r="H34" s="142">
         <v>2.02</v>
@@ -9622,10 +9677,10 @@
         <v>0.95</v>
       </c>
       <c r="J34" s="142">
-        <v>2575.1000000000004</v>
+        <v>2575.1</v>
       </c>
       <c r="K34" s="142">
-        <v>38487</v>
+        <v>0</v>
       </c>
       <c r="L34" s="142">
         <v>90</v>
@@ -9641,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R34" s="142">
         <v>1</v>
@@ -9670,11 +9725,14 @@
       <c r="Z34" s="142">
         <v>0</v>
       </c>
-      <c r="AA34" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA34" s="142">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="52"/>
       <c r="B35" s="52">
         <f t="shared" si="3"/>
@@ -9690,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="142">
         <v>1372</v>
@@ -9702,10 +9760,10 @@
         <v>0.95</v>
       </c>
       <c r="J35" s="142">
-        <v>2540.3000000000002</v>
+        <v>2575.1</v>
       </c>
       <c r="K35" s="142">
-        <v>28383.242427632627</v>
+        <v>0</v>
       </c>
       <c r="L35" s="142">
         <v>90</v>
@@ -9721,7 +9779,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R35" s="142">
         <v>1</v>
@@ -9750,11 +9808,14 @@
       <c r="Z35" s="142">
         <v>0</v>
       </c>
-      <c r="AA35" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA35" s="142">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="52"/>
       <c r="B36" s="52">
         <f t="shared" si="3"/>
@@ -9770,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="142">
         <v>1372</v>
@@ -9782,7 +9843,7 @@
         <v>0.95</v>
       </c>
       <c r="J36" s="142">
-        <v>2256.3000000000002</v>
+        <v>2575.1</v>
       </c>
       <c r="K36" s="142">
         <v>0</v>
@@ -9801,7 +9862,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R36" s="142">
         <v>1</v>
@@ -9830,11 +9891,14 @@
       <c r="Z36" s="142">
         <v>0</v>
       </c>
-      <c r="AA36" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA36" s="142">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="52"/>
       <c r="B37" s="52">
         <f t="shared" si="3"/>
@@ -9850,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="142">
         <v>1372</v>
@@ -9862,7 +9926,7 @@
         <v>0.95</v>
       </c>
       <c r="J37" s="142">
-        <v>2256.3000000000002</v>
+        <v>2575.1</v>
       </c>
       <c r="K37" s="142">
         <v>0</v>
@@ -9881,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R37" s="142">
         <v>1</v>
@@ -9910,11 +9974,14 @@
       <c r="Z37" s="142">
         <v>0</v>
       </c>
-      <c r="AA37" s="156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA37" s="142">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="142"/>
       <c r="B38" s="52" t="str">
         <f t="shared" si="3"/>
@@ -9944,9 +10011,10 @@
       <c r="X38" s="142"/>
       <c r="Y38" s="142"/>
       <c r="Z38" s="142"/>
-      <c r="AA38" s="156"/>
-    </row>
-    <row r="39" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA38" s="142"/>
+      <c r="AB38" s="150"/>
+    </row>
+    <row r="39" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="52"/>
       <c r="B39" s="52" t="str">
         <f t="shared" si="3"/>
@@ -9976,9 +10044,10 @@
       <c r="X39" s="142"/>
       <c r="Y39" s="142"/>
       <c r="Z39" s="142"/>
-      <c r="AA39" s="156"/>
-    </row>
-    <row r="40" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA39" s="142"/>
+      <c r="AB39" s="150"/>
+    </row>
+    <row r="40" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="52"/>
       <c r="B40" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10008,9 +10077,10 @@
       <c r="X40" s="142"/>
       <c r="Y40" s="142"/>
       <c r="Z40" s="142"/>
-      <c r="AA40" s="156"/>
-    </row>
-    <row r="41" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA40" s="142"/>
+      <c r="AB40" s="150"/>
+    </row>
+    <row r="41" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="52"/>
       <c r="B41" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10040,9 +10110,10 @@
       <c r="X41" s="142"/>
       <c r="Y41" s="142"/>
       <c r="Z41" s="142"/>
-      <c r="AA41" s="156"/>
-    </row>
-    <row r="42" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA41" s="142"/>
+      <c r="AB41" s="150"/>
+    </row>
+    <row r="42" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="52"/>
       <c r="B42" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10072,9 +10143,10 @@
       <c r="X42" s="142"/>
       <c r="Y42" s="142"/>
       <c r="Z42" s="142"/>
-      <c r="AA42" s="156"/>
-    </row>
-    <row r="43" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA42" s="142"/>
+      <c r="AB42" s="150"/>
+    </row>
+    <row r="43" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="52"/>
       <c r="B43" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10104,9 +10176,10 @@
       <c r="X43" s="142"/>
       <c r="Y43" s="142"/>
       <c r="Z43" s="142"/>
-      <c r="AA43" s="156"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA43" s="142"/>
+      <c r="AB43" s="150"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="52"/>
       <c r="B44" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10136,66 +10209,68 @@
       <c r="X44" s="142"/>
       <c r="Y44" s="142"/>
       <c r="Z44" s="142"/>
-      <c r="AA44" s="156"/>
-    </row>
-    <row r="45" spans="1:27" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA44" s="142"/>
+      <c r="AB44" s="150"/>
+    </row>
+    <row r="45" spans="1:28" s="53" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="52"/>
       <c r="B45" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C45" s="157"/>
-      <c r="D45" s="157"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="157"/>
-      <c r="H45" s="157"/>
-      <c r="I45" s="157"/>
-      <c r="J45" s="157"/>
-      <c r="K45" s="157"/>
-      <c r="L45" s="157"/>
-      <c r="M45" s="157"/>
-      <c r="N45" s="157"/>
-      <c r="O45" s="157"/>
-      <c r="P45" s="157"/>
-      <c r="Q45" s="157"/>
-      <c r="R45" s="157"/>
-      <c r="S45" s="157"/>
-      <c r="T45" s="157"/>
-      <c r="U45" s="157"/>
-      <c r="V45" s="157"/>
-      <c r="W45" s="157"/>
-      <c r="X45" s="157"/>
-      <c r="Y45" s="157"/>
-      <c r="Z45" s="157"/>
-      <c r="AA45" s="158"/>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="163" t="s">
+      <c r="C45" s="151"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="151"/>
+      <c r="N45" s="151"/>
+      <c r="O45" s="151"/>
+      <c r="P45" s="151"/>
+      <c r="Q45" s="151"/>
+      <c r="R45" s="151"/>
+      <c r="S45" s="151"/>
+      <c r="T45" s="151"/>
+      <c r="U45" s="151"/>
+      <c r="V45" s="151"/>
+      <c r="W45" s="151"/>
+      <c r="X45" s="151"/>
+      <c r="Y45" s="151"/>
+      <c r="Z45" s="151"/>
+      <c r="AA45" s="151"/>
+      <c r="AB45" s="152"/>
+    </row>
+    <row r="46" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="164"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="164"/>
-      <c r="H47" s="165"/>
-      <c r="J47" s="163" t="s">
+      <c r="C47" s="182"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="183"/>
+      <c r="J47" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="164"/>
-      <c r="L47" s="164"/>
-      <c r="M47" s="164"/>
-      <c r="N47" s="164"/>
-      <c r="O47" s="164"/>
-      <c r="P47" s="164"/>
-      <c r="Q47" s="164"/>
-      <c r="R47" s="164"/>
-      <c r="S47" s="164"/>
-      <c r="T47" s="165"/>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K47" s="182"/>
+      <c r="L47" s="182"/>
+      <c r="M47" s="182"/>
+      <c r="N47" s="182"/>
+      <c r="O47" s="182"/>
+      <c r="P47" s="182"/>
+      <c r="Q47" s="182"/>
+      <c r="R47" s="182"/>
+      <c r="S47" s="182"/>
+      <c r="T47" s="183"/>
+    </row>
+    <row r="48" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="143" t="s">
         <v>0</v>
       </c>
@@ -10251,7 +10326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49" s="49">
         <v>1</v>
       </c>
@@ -10307,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -10349,7 +10424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -10369,7 +10444,7 @@
       <c r="S51" s="54"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -10389,7 +10464,7 @@
       <c r="S52" s="54"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -10409,7 +10484,7 @@
       <c r="S53" s="54"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -10429,7 +10504,7 @@
       <c r="S54" s="54"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -10449,7 +10524,7 @@
       <c r="S55" s="54"/>
       <c r="T55" s="5"/>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -10469,7 +10544,7 @@
       <c r="S56" s="54"/>
       <c r="T56" s="5"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -10489,7 +10564,7 @@
       <c r="S57" s="54"/>
       <c r="T57" s="5"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -10509,7 +10584,7 @@
       <c r="S58" s="54"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -10529,7 +10604,7 @@
       <c r="S59" s="54"/>
       <c r="T59" s="5"/>
     </row>
-    <row r="60" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -10549,141 +10624,194 @@
       <c r="S60" s="7"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="62" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="159" t="s">
+    <row r="62" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="177" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="160"/>
-    </row>
-    <row r="64" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="178"/>
+      <c r="E63" s="177" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" s="178"/>
+    </row>
+    <row r="64" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="143" t="s">
         <v>95</v>
       </c>
       <c r="C64" s="145" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E64" s="143" t="s">
+        <v>292</v>
+      </c>
+      <c r="F64" s="145" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="13">
         <v>1</v>
       </c>
       <c r="C65" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
         <v>2</v>
       </c>
       <c r="C66" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E66" s="3">
+        <v>3</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
         <v>3</v>
       </c>
       <c r="C67" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E67" s="3"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
         <v>4</v>
       </c>
       <c r="C68" s="5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E68" s="3"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
         <v>5</v>
       </c>
       <c r="C69" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E69" s="3"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
         <v>6</v>
       </c>
       <c r="C70" s="5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E70" s="3"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
         <v>7</v>
       </c>
       <c r="C71" s="5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E71" s="3"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
         <v>8</v>
       </c>
       <c r="C72" s="5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E72" s="3"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <v>9</v>
       </c>
       <c r="C73" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E73" s="3"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
         <v>10</v>
       </c>
       <c r="C74" s="5">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E74" s="3"/>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="3"/>
       <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E75" s="3"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="3"/>
       <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E76" s="3"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="3"/>
       <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E77" s="3"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="3"/>
       <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E78" s="3"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="3"/>
       <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E79" s="3"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="3"/>
       <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="3"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="6"/>
       <c r="C81" s="8"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="J47:T47"/>
-    <mergeCell ref="B24:AA24"/>
     <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B24:AB24"/>
+    <mergeCell ref="E63:F63"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X27:X33 X37:X43" xr:uid="{3900C4C6-43F3-4DF6-8675-9B5D9868FF8C}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X37:X43 X27:X33" xr:uid="{3900C4C6-43F3-4DF6-8675-9B5D9868FF8C}">
       <formula1>"Not Applied, IHC S-1200, IHC S-2000, IHC S-4000"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X26 X34:X36" xr:uid="{6CCC0A35-6707-47E0-BBCE-DF3BF7CD2ABA}">
@@ -10699,10 +10827,7 @@
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D22 F3:I22 D26:F45 P26:P45 R26:R45" xr:uid="{3B6ED0C1-09EF-4375-B621-8270F8B21411}">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O5" xr:uid="{57D2FE4A-D0A8-4267-8977-757F705FA518}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D22 F3:I22 D26:F45 P26:P45 R26:R45 O3:O5" xr:uid="{3B6ED0C1-09EF-4375-B621-8270F8B21411}">
       <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10728,22 +10853,22 @@
       <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5.88671875" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="103" t="s">
         <v>108</v>
       </c>
@@ -10763,35 +10888,35 @@
       <c r="G2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="167" t="s">
+      <c r="H2" s="185" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="169" t="s">
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="187" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="169" t="s">
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="187" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="167"/>
-      <c r="AB2" s="168"/>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="186"/>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="95">
         <f>IF(B3="","",PROJ!B26)</f>
         <v>1</v>
@@ -10810,7 +10935,7 @@
       <c r="F3" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="194" t="s">
+      <c r="G3" s="175" t="s">
         <v>86</v>
       </c>
       <c r="H3" s="35">
@@ -10847,7 +10972,7 @@
       <c r="AA3" s="54"/>
       <c r="AB3" s="5"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="96">
         <f>IF(B4="","",PROJ!B27)</f>
         <v>2</v>
@@ -10913,7 +11038,7 @@
       <c r="AS4" s="9"/>
       <c r="AT4" s="9"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="96">
         <f>IF(B5="","",PROJ!B28)</f>
         <v>3</v>
@@ -10972,7 +11097,7 @@
       <c r="AB5" s="5"/>
       <c r="AS5" s="9"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="96">
         <f>IF(B6="","",PROJ!B29)</f>
         <v>4</v>
@@ -11030,7 +11155,7 @@
       <c r="AA6" s="54"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" s="96">
         <f>IF(B7="","",PROJ!B30)</f>
         <v>5</v>
@@ -11082,7 +11207,7 @@
       <c r="AA7" s="54"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" s="96">
         <f>IF(B8="","",PROJ!B31)</f>
         <v>6</v>
@@ -11140,7 +11265,7 @@
       <c r="AA8" s="54"/>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" s="96">
         <f>IF(B9="","",PROJ!B32)</f>
         <v>7</v>
@@ -11198,7 +11323,7 @@
       <c r="AA9" s="54"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" s="96">
         <f>IF(B10="","",PROJ!B33)</f>
         <v>8</v>
@@ -11250,7 +11375,7 @@
       <c r="AA10" s="54"/>
       <c r="AB10" s="5"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" s="96">
         <f>IF(B11="","",PROJ!B34)</f>
         <v>9</v>
@@ -11308,7 +11433,7 @@
       <c r="AA11" s="54"/>
       <c r="AB11" s="5"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" s="96">
         <f>IF(B12="","",PROJ!B35)</f>
         <v>10</v>
@@ -11360,7 +11485,7 @@
       <c r="AA12" s="54"/>
       <c r="AB12" s="5"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" s="96">
         <f>IF(B13="","",PROJ!B36)</f>
         <v>11</v>
@@ -11418,7 +11543,7 @@
       <c r="AA13" s="54"/>
       <c r="AB13" s="5"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="96">
         <f>IF(B14="","",PROJ!B37)</f>
         <v>12</v>
@@ -11470,7 +11595,7 @@
       <c r="AA14" s="54"/>
       <c r="AB14" s="5"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="96" t="str">
         <f>IF(B15="","",PROJ!B44)</f>
         <v/>
@@ -11522,7 +11647,7 @@
       <c r="AA15" s="54"/>
       <c r="AB15" s="5"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" s="96" t="str">
         <f>IF(B16="","",PROJ!B46)</f>
         <v/>
@@ -11564,7 +11689,7 @@
       <c r="AA16" s="54"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="96" t="str">
         <f>IF(B17="","",PROJ!B47)</f>
         <v/>
@@ -11606,7 +11731,7 @@
       <c r="AA17" s="54"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="96" t="str">
         <f>IF(B18="","",PROJ!B48)</f>
         <v/>
@@ -11647,7 +11772,7 @@
       <c r="AA18" s="54"/>
       <c r="AB18" s="5"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="96" t="str">
         <f>IF(B19="","",PROJ!B49)</f>
         <v/>
@@ -11688,7 +11813,7 @@
       <c r="AA19" s="54"/>
       <c r="AB19" s="5"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="96" t="str">
         <f>IF(B20="","",PROJ!B50)</f>
         <v/>
@@ -11729,7 +11854,7 @@
       <c r="AA20" s="54"/>
       <c r="AB20" s="5"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="96" t="str">
         <f>IF(B21="","",PROJ!B51)</f>
         <v/>
@@ -11771,7 +11896,7 @@
       <c r="AA21" s="54"/>
       <c r="AB21" s="5"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="97" t="str">
         <f>IF(B22="","",PROJ!B52)</f>
         <v/>
@@ -11812,7 +11937,7 @@
       <c r="AA22" s="54"/>
       <c r="AB22" s="5"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D23" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11845,7 +11970,7 @@
       <c r="AA23" s="54"/>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D24" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11878,7 +12003,7 @@
       <c r="AA24" s="54"/>
       <c r="AB24" s="5"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D25" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11911,7 +12036,7 @@
       <c r="AA25" s="54"/>
       <c r="AB25" s="5"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11944,11 +12069,11 @@
       <c r="AA26" s="54"/>
       <c r="AB26" s="5"/>
     </row>
-    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="170" t="s">
+    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="188" t="s">
         <v>229</v>
       </c>
-      <c r="B27" s="171"/>
+      <c r="B27" s="189"/>
       <c r="D27" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11981,7 +12106,7 @@
       <c r="AA27" s="54"/>
       <c r="AB27" s="5"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -12020,7 +12145,7 @@
       <c r="AA28" s="54"/>
       <c r="AB28" s="5"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -12059,7 +12184,7 @@
       <c r="AA29" s="54"/>
       <c r="AB29" s="5"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -12098,7 +12223,7 @@
       <c r="AA30" s="54"/>
       <c r="AB30" s="5"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -12137,7 +12262,7 @@
       <c r="AA31" s="54"/>
       <c r="AB31" s="5"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -12176,7 +12301,7 @@
       <c r="AA32" s="54"/>
       <c r="AB32" s="5"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -12215,7 +12340,7 @@
       <c r="AA33" s="54"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -12254,7 +12379,7 @@
       <c r="AA34" s="54"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8</v>
       </c>
@@ -12293,7 +12418,7 @@
       <c r="AA35" s="54"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9</v>
       </c>
@@ -12332,7 +12457,7 @@
       <c r="AA36" s="54"/>
       <c r="AB36" s="5"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10</v>
       </c>
@@ -12371,7 +12496,7 @@
       <c r="AA37" s="54"/>
       <c r="AB37" s="5"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>11</v>
       </c>
@@ -12410,7 +12535,7 @@
       <c r="AA38" s="54"/>
       <c r="AB38" s="5"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12</v>
       </c>
@@ -12449,7 +12574,7 @@
       <c r="AA39" s="54"/>
       <c r="AB39" s="5"/>
     </row>
-    <row r="40" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>13</v>
       </c>
@@ -12460,7 +12585,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E40" s="195" t="str">
+      <c r="E40" s="176" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -12488,7 +12613,7 @@
       <c r="AA40" s="7"/>
       <c r="AB40" s="8"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -12496,7 +12621,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>15</v>
       </c>
@@ -12509,7 +12634,7 @@
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:AB40">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>$D3=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12547,42 +12672,42 @@
   <dimension ref="A1:XFD105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="53" customWidth="1"/>
     <col min="7" max="7" width="11" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="53" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="53" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="53" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="53" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="53" customWidth="1"/>
     <col min="11" max="12" width="10" style="53" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="53" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="53" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="53" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="53" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="53"/>
+    <col min="13" max="13" width="9.88671875" style="53" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="53" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="53" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="53" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.88671875" style="53" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="103" t="s">
         <v>108</v>
       </c>
@@ -12663,7 +12788,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="95">
         <f>IF(B3="","",PROJ!B26)</f>
         <v>1</v>
@@ -12674,25 +12799,25 @@
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="108">
         <v>1</v>
       </c>
       <c r="F3" s="108" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H3" s="100" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I3" s="34">
         <v>4</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K3" s="54">
         <v>5</v>
@@ -12714,7 +12839,7 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="96">
         <f>IF(B4="","",PROJ!B27)</f>
         <v>2</v>
@@ -12725,7 +12850,7 @@
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="108">
         <f>IF(G4="","",E3+1)</f>
@@ -12735,16 +12860,16 @@
         <v>86</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H4" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I4" s="34">
         <v>4</v>
       </c>
       <c r="J4" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K4" s="34">
         <v>5</v>
@@ -12770,7 +12895,7 @@
       <c r="AD4" s="99"/>
       <c r="AE4" s="99"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="96">
         <f>IF(B5="","",PROJ!B28)</f>
         <v>3</v>
@@ -12781,26 +12906,26 @@
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="108">
-        <f t="shared" ref="E5:E14" si="0">IF(G5="","",E4+1)</f>
+        <f t="shared" ref="E5" si="0">IF(G5="","",E4+1)</f>
         <v>3</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G5" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="112" t="s">
         <v>285</v>
-      </c>
-      <c r="H5" s="112" t="s">
-        <v>286</v>
       </c>
       <c r="I5" s="34">
         <v>4</v>
       </c>
       <c r="J5" s="112" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K5" s="34">
         <v>5</v>
@@ -12825,7 +12950,7 @@
       <c r="AD5" s="99"/>
       <c r="AE5" s="54"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="96">
         <f>IF(B6="","",PROJ!B29)</f>
         <v>4</v>
@@ -12863,7 +12988,7 @@
       <c r="AD6" s="54"/>
       <c r="AE6" s="54"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="96">
         <f>IF(B7="","",PROJ!B30)</f>
         <v>5</v>
@@ -12898,7 +13023,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="96">
         <f>IF(B8="","",PROJ!B31)</f>
         <v>6</v>
@@ -12933,7 +13058,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="96">
         <f>IF(B9="","",PROJ!B32)</f>
         <v>7</v>
@@ -12968,7 +13093,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="96">
         <f>IF(B10="","",PROJ!B33)</f>
         <v>8</v>
@@ -13003,7 +13128,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="96">
         <f>IF(B11="","",PROJ!B34)</f>
         <v>9</v>
@@ -13038,7 +13163,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="96">
         <f>IF(B12="","",PROJ!B35)</f>
         <v>10</v>
@@ -13073,7 +13198,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="96">
         <f>IF(B13="","",PROJ!B36)</f>
         <v>11</v>
@@ -13108,7 +13233,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="96">
         <f>IF(B14="","",PROJ!B37)</f>
         <v>12</v>
@@ -13143,7 +13268,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="96" t="str">
         <f>IF(B15="","",PROJ!B44)</f>
         <v/>
@@ -13178,7 +13303,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="96" t="str">
         <f>IF(B16="","",PROJ!B46)</f>
         <v/>
@@ -13213,7 +13338,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="96" t="str">
         <f>IF(B17="","",PROJ!B47)</f>
         <v/>
@@ -13248,7 +13373,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="96" t="str">
         <f>IF(B18="","",PROJ!B48)</f>
         <v/>
@@ -13283,7 +13408,7 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="96" t="str">
         <f>IF(B19="","",PROJ!B49)</f>
         <v/>
@@ -13318,7 +13443,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="96" t="str">
         <f>IF(B20="","",PROJ!B50)</f>
         <v/>
@@ -13353,7 +13478,7 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="96" t="str">
         <f>IF(B21="","",PROJ!B51)</f>
         <v/>
@@ -13388,7 +13513,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="97" t="str">
         <f>IF(B22="","",PROJ!B52)</f>
         <v/>
@@ -13423,7 +13548,7 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -13452,7 +13577,7 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -13481,7 +13606,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -13510,7 +13635,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -13539,7 +13664,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -13568,7 +13693,7 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -13597,7 +13722,7 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -13626,7 +13751,7 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -13655,7 +13780,7 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -13684,7 +13809,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -13713,7 +13838,7 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -13742,7 +13867,7 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="72"/>
       <c r="B34" s="72"/>
       <c r="C34" s="72"/>
@@ -13771,7 +13896,7 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="72"/>
       <c r="B35" s="72"/>
       <c r="C35" s="72"/>
@@ -13800,7 +13925,7 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="72"/>
       <c r="B36" s="72"/>
       <c r="C36" s="72"/>
@@ -13829,7 +13954,7 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="72"/>
       <c r="B37" s="72"/>
       <c r="C37" s="72"/>
@@ -13858,7 +13983,7 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="72"/>
       <c r="B38" s="72"/>
       <c r="C38" s="72"/>
@@ -13887,7 +14012,7 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="72"/>
       <c r="B39" s="72"/>
       <c r="C39" s="72"/>
@@ -13916,7 +14041,7 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D40" s="110"/>
       <c r="E40" s="108"/>
       <c r="F40" s="108"/>
@@ -13942,7 +14067,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D41" s="110"/>
       <c r="E41" s="108"/>
       <c r="F41" s="108"/>
@@ -13968,7 +14093,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D42" s="110"/>
       <c r="E42" s="108"/>
       <c r="F42" s="108"/>
@@ -13994,7 +14119,7 @@
       <c r="Z42" s="3"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D43" s="110"/>
       <c r="E43" s="108"/>
       <c r="F43" s="108"/>
@@ -14020,7 +14145,7 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D44" s="110"/>
       <c r="E44" s="108"/>
       <c r="F44" s="108"/>
@@ -14046,7 +14171,7 @@
       <c r="Z44" s="3"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D45" s="110"/>
       <c r="E45" s="108"/>
       <c r="F45" s="108"/>
@@ -14072,7 +14197,7 @@
       <c r="Z45" s="3"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D46" s="110"/>
       <c r="E46" s="108"/>
       <c r="F46" s="108"/>
@@ -14098,7 +14223,7 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D47" s="110"/>
       <c r="E47" s="108"/>
       <c r="F47" s="108"/>
@@ -14124,7 +14249,7 @@
       <c r="Z47" s="3"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D48" s="110"/>
       <c r="E48" s="108"/>
       <c r="F48" s="108"/>
@@ -14150,7 +14275,7 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D49" s="110"/>
       <c r="E49" s="108"/>
       <c r="F49" s="108"/>
@@ -14176,7 +14301,7 @@
       <c r="Z49" s="3"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D50" s="110"/>
       <c r="E50" s="108"/>
       <c r="F50" s="108"/>
@@ -14202,7 +14327,7 @@
       <c r="Z50" s="3"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D51" s="110"/>
       <c r="E51" s="108"/>
       <c r="F51" s="108"/>
@@ -14228,7 +14353,7 @@
       <c r="Z51" s="3"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D52" s="110"/>
       <c r="E52" s="108"/>
       <c r="F52" s="108"/>
@@ -14254,7 +14379,7 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="5"/>
     </row>
-    <row r="53" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D53" s="110"/>
       <c r="E53" s="108"/>
       <c r="F53" s="108"/>
@@ -14280,7 +14405,7 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D54" s="110"/>
       <c r="E54" s="108"/>
       <c r="F54" s="108"/>
@@ -14306,7 +14431,7 @@
       <c r="Z54" s="3"/>
       <c r="AA54" s="5"/>
     </row>
-    <row r="55" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D55" s="110"/>
       <c r="E55" s="108"/>
       <c r="F55" s="108"/>
@@ -14332,7 +14457,7 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="5"/>
     </row>
-    <row r="56" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D56" s="110"/>
       <c r="E56" s="108"/>
       <c r="F56" s="108"/>
@@ -14358,7 +14483,7 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D57" s="110"/>
       <c r="E57" s="108"/>
       <c r="F57" s="108"/>
@@ -14384,7 +14509,7 @@
       <c r="Z57" s="3"/>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D58" s="110"/>
       <c r="E58" s="108"/>
       <c r="F58" s="108"/>
@@ -14410,7 +14535,7 @@
       <c r="Z58" s="3"/>
       <c r="AA58" s="5"/>
     </row>
-    <row r="59" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D59" s="110"/>
       <c r="E59" s="108"/>
       <c r="F59" s="108"/>
@@ -14436,7 +14561,7 @@
       <c r="Z59" s="3"/>
       <c r="AA59" s="5"/>
     </row>
-    <row r="60" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D60" s="110"/>
       <c r="E60" s="108"/>
       <c r="F60" s="108"/>
@@ -14462,7 +14587,7 @@
       <c r="Z60" s="3"/>
       <c r="AA60" s="5"/>
     </row>
-    <row r="61" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D61" s="110"/>
       <c r="E61" s="108"/>
       <c r="F61" s="108"/>
@@ -14488,7 +14613,7 @@
       <c r="Z61" s="3"/>
       <c r="AA61" s="5"/>
     </row>
-    <row r="62" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D62" s="110"/>
       <c r="E62" s="108"/>
       <c r="F62" s="108"/>
@@ -14514,7 +14639,7 @@
       <c r="Z62" s="3"/>
       <c r="AA62" s="5"/>
     </row>
-    <row r="63" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D63" s="110"/>
       <c r="E63" s="108"/>
       <c r="F63" s="108"/>
@@ -14540,7 +14665,7 @@
       <c r="Z63" s="3"/>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D64" s="110"/>
       <c r="E64" s="108"/>
       <c r="F64" s="108"/>
@@ -14566,7 +14691,7 @@
       <c r="Z64" s="3"/>
       <c r="AA64" s="5"/>
     </row>
-    <row r="65" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D65" s="110"/>
       <c r="E65" s="108"/>
       <c r="F65" s="108"/>
@@ -14592,7 +14717,7 @@
       <c r="Z65" s="3"/>
       <c r="AA65" s="5"/>
     </row>
-    <row r="66" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D66" s="110"/>
       <c r="E66" s="108"/>
       <c r="F66" s="108"/>
@@ -14618,7 +14743,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="5"/>
     </row>
-    <row r="67" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D67" s="110"/>
       <c r="E67" s="108"/>
       <c r="F67" s="108"/>
@@ -14644,7 +14769,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="5"/>
     </row>
-    <row r="68" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D68" s="110"/>
       <c r="E68" s="108"/>
       <c r="F68" s="108"/>
@@ -14670,7 +14795,7 @@
       <c r="Z68" s="3"/>
       <c r="AA68" s="5"/>
     </row>
-    <row r="69" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D69" s="110"/>
       <c r="E69" s="108"/>
       <c r="F69" s="108"/>
@@ -14696,7 +14821,7 @@
       <c r="Z69" s="3"/>
       <c r="AA69" s="5"/>
     </row>
-    <row r="70" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D70" s="110"/>
       <c r="E70" s="108"/>
       <c r="F70" s="108"/>
@@ -14722,7 +14847,7 @@
       <c r="Z70" s="3"/>
       <c r="AA70" s="5"/>
     </row>
-    <row r="71" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D71" s="110"/>
       <c r="E71" s="108"/>
       <c r="F71" s="108"/>
@@ -14748,7 +14873,7 @@
       <c r="Z71" s="3"/>
       <c r="AA71" s="5"/>
     </row>
-    <row r="72" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D72" s="110"/>
       <c r="E72" s="108"/>
       <c r="F72" s="108"/>
@@ -14774,7 +14899,7 @@
       <c r="Z72" s="3"/>
       <c r="AA72" s="5"/>
     </row>
-    <row r="73" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D73" s="110"/>
       <c r="E73" s="108"/>
       <c r="F73" s="108"/>
@@ -14800,7 +14925,7 @@
       <c r="Z73" s="3"/>
       <c r="AA73" s="5"/>
     </row>
-    <row r="74" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D74" s="110"/>
       <c r="E74" s="108"/>
       <c r="F74" s="108"/>
@@ -14826,7 +14951,7 @@
       <c r="Z74" s="3"/>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D75" s="110"/>
       <c r="E75" s="108"/>
       <c r="F75" s="108"/>
@@ -14852,7 +14977,7 @@
       <c r="Z75" s="3"/>
       <c r="AA75" s="5"/>
     </row>
-    <row r="76" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D76" s="110"/>
       <c r="E76" s="108"/>
       <c r="F76" s="108"/>
@@ -14878,7 +15003,7 @@
       <c r="Z76" s="3"/>
       <c r="AA76" s="5"/>
     </row>
-    <row r="77" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D77" s="110"/>
       <c r="E77" s="108"/>
       <c r="F77" s="108"/>
@@ -14904,7 +15029,7 @@
       <c r="Z77" s="3"/>
       <c r="AA77" s="5"/>
     </row>
-    <row r="78" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D78" s="110"/>
       <c r="E78" s="108"/>
       <c r="F78" s="108"/>
@@ -14930,7 +15055,7 @@
       <c r="Z78" s="3"/>
       <c r="AA78" s="5"/>
     </row>
-    <row r="79" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D79" s="110"/>
       <c r="E79" s="108"/>
       <c r="F79" s="108"/>
@@ -14956,7 +15081,7 @@
       <c r="Z79" s="3"/>
       <c r="AA79" s="5"/>
     </row>
-    <row r="80" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D80" s="110"/>
       <c r="E80" s="108"/>
       <c r="F80" s="108"/>
@@ -14982,7 +15107,7 @@
       <c r="Z80" s="3"/>
       <c r="AA80" s="5"/>
     </row>
-    <row r="81" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D81" s="110"/>
       <c r="E81" s="108"/>
       <c r="F81" s="108"/>
@@ -15008,7 +15133,7 @@
       <c r="Z81" s="3"/>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D82" s="110"/>
       <c r="E82" s="108"/>
       <c r="F82" s="108"/>
@@ -15034,7 +15159,7 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="5"/>
     </row>
-    <row r="83" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D83" s="110"/>
       <c r="E83" s="108"/>
       <c r="F83" s="108"/>
@@ -15060,7 +15185,7 @@
       <c r="Z83" s="3"/>
       <c r="AA83" s="5"/>
     </row>
-    <row r="84" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D84" s="110"/>
       <c r="E84" s="108"/>
       <c r="F84" s="108"/>
@@ -15086,7 +15211,7 @@
       <c r="Z84" s="3"/>
       <c r="AA84" s="5"/>
     </row>
-    <row r="85" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D85" s="110"/>
       <c r="E85" s="108"/>
       <c r="F85" s="108"/>
@@ -15112,7 +15237,7 @@
       <c r="Z85" s="3"/>
       <c r="AA85" s="5"/>
     </row>
-    <row r="86" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D86" s="110"/>
       <c r="E86" s="108"/>
       <c r="F86" s="108"/>
@@ -15138,7 +15263,7 @@
       <c r="Z86" s="3"/>
       <c r="AA86" s="5"/>
     </row>
-    <row r="87" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D87" s="110"/>
       <c r="E87" s="108"/>
       <c r="F87" s="108"/>
@@ -15164,7 +15289,7 @@
       <c r="Z87" s="3"/>
       <c r="AA87" s="5"/>
     </row>
-    <row r="88" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D88" s="110"/>
       <c r="E88" s="108"/>
       <c r="F88" s="108"/>
@@ -15190,7 +15315,7 @@
       <c r="Z88" s="3"/>
       <c r="AA88" s="5"/>
     </row>
-    <row r="89" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D89" s="110"/>
       <c r="E89" s="108"/>
       <c r="F89" s="108"/>
@@ -15216,7 +15341,7 @@
       <c r="Z89" s="3"/>
       <c r="AA89" s="5"/>
     </row>
-    <row r="90" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D90" s="110"/>
       <c r="E90" s="108"/>
       <c r="F90" s="108"/>
@@ -15242,7 +15367,7 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="5"/>
     </row>
-    <row r="91" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D91" s="110"/>
       <c r="E91" s="108"/>
       <c r="F91" s="108"/>
@@ -15268,7 +15393,7 @@
       <c r="Z91" s="3"/>
       <c r="AA91" s="5"/>
     </row>
-    <row r="92" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D92" s="110"/>
       <c r="E92" s="108"/>
       <c r="F92" s="108"/>
@@ -15294,7 +15419,7 @@
       <c r="Z92" s="3"/>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D93" s="110"/>
       <c r="E93" s="108"/>
       <c r="F93" s="108"/>
@@ -15320,7 +15445,7 @@
       <c r="Z93" s="3"/>
       <c r="AA93" s="5"/>
     </row>
-    <row r="94" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D94" s="110"/>
       <c r="E94" s="108"/>
       <c r="F94" s="108"/>
@@ -15346,7 +15471,7 @@
       <c r="Z94" s="3"/>
       <c r="AA94" s="5"/>
     </row>
-    <row r="95" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D95" s="110"/>
       <c r="E95" s="108"/>
       <c r="F95" s="108"/>
@@ -15372,7 +15497,7 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="5"/>
     </row>
-    <row r="96" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:27" x14ac:dyDescent="0.3">
       <c r="D96" s="110"/>
       <c r="E96" s="108"/>
       <c r="F96" s="108"/>
@@ -15398,7 +15523,7 @@
       <c r="Z96" s="3"/>
       <c r="AA96" s="5"/>
     </row>
-    <row r="97" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
       <c r="D97" s="110"/>
       <c r="E97" s="108"/>
       <c r="F97" s="108"/>
@@ -15424,7 +15549,7 @@
       <c r="Z97" s="3"/>
       <c r="AA97" s="5"/>
     </row>
-    <row r="98" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
       <c r="D98" s="110"/>
       <c r="E98" s="108"/>
       <c r="F98" s="108"/>
@@ -15450,7 +15575,7 @@
       <c r="Z98" s="3"/>
       <c r="AA98" s="5"/>
     </row>
-    <row r="99" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
       <c r="D99" s="110"/>
       <c r="E99" s="108"/>
       <c r="F99" s="108"/>
@@ -15476,7 +15601,7 @@
       <c r="Z99" s="3"/>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
       <c r="D100" s="110"/>
       <c r="E100" s="108"/>
       <c r="F100" s="108"/>
@@ -15502,7 +15627,7 @@
       <c r="Z100" s="3"/>
       <c r="AA100" s="5"/>
     </row>
-    <row r="101" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
       <c r="D101" s="110"/>
       <c r="E101" s="108"/>
       <c r="F101" s="108"/>
@@ -15529,7 +15654,7 @@
       <c r="AA101" s="5"/>
       <c r="XFD101" s="54"/>
     </row>
-    <row r="102" spans="4:27 16384:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:27 16384:16384" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D102" s="111"/>
       <c r="E102" s="109"/>
       <c r="F102" s="109"/>
@@ -15556,19 +15681,19 @@
       <c r="AA102" s="8"/>
       <c r="XFD102" s="54"/>
     </row>
-    <row r="103" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
       <c r="E103" s="98"/>
       <c r="F103" s="98"/>
       <c r="G103" s="72"/>
       <c r="XFD103" s="54"/>
     </row>
-    <row r="104" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
       <c r="E104" s="98"/>
       <c r="F104" s="98"/>
       <c r="G104" s="72"/>
       <c r="XFD104" s="54"/>
     </row>
-    <row r="105" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
       <c r="E105" s="98"/>
       <c r="F105" s="98"/>
       <c r="G105" s="72"/>
@@ -15576,22 +15701,22 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D6:AA102 D3:G3 I3 D4:I5 K3:AA5">
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>$D3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>$A3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>$D4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$A3=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15636,26 +15761,26 @@
       <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="103" t="s">
         <v>108</v>
       </c>
@@ -15688,7 +15813,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="95">
         <f>IF(B3="","",PROJ!B26)</f>
         <v>1</v>
@@ -15723,7 +15848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="96">
         <f>IF(B4="","",PROJ!B27)</f>
         <v>2</v>
@@ -15771,7 +15896,7 @@
       </c>
       <c r="AT4" s="9"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="96">
         <f>IF(B5="","",PROJ!B28)</f>
         <v>3</v>
@@ -15796,7 +15921,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="96">
         <f>IF(B6="","",PROJ!B29)</f>
         <v>4</v>
@@ -15815,7 +15940,7 @@
       <c r="J6" s="54"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" s="96">
         <f>IF(B7="","",PROJ!B30)</f>
         <v>5</v>
@@ -15834,7 +15959,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" s="96">
         <f>IF(B8="","",PROJ!B31)</f>
         <v>6</v>
@@ -15853,7 +15978,7 @@
       <c r="J8" s="54"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" s="96">
         <f>IF(B9="","",PROJ!B32)</f>
         <v>7</v>
@@ -15872,7 +15997,7 @@
       <c r="J9" s="54"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" s="96">
         <f>IF(B10="","",PROJ!B33)</f>
         <v>8</v>
@@ -15891,7 +16016,7 @@
       <c r="J10" s="54"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" s="96">
         <f>IF(B11="","",PROJ!B34)</f>
         <v>9</v>
@@ -15910,7 +16035,7 @@
       <c r="J11" s="54"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" s="96">
         <f>IF(B12="","",PROJ!B35)</f>
         <v>10</v>
@@ -15929,7 +16054,7 @@
       <c r="J12" s="54"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" s="96">
         <f>IF(B13="","",PROJ!B36)</f>
         <v>11</v>
@@ -15948,7 +16073,7 @@
       <c r="J13" s="54"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="96">
         <f>IF(B14="","",PROJ!B37)</f>
         <v>12</v>
@@ -15967,7 +16092,7 @@
       <c r="J14" s="54"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="96" t="str">
         <f>IF(B15="","",PROJ!B44)</f>
         <v/>
@@ -15986,7 +16111,7 @@
       <c r="J15" s="54"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" s="96" t="str">
         <f>IF(B16="","",PROJ!B46)</f>
         <v/>
@@ -16006,7 +16131,7 @@
       <c r="K16" s="5"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="96" t="str">
         <f>IF(B17="","",PROJ!B47)</f>
         <v/>
@@ -16025,7 +16150,7 @@
       <c r="J17" s="54"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="96" t="str">
         <f>IF(B18="","",PROJ!B48)</f>
         <v/>
@@ -16044,7 +16169,7 @@
       <c r="J18" s="54"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="96" t="str">
         <f>IF(B19="","",PROJ!B49)</f>
         <v/>
@@ -16063,7 +16188,7 @@
       <c r="J19" s="54"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="96" t="str">
         <f>IF(B20="","",PROJ!B50)</f>
         <v/>
@@ -16082,7 +16207,7 @@
       <c r="J20" s="54"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="96" t="str">
         <f>IF(B21="","",PROJ!B51)</f>
         <v/>
@@ -16101,7 +16226,7 @@
       <c r="J21" s="54"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="97" t="str">
         <f>IF(B22="","",PROJ!B52)</f>
         <v/>
@@ -16120,7 +16245,7 @@
       <c r="J22" s="54"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D23" s="3"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
@@ -16130,7 +16255,7 @@
       <c r="J23" s="54"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D24" s="3"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
@@ -16140,7 +16265,7 @@
       <c r="J24" s="54"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D25" s="3"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
@@ -16150,7 +16275,7 @@
       <c r="J25" s="54"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" s="3"/>
       <c r="E26" s="54"/>
       <c r="F26" s="54"/>
@@ -16160,7 +16285,7 @@
       <c r="J26" s="54"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" s="3"/>
       <c r="E27" s="54"/>
       <c r="F27" s="54"/>
@@ -16170,7 +16295,7 @@
       <c r="J27" s="54"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D28" s="3"/>
       <c r="E28" s="54"/>
       <c r="F28" s="54"/>
@@ -16180,7 +16305,7 @@
       <c r="J28" s="54"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
@@ -16190,7 +16315,7 @@
       <c r="J29" s="54"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="3"/>
       <c r="E30" s="54"/>
       <c r="F30" s="54"/>
@@ -16200,7 +16325,7 @@
       <c r="J30" s="54"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="3"/>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
@@ -16210,7 +16335,7 @@
       <c r="J31" s="54"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="3"/>
       <c r="E32" s="54"/>
       <c r="F32" s="54"/>
@@ -16220,7 +16345,7 @@
       <c r="J32" s="54"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="3"/>
       <c r="E33" s="54"/>
       <c r="F33" s="54"/>
@@ -16230,7 +16355,7 @@
       <c r="J33" s="54"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="3"/>
       <c r="E34" s="54"/>
       <c r="F34" s="54"/>
@@ -16240,7 +16365,7 @@
       <c r="J34" s="54"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
@@ -16250,7 +16375,7 @@
       <c r="J35" s="54"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D36" s="3"/>
       <c r="E36" s="54"/>
       <c r="F36" s="54"/>
@@ -16260,7 +16385,7 @@
       <c r="J36" s="54"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="3"/>
       <c r="E37" s="54"/>
       <c r="F37" s="54"/>
@@ -16270,7 +16395,7 @@
       <c r="J37" s="54"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="3"/>
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
@@ -16280,7 +16405,7 @@
       <c r="J38" s="54"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="3"/>
       <c r="E39" s="54"/>
       <c r="F39" s="54"/>
@@ -16290,7 +16415,7 @@
       <c r="J39" s="54"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -16302,7 +16427,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:K4">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$D3=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16330,30 +16455,30 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="117" t="s">
         <v>46</v>
       </c>
@@ -16400,7 +16525,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="118" t="s">
         <v>47</v>
       </c>
@@ -16447,7 +16572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="118" t="s">
         <v>48</v>
       </c>
@@ -16455,19 +16580,19 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="118" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="118" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="118" t="s">
         <v>51</v>
       </c>
@@ -16475,7 +16600,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="118" t="s">
         <v>52</v>
       </c>
@@ -16483,7 +16608,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="119" t="s">
         <v>53</v>
       </c>
@@ -16491,32 +16616,32 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="20"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="20"/>
     </row>
-    <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="169" t="s">
+    <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="168"/>
-    </row>
-    <row r="16" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="186"/>
+    </row>
+    <row r="16" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="105" t="s">
         <v>55</v>
       </c>
@@ -16536,7 +16661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="32" t="s">
         <v>182</v>
       </c>
@@ -16556,7 +16681,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -16564,7 +16689,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -16572,7 +16697,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -16580,7 +16705,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -16588,7 +16713,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -16596,7 +16721,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -16604,7 +16729,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -16612,7 +16737,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -16620,7 +16745,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -16628,7 +16753,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -16636,7 +16761,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -16644,7 +16769,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -16652,7 +16777,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -16660,7 +16785,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -16668,7 +16793,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -16676,7 +16801,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -16684,7 +16809,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -16692,7 +16817,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -16700,7 +16825,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -16740,27 +16865,27 @@
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" style="53"/>
-    <col min="4" max="4" width="12.42578125" style="53" customWidth="1"/>
-    <col min="5" max="12" width="8.7109375" style="53"/>
-    <col min="13" max="13" width="18.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="8.7109375" style="53"/>
-    <col min="20" max="20" width="17.140625" style="53" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="8.7109375" style="53"/>
+    <col min="1" max="3" width="8.6640625" style="53"/>
+    <col min="4" max="4" width="12.44140625" style="53" customWidth="1"/>
+    <col min="5" max="12" width="8.6640625" style="53"/>
+    <col min="13" max="13" width="18.109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8.6640625" style="53"/>
+    <col min="20" max="20" width="17.109375" style="53" customWidth="1"/>
+    <col min="21" max="21" width="12.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="8.6640625" style="53"/>
     <col min="26" max="26" width="12" style="53" customWidth="1"/>
-    <col min="27" max="28" width="8.7109375" style="53"/>
+    <col min="27" max="28" width="8.6640625" style="53"/>
     <col min="29" max="29" width="12" style="53" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" style="53" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="53" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="53" customWidth="1"/>
-    <col min="33" max="16384" width="8.7109375" style="53"/>
+    <col min="30" max="30" width="10.88671875" style="53" customWidth="1"/>
+    <col min="31" max="31" width="14.44140625" style="53" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="53" customWidth="1"/>
+    <col min="33" max="16384" width="8.6640625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="28" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:33" s="28" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="73" t="s">
         <v>138</v>
       </c>
@@ -16850,7 +16975,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B2" s="77">
         <v>3.5</v>
       </c>
@@ -16941,7 +17066,7 @@
       </c>
       <c r="AG2" s="89"/>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B3" s="78">
         <v>3.5</v>
       </c>
@@ -17031,7 +17156,7 @@
       </c>
       <c r="AG3" s="90"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B4" s="78"/>
       <c r="C4" s="81"/>
       <c r="D4" s="84"/>
@@ -17113,7 +17238,7 @@
       </c>
       <c r="AG4" s="90"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B5" s="78"/>
       <c r="C5" s="81"/>
       <c r="D5" s="84"/>
@@ -17195,7 +17320,7 @@
       </c>
       <c r="AG5" s="90"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="78"/>
       <c r="C6" s="81"/>
       <c r="D6" s="84"/>
@@ -17277,7 +17402,7 @@
       </c>
       <c r="AG6" s="90"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B7" s="78"/>
       <c r="C7" s="81"/>
       <c r="D7" s="84"/>
@@ -17359,7 +17484,7 @@
       </c>
       <c r="AG7" s="90"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B8" s="78"/>
       <c r="C8" s="81"/>
       <c r="D8" s="84"/>
@@ -17441,7 +17566,7 @@
       </c>
       <c r="AG8" s="90"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="78"/>
       <c r="C9" s="81"/>
       <c r="D9" s="84"/>
@@ -17523,7 +17648,7 @@
       </c>
       <c r="AG9" s="90"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="78"/>
       <c r="C10" s="81"/>
       <c r="D10" s="84"/>
@@ -17605,7 +17730,7 @@
       </c>
       <c r="AG10" s="90"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" s="78"/>
       <c r="C11" s="81"/>
       <c r="D11" s="84"/>
@@ -17687,7 +17812,7 @@
       </c>
       <c r="AG11" s="90"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12" s="78"/>
       <c r="C12" s="81"/>
       <c r="D12" s="84"/>
@@ -17769,7 +17894,7 @@
       </c>
       <c r="AG12" s="90"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B13" s="78"/>
       <c r="C13" s="81"/>
       <c r="D13" s="84"/>
@@ -17851,7 +17976,7 @@
       </c>
       <c r="AG13" s="90"/>
     </row>
-    <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="78"/>
       <c r="C14" s="81"/>
       <c r="D14" s="84"/>
@@ -17934,7 +18059,7 @@
       </c>
       <c r="AG14" s="90"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15" s="78"/>
       <c r="C15" s="81"/>
       <c r="D15" s="84"/>
@@ -18007,7 +18132,7 @@
       </c>
       <c r="AG15" s="90"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16" s="78"/>
       <c r="C16" s="81"/>
       <c r="D16" s="84"/>
@@ -18079,7 +18204,7 @@
       </c>
       <c r="AG16" s="90"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B17" s="78"/>
       <c r="C17" s="81"/>
       <c r="D17" s="84"/>
@@ -18151,7 +18276,7 @@
       </c>
       <c r="AG17" s="90"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B18" s="78"/>
       <c r="C18" s="81"/>
       <c r="D18" s="84"/>
@@ -18223,7 +18348,7 @@
       </c>
       <c r="AG18" s="90"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B19" s="78"/>
       <c r="C19" s="81"/>
       <c r="D19" s="84"/>
@@ -18260,7 +18385,7 @@
       <c r="AF19" s="90"/>
       <c r="AG19" s="90"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B20" s="78"/>
       <c r="C20" s="81"/>
       <c r="D20" s="84"/>
@@ -18297,7 +18422,7 @@
       <c r="AF20" s="90"/>
       <c r="AG20" s="90"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B21" s="78"/>
       <c r="C21" s="81"/>
       <c r="D21" s="84"/>
@@ -18334,7 +18459,7 @@
       <c r="AF21" s="90"/>
       <c r="AG21" s="90"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B22" s="78"/>
       <c r="C22" s="81"/>
       <c r="D22" s="84"/>
@@ -18371,7 +18496,7 @@
       <c r="AF22" s="90"/>
       <c r="AG22" s="90"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B23" s="78"/>
       <c r="C23" s="81"/>
       <c r="D23" s="84"/>
@@ -18408,7 +18533,7 @@
       <c r="AF23" s="90"/>
       <c r="AG23" s="90"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B24" s="78"/>
       <c r="C24" s="81"/>
       <c r="D24" s="84"/>
@@ -18445,7 +18570,7 @@
       <c r="AF24" s="90"/>
       <c r="AG24" s="90"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B25" s="78"/>
       <c r="C25" s="81"/>
       <c r="D25" s="84"/>
@@ -18482,7 +18607,7 @@
       <c r="AF25" s="90"/>
       <c r="AG25" s="90"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B26" s="78"/>
       <c r="C26" s="81"/>
       <c r="D26" s="84"/>
@@ -18519,7 +18644,7 @@
       <c r="AF26" s="90"/>
       <c r="AG26" s="90"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B27" s="78"/>
       <c r="C27" s="81"/>
       <c r="D27" s="84"/>
@@ -18556,7 +18681,7 @@
       <c r="AF27" s="90"/>
       <c r="AG27" s="90"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B28" s="78"/>
       <c r="C28" s="81"/>
       <c r="D28" s="84"/>
@@ -18593,7 +18718,7 @@
       <c r="AF28" s="90"/>
       <c r="AG28" s="90"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="54"/>
       <c r="B29" s="78"/>
       <c r="C29" s="81"/>
@@ -18631,7 +18756,7 @@
       <c r="AF29" s="90"/>
       <c r="AG29" s="90"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="54"/>
       <c r="B30" s="78"/>
       <c r="C30" s="81"/>
@@ -18669,7 +18794,7 @@
       <c r="AF30" s="90"/>
       <c r="AG30" s="90"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="54"/>
       <c r="B31" s="78"/>
       <c r="C31" s="81"/>
@@ -18707,7 +18832,7 @@
       <c r="AF31" s="90"/>
       <c r="AG31" s="90"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="54"/>
       <c r="B32" s="78"/>
       <c r="C32" s="81"/>
@@ -18745,7 +18870,7 @@
       <c r="AF32" s="90"/>
       <c r="AG32" s="90"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="54"/>
       <c r="B33" s="78"/>
       <c r="C33" s="81"/>
@@ -18783,7 +18908,7 @@
       <c r="AF33" s="90"/>
       <c r="AG33" s="90"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="54"/>
       <c r="B34" s="78"/>
       <c r="C34" s="81"/>
@@ -18821,7 +18946,7 @@
       <c r="AF34" s="90"/>
       <c r="AG34" s="90"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="54"/>
       <c r="B35" s="78"/>
       <c r="C35" s="81"/>
@@ -18851,7 +18976,7 @@
       <c r="AF35" s="90"/>
       <c r="AG35" s="90"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="54"/>
       <c r="B36" s="78"/>
       <c r="C36" s="81"/>
@@ -18881,7 +19006,7 @@
       <c r="AF36" s="90"/>
       <c r="AG36" s="90"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="54"/>
       <c r="B37" s="78"/>
       <c r="C37" s="81"/>
@@ -18911,7 +19036,7 @@
       <c r="AF37" s="90"/>
       <c r="AG37" s="90"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="54"/>
       <c r="B38" s="78"/>
       <c r="C38" s="81"/>
@@ -18941,7 +19066,7 @@
       <c r="AF38" s="90"/>
       <c r="AG38" s="90"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="54"/>
       <c r="B39" s="78"/>
       <c r="C39" s="81"/>
@@ -18971,7 +19096,7 @@
       <c r="AF39" s="90"/>
       <c r="AG39" s="90"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="54"/>
       <c r="B40" s="78"/>
       <c r="C40" s="81"/>
@@ -19001,7 +19126,7 @@
       <c r="AF40" s="90"/>
       <c r="AG40" s="90"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="54"/>
       <c r="B41" s="78"/>
       <c r="C41" s="81"/>
@@ -19031,7 +19156,7 @@
       <c r="AF41" s="90"/>
       <c r="AG41" s="90"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="54"/>
       <c r="B42" s="78"/>
       <c r="C42" s="81"/>
@@ -19061,7 +19186,7 @@
       <c r="AF42" s="90"/>
       <c r="AG42" s="90"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="54"/>
       <c r="B43" s="78"/>
       <c r="C43" s="81"/>
@@ -19091,7 +19216,7 @@
       <c r="AF43" s="90"/>
       <c r="AG43" s="90"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="54"/>
       <c r="B44" s="78"/>
       <c r="C44" s="81"/>
@@ -19121,7 +19246,7 @@
       <c r="AF44" s="90"/>
       <c r="AG44" s="90"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="54"/>
       <c r="B45" s="78"/>
       <c r="C45" s="81"/>
@@ -19151,7 +19276,7 @@
       <c r="AF45" s="90"/>
       <c r="AG45" s="90"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="54"/>
       <c r="B46" s="78"/>
       <c r="C46" s="81"/>
@@ -19181,7 +19306,7 @@
       <c r="AF46" s="90"/>
       <c r="AG46" s="90"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="54"/>
       <c r="B47" s="78"/>
       <c r="C47" s="81"/>
@@ -19211,7 +19336,7 @@
       <c r="AF47" s="90"/>
       <c r="AG47" s="90"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="54"/>
       <c r="B48" s="78"/>
       <c r="C48" s="81"/>
@@ -19241,7 +19366,7 @@
       <c r="AF48" s="90"/>
       <c r="AG48" s="90"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="54"/>
       <c r="B49" s="78"/>
       <c r="C49" s="81"/>
@@ -19271,7 +19396,7 @@
       <c r="AF49" s="90"/>
       <c r="AG49" s="90"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" s="54"/>
       <c r="B50" s="78"/>
       <c r="C50" s="81"/>
@@ -19301,7 +19426,7 @@
       <c r="AF50" s="90"/>
       <c r="AG50" s="90"/>
     </row>
-    <row r="51" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="54"/>
       <c r="B51" s="79"/>
       <c r="C51" s="82"/>
@@ -19331,7 +19456,7 @@
       <c r="AF51" s="91"/>
       <c r="AG51" s="91"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -19343,7 +19468,7 @@
       <c r="J52" s="54"/>
       <c r="K52" s="54"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="54"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -19355,7 +19480,7 @@
       <c r="J53" s="54"/>
       <c r="K53" s="54"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" s="54"/>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -19367,7 +19492,7 @@
       <c r="J54" s="54"/>
       <c r="K54" s="54"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="54"/>
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
@@ -19379,7 +19504,7 @@
       <c r="J55" s="54"/>
       <c r="K55" s="54"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="54"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -19391,7 +19516,7 @@
       <c r="J56" s="54"/>
       <c r="K56" s="54"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="54"/>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -19403,7 +19528,7 @@
       <c r="J57" s="54"/>
       <c r="K57" s="54"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="54"/>
       <c r="B58" s="54"/>
       <c r="C58" s="54"/>
@@ -19415,7 +19540,7 @@
       <c r="J58" s="54"/>
       <c r="K58" s="54"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="35"/>
       <c r="B59" s="54"/>
       <c r="C59" s="54"/>
@@ -19427,7 +19552,7 @@
       <c r="J59" s="54"/>
       <c r="K59" s="54"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
       <c r="B60" s="54"/>
       <c r="C60" s="54"/>
@@ -19439,7 +19564,7 @@
       <c r="J60" s="54"/>
       <c r="K60" s="54"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="35"/>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
@@ -19451,7 +19576,7 @@
       <c r="J61" s="54"/>
       <c r="K61" s="54"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="35"/>
       <c r="B62" s="54"/>
       <c r="C62" s="54"/>
@@ -19463,7 +19588,7 @@
       <c r="J62" s="54"/>
       <c r="K62" s="54"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="72"/>
       <c r="G63" s="54"/>
       <c r="H63" s="54"/>
@@ -19471,7 +19596,7 @@
       <c r="J63" s="54"/>
       <c r="K63" s="54"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="35"/>
       <c r="G64" s="54"/>
       <c r="H64" s="54"/>
@@ -19479,7 +19604,7 @@
       <c r="J64" s="54"/>
       <c r="K64" s="54"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="72"/>
       <c r="G65" s="54"/>
       <c r="H65" s="54"/>
@@ -19487,121 +19612,121 @@
       <c r="J65" s="54"/>
       <c r="K65" s="54"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="72"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="72"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="72"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="72"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="72"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="72"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="72"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="72"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="72"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="U2:U18">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$T2="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U18">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$T2="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U18">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:U46">
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$T19="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:U46">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$T19="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:U46">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47:U51">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$T47="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47:U51">
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>$T47="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47:U51">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:AG18">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>$T2="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:AG18">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>$T2="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:AG18">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19:AG46">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$T19="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19:AG46">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>$T19="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19:AG46">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V47:AG51">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$T47="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V47:AG51">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$T47="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V47:AG51">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19646,116 +19771,116 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" style="53"/>
-    <col min="4" max="4" width="12.42578125" style="53" customWidth="1"/>
-    <col min="5" max="12" width="8.7109375" style="53"/>
-    <col min="13" max="13" width="18.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="8.7109375" style="53"/>
-    <col min="20" max="20" width="17.140625" style="53" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="8.7109375" style="53"/>
+    <col min="1" max="3" width="8.6640625" style="53"/>
+    <col min="4" max="4" width="12.44140625" style="53" customWidth="1"/>
+    <col min="5" max="12" width="8.6640625" style="53"/>
+    <col min="13" max="13" width="18.109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8.6640625" style="53"/>
+    <col min="20" max="20" width="17.109375" style="53" customWidth="1"/>
+    <col min="21" max="21" width="12.5546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="8.6640625" style="53"/>
     <col min="26" max="26" width="12" style="53" customWidth="1"/>
-    <col min="27" max="28" width="8.7109375" style="53"/>
+    <col min="27" max="28" width="8.6640625" style="53"/>
     <col min="29" max="29" width="12" style="53" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" style="53" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="53" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="53" customWidth="1"/>
-    <col min="33" max="16384" width="8.7109375" style="53"/>
+    <col min="30" max="30" width="10.88671875" style="53" customWidth="1"/>
+    <col min="31" max="31" width="14.44140625" style="53" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="53" customWidth="1"/>
+    <col min="33" max="16384" width="8.6640625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="186" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="190" t="s">
+    <row r="1" spans="2:33" s="167" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="171" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="189" t="s">
+      <c r="C1" s="170" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="189" t="s">
+      <c r="D1" s="170" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="191" t="s">
+      <c r="E1" s="172" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="190" t="s">
+      <c r="G1" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="189" t="s">
+      <c r="H1" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="189" t="s">
+      <c r="I1" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="191" t="s">
+      <c r="J1" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="190" t="s">
+      <c r="L1" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="191" t="s">
+      <c r="M1" s="172" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="191" t="s">
+      <c r="N1" s="172" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="190" t="s">
+      <c r="P1" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="189" t="s">
+      <c r="Q1" s="170" t="s">
         <v>136</v>
       </c>
-      <c r="R1" s="189" t="s">
+      <c r="R1" s="170" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="189" t="s">
+      <c r="S1" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="189" t="s">
+      <c r="T1" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="189" t="s">
+      <c r="U1" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="189" t="s">
+      <c r="V1" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="189" t="s">
+      <c r="W1" s="170" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="189" t="s">
+      <c r="X1" s="170" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="189" t="s">
+      <c r="Y1" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="189" t="s">
+      <c r="Z1" s="170" t="s">
         <v>144</v>
       </c>
-      <c r="AA1" s="189" t="s">
+      <c r="AA1" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="189" t="s">
+      <c r="AB1" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="189" t="s">
+      <c r="AC1" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="189" t="s">
+      <c r="AD1" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="188" t="s">
+      <c r="AE1" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="AF1" s="188" t="s">
+      <c r="AF1" s="169" t="s">
         <v>184</v>
       </c>
-      <c r="AG1" s="187" t="s">
+      <c r="AG1" s="168" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B2" s="53">
         <v>3</v>
       </c>
@@ -19768,67 +19893,67 @@
       <c r="E2" s="53">
         <v>65</v>
       </c>
-      <c r="G2" s="175">
+      <c r="G2" s="156">
         <v>0.215</v>
       </c>
-      <c r="H2" s="174">
+      <c r="H2" s="155">
         <v>1.383</v>
       </c>
-      <c r="I2" s="174" t="s">
+      <c r="I2" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="173" t="s">
+      <c r="J2" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="185">
+      <c r="L2" s="166">
         <v>1</v>
       </c>
-      <c r="M2" s="184">
+      <c r="M2" s="165">
         <v>0.1</v>
       </c>
-      <c r="N2" s="183">
+      <c r="N2" s="164">
         <v>1</v>
       </c>
-      <c r="P2" s="177">
+      <c r="P2" s="158">
         <v>1</v>
       </c>
-      <c r="Q2" s="177">
-        <v>0</v>
-      </c>
-      <c r="R2" s="177">
+      <c r="Q2" s="158">
+        <v>0</v>
+      </c>
+      <c r="R2" s="158">
         <v>1.7</v>
       </c>
-      <c r="S2" s="177" t="s">
+      <c r="S2" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="T2" s="193" t="s">
+      <c r="T2" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="U2" s="182">
+      <c r="U2" s="163">
         <v>0.5</v>
       </c>
-      <c r="V2" s="182">
+      <c r="V2" s="163">
         <v>0.25</v>
       </c>
-      <c r="W2" s="182">
+      <c r="W2" s="163">
         <v>2.5</v>
       </c>
-      <c r="X2" s="182">
+      <c r="X2" s="163">
         <v>2.5</v>
       </c>
-      <c r="Y2" s="182">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="182">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="176">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="182">
+      <c r="Y2" s="163">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="163">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="157">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="163">
         <v>9</v>
       </c>
-      <c r="AC2" s="182">
+      <c r="AC2" s="163">
         <f>1/1.25</f>
         <v>0.8</v>
       </c>
@@ -19836,7 +19961,7 @@
         <v>1.25</v>
       </c>
       <c r="AE2" s="53">
-        <f>IF(T2="Alm_Hamre_2018",1.5,369/102)</f>
+        <f t="shared" ref="AE2:AE11" si="0">IF(T2="Alm_Hamre_2018",1.5,369/102)</f>
         <v>3.6176470588235294</v>
       </c>
       <c r="AF2" s="53">
@@ -19844,7 +19969,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B3" s="53">
         <v>3</v>
       </c>
@@ -19857,1111 +19982,1111 @@
       <c r="E3" s="53">
         <v>50</v>
       </c>
-      <c r="G3" s="175">
+      <c r="G3" s="156">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H3" s="174">
+      <c r="H3" s="155">
         <v>3</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="J3" s="173" t="s">
+      <c r="J3" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="L3" s="175">
+      <c r="L3" s="156">
         <v>2</v>
       </c>
-      <c r="M3" s="174">
+      <c r="M3" s="155">
         <v>3</v>
       </c>
-      <c r="N3" s="173">
-        <v>0</v>
-      </c>
-      <c r="P3" s="177">
+      <c r="N3" s="154">
+        <v>0</v>
+      </c>
+      <c r="P3" s="158">
         <v>2</v>
       </c>
-      <c r="Q3" s="177">
-        <f>R2</f>
+      <c r="Q3" s="158">
+        <f t="shared" ref="Q3:Q11" si="1">R2</f>
         <v>1.7</v>
       </c>
-      <c r="R3" s="177">
+      <c r="R3" s="158">
         <v>2.5</v>
       </c>
-      <c r="S3" s="177" t="s">
+      <c r="S3" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="T3" s="193" t="s">
+      <c r="T3" s="174" t="s">
         <v>208</v>
       </c>
-      <c r="U3" s="176">
+      <c r="U3" s="157">
         <v>0.5</v>
       </c>
-      <c r="V3" s="176">
+      <c r="V3" s="157">
         <v>0.25</v>
       </c>
-      <c r="W3" s="176">
+      <c r="W3" s="157">
         <v>2.5</v>
       </c>
-      <c r="X3" s="176">
+      <c r="X3" s="157">
         <v>2.5</v>
       </c>
-      <c r="Y3" s="176">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="176">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="176">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="176">
+      <c r="Y3" s="157">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="157">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="157">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="157">
         <v>9</v>
       </c>
-      <c r="AC3" s="176">
+      <c r="AC3" s="157">
         <v>0.8</v>
       </c>
       <c r="AD3" s="53">
         <v>1.25</v>
       </c>
       <c r="AE3" s="53">
-        <f>IF(T3="Alm_Hamre_2018",1.5,369/102)</f>
+        <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
       <c r="AF3" s="53">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="G4" s="175">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="G4" s="156">
         <v>1.25</v>
       </c>
-      <c r="H4" s="174">
+      <c r="H4" s="155">
         <v>1.27</v>
       </c>
-      <c r="I4" s="174" t="s">
+      <c r="I4" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="173" t="s">
+      <c r="J4" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="175">
+      <c r="L4" s="156">
         <v>3</v>
       </c>
-      <c r="M4" s="174">
+      <c r="M4" s="155">
         <v>3.7</v>
       </c>
-      <c r="N4" s="173">
-        <v>0</v>
-      </c>
-      <c r="P4" s="177">
+      <c r="N4" s="154">
+        <v>0</v>
+      </c>
+      <c r="P4" s="158">
         <v>3</v>
       </c>
-      <c r="Q4" s="177">
-        <f>R3</f>
+      <c r="Q4" s="158">
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="R4" s="177">
+      <c r="R4" s="158">
         <v>4</v>
       </c>
-      <c r="S4" s="177" t="s">
+      <c r="S4" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="T4" s="193" t="s">
+      <c r="T4" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="U4" s="176">
+      <c r="U4" s="157">
         <v>0.5</v>
       </c>
-      <c r="V4" s="176">
+      <c r="V4" s="157">
         <v>0.25</v>
       </c>
-      <c r="W4" s="176">
+      <c r="W4" s="157">
         <v>2.5</v>
       </c>
-      <c r="X4" s="176">
+      <c r="X4" s="157">
         <v>2.5</v>
       </c>
-      <c r="Y4" s="176">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="176">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="176">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="176">
+      <c r="Y4" s="157">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="157">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="157">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="157">
         <v>9</v>
       </c>
-      <c r="AC4" s="176">
+      <c r="AC4" s="157">
         <v>0.8</v>
       </c>
       <c r="AD4" s="53">
         <v>1.25</v>
       </c>
       <c r="AE4" s="53">
-        <f>IF(T4="Alm_Hamre_2018",1.5,369/102)</f>
+        <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
       <c r="AF4" s="53">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="G5" s="175">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="G5" s="156">
         <v>1.35</v>
       </c>
-      <c r="H5" s="174">
+      <c r="H5" s="155">
         <v>1.27</v>
       </c>
-      <c r="I5" s="174" t="s">
+      <c r="I5" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="173" t="s">
+      <c r="J5" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="L5" s="175">
+      <c r="L5" s="156">
         <v>4</v>
       </c>
-      <c r="M5" s="174">
+      <c r="M5" s="155">
         <v>5</v>
       </c>
-      <c r="N5" s="173">
-        <v>0</v>
-      </c>
-      <c r="P5" s="177">
+      <c r="N5" s="154">
+        <v>0</v>
+      </c>
+      <c r="P5" s="158">
         <v>4</v>
       </c>
-      <c r="Q5" s="177">
-        <f>R4</f>
+      <c r="Q5" s="158">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="R5" s="177">
+      <c r="R5" s="158">
         <v>5.5</v>
       </c>
-      <c r="S5" s="177" t="s">
+      <c r="S5" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="193" t="s">
+      <c r="T5" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="U5" s="176">
+      <c r="U5" s="157">
         <v>0.5</v>
       </c>
-      <c r="V5" s="176">
+      <c r="V5" s="157">
         <v>0.25</v>
       </c>
-      <c r="W5" s="176">
+      <c r="W5" s="157">
         <v>2.5</v>
       </c>
-      <c r="X5" s="176">
+      <c r="X5" s="157">
         <v>2.5</v>
       </c>
-      <c r="Y5" s="176">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="176">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="176">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="176">
+      <c r="Y5" s="157">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="157">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="157">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="157">
         <v>9</v>
       </c>
-      <c r="AC5" s="176">
+      <c r="AC5" s="157">
         <v>0.8</v>
       </c>
       <c r="AD5" s="53">
         <v>1.25</v>
       </c>
       <c r="AE5" s="53">
-        <f>IF(T5="Alm_Hamre_2018",1.5,369/102)</f>
+        <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
       <c r="AF5" s="53">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="G6" s="175">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="G6" s="156">
         <v>2</v>
       </c>
-      <c r="H6" s="174">
+      <c r="H6" s="155">
         <v>1.325</v>
       </c>
-      <c r="I6" s="174" t="s">
+      <c r="I6" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="J6" s="173" t="s">
+      <c r="J6" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="175">
+      <c r="L6" s="156">
         <v>5</v>
       </c>
-      <c r="M6" s="174">
+      <c r="M6" s="155">
         <v>6</v>
       </c>
-      <c r="N6" s="173">
-        <v>0</v>
-      </c>
-      <c r="P6" s="177">
+      <c r="N6" s="154">
+        <v>0</v>
+      </c>
+      <c r="P6" s="158">
         <v>5</v>
       </c>
-      <c r="Q6" s="177">
-        <f>R5</f>
+      <c r="Q6" s="158">
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="R6" s="177">
+      <c r="R6" s="158">
         <v>9</v>
       </c>
-      <c r="S6" s="177" t="s">
+      <c r="S6" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="T6" s="193" t="s">
+      <c r="T6" s="174" t="s">
         <v>208</v>
       </c>
-      <c r="U6" s="176">
+      <c r="U6" s="157">
         <v>0.5</v>
       </c>
-      <c r="V6" s="176">
+      <c r="V6" s="157">
         <v>0.25</v>
       </c>
-      <c r="W6" s="176">
+      <c r="W6" s="157">
         <v>2.5</v>
       </c>
-      <c r="X6" s="176">
+      <c r="X6" s="157">
         <v>2.5</v>
       </c>
-      <c r="Y6" s="176">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="176">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="176">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="176">
+      <c r="Y6" s="157">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="157">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="157">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="157">
         <v>9</v>
       </c>
-      <c r="AC6" s="176">
+      <c r="AC6" s="157">
         <v>0.8</v>
       </c>
       <c r="AD6" s="53">
         <v>1.25</v>
       </c>
       <c r="AE6" s="53">
-        <f>IF(T6="Alm_Hamre_2018",1.5,369/102)</f>
+        <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
       <c r="AF6" s="53">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="G7" s="175">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="G7" s="156">
         <v>2.7149999999999999</v>
       </c>
-      <c r="H7" s="174">
+      <c r="H7" s="155">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I7" s="174" t="s">
+      <c r="I7" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J7" s="173" t="s">
+      <c r="J7" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="L7" s="175">
+      <c r="L7" s="156">
         <v>6</v>
       </c>
-      <c r="M7" s="174">
+      <c r="M7" s="155">
         <v>7.3</v>
       </c>
-      <c r="N7" s="173">
-        <v>0</v>
-      </c>
-      <c r="P7" s="177">
+      <c r="N7" s="154">
+        <v>0</v>
+      </c>
+      <c r="P7" s="158">
         <v>6</v>
       </c>
-      <c r="Q7" s="177">
-        <f>R6</f>
+      <c r="Q7" s="158">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="R7" s="177">
+      <c r="R7" s="158">
         <v>14</v>
       </c>
-      <c r="S7" s="177" t="s">
+      <c r="S7" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="T7" s="193" t="s">
+      <c r="T7" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="U7" s="176">
+      <c r="U7" s="157">
         <v>0.5</v>
       </c>
-      <c r="V7" s="176">
+      <c r="V7" s="157">
         <v>0.25</v>
       </c>
-      <c r="W7" s="176">
+      <c r="W7" s="157">
         <v>2.5</v>
       </c>
-      <c r="X7" s="176">
+      <c r="X7" s="157">
         <v>2.5</v>
       </c>
-      <c r="Y7" s="176">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="176">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="176">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="176">
+      <c r="Y7" s="157">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="157">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="157">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="157">
         <v>9</v>
       </c>
-      <c r="AC7" s="176">
+      <c r="AC7" s="157">
         <v>0.8</v>
       </c>
       <c r="AD7" s="53">
         <v>1.25</v>
       </c>
       <c r="AE7" s="53">
-        <f>IF(T7="Alm_Hamre_2018",1.5,369/102)</f>
+        <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
       <c r="AF7" s="53">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="G8" s="175">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="G8" s="156">
         <v>2.8149999999999999</v>
       </c>
-      <c r="H8" s="174">
+      <c r="H8" s="155">
         <v>1.23</v>
       </c>
-      <c r="I8" s="174" t="s">
+      <c r="I8" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="173" t="s">
+      <c r="J8" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="L8" s="175">
+      <c r="L8" s="156">
         <v>7</v>
       </c>
-      <c r="M8" s="174">
+      <c r="M8" s="155">
         <v>10</v>
       </c>
-      <c r="N8" s="173">
-        <v>0</v>
-      </c>
-      <c r="P8" s="177">
+      <c r="N8" s="154">
+        <v>0</v>
+      </c>
+      <c r="P8" s="158">
         <v>7</v>
       </c>
-      <c r="Q8" s="177">
-        <f>R7</f>
+      <c r="Q8" s="158">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="R8" s="177">
+      <c r="R8" s="158">
         <v>25</v>
       </c>
-      <c r="S8" s="177" t="s">
+      <c r="S8" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="T8" s="193" t="s">
+      <c r="T8" s="174" t="s">
         <v>208</v>
       </c>
-      <c r="U8" s="176">
+      <c r="U8" s="157">
         <v>0.5</v>
       </c>
-      <c r="V8" s="176">
+      <c r="V8" s="157">
         <v>0.25</v>
       </c>
-      <c r="W8" s="176">
+      <c r="W8" s="157">
         <v>2.5</v>
       </c>
-      <c r="X8" s="176">
+      <c r="X8" s="157">
         <v>2.5</v>
       </c>
-      <c r="Y8" s="176">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="176">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="176">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="176">
+      <c r="Y8" s="157">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="157">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="157">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="157">
         <v>9</v>
       </c>
-      <c r="AC8" s="176">
+      <c r="AC8" s="157">
         <v>0.8</v>
       </c>
       <c r="AD8" s="53">
         <v>1.25</v>
       </c>
       <c r="AE8" s="53">
-        <f>IF(T8="Alm_Hamre_2018",1.5,369/102)</f>
+        <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
       <c r="AF8" s="53">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="G9" s="175">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="G9" s="156">
         <v>2.8849999999999998</v>
       </c>
-      <c r="H9" s="174">
+      <c r="H9" s="155">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I9" s="174" t="s">
+      <c r="I9" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J9" s="173" t="s">
+      <c r="J9" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="L9" s="175">
+      <c r="L9" s="156">
         <v>8</v>
       </c>
-      <c r="M9" s="174">
+      <c r="M9" s="155">
         <v>12.93</v>
       </c>
-      <c r="N9" s="173">
-        <v>0</v>
-      </c>
-      <c r="P9" s="177">
+      <c r="N9" s="154">
+        <v>0</v>
+      </c>
+      <c r="P9" s="158">
         <v>8</v>
       </c>
-      <c r="Q9" s="177">
-        <f>R8</f>
+      <c r="Q9" s="158">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="R9" s="177">
+      <c r="R9" s="158">
         <v>40.299999999999997</v>
       </c>
-      <c r="S9" s="177" t="s">
+      <c r="S9" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="T9" s="193" t="s">
+      <c r="T9" s="174" t="s">
         <v>208</v>
       </c>
-      <c r="U9" s="176">
+      <c r="U9" s="157">
         <v>0.5</v>
       </c>
-      <c r="V9" s="176">
+      <c r="V9" s="157">
         <v>0.25</v>
       </c>
-      <c r="W9" s="176">
+      <c r="W9" s="157">
         <v>2.5</v>
       </c>
-      <c r="X9" s="176">
+      <c r="X9" s="157">
         <v>2.5</v>
       </c>
-      <c r="Y9" s="176">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="176">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="176">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="176">
+      <c r="Y9" s="157">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="157">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="157">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="157">
         <v>9</v>
       </c>
-      <c r="AC9" s="176">
+      <c r="AC9" s="157">
         <v>0.8</v>
       </c>
       <c r="AD9" s="53">
         <v>1.25</v>
       </c>
       <c r="AE9" s="53">
-        <f>IF(T9="Alm_Hamre_2018",1.5,369/102)</f>
+        <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
       <c r="AF9" s="53">
         <v>0.8</v>
       </c>
-      <c r="AG9" s="181"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="G10" s="175">
+      <c r="AG9" s="162"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="G10" s="156">
         <v>2.89</v>
       </c>
-      <c r="H10" s="174">
+      <c r="H10" s="155">
         <v>1.23</v>
       </c>
-      <c r="I10" s="174" t="s">
+      <c r="I10" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J10" s="173" t="s">
+      <c r="J10" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="L10" s="175">
+      <c r="L10" s="156">
         <v>9</v>
       </c>
-      <c r="M10" s="174">
+      <c r="M10" s="155">
         <v>17.399999999999999</v>
       </c>
-      <c r="N10" s="173">
-        <v>0</v>
-      </c>
-      <c r="P10" s="177">
+      <c r="N10" s="154">
+        <v>0</v>
+      </c>
+      <c r="P10" s="158">
         <v>9</v>
       </c>
-      <c r="Q10" s="177">
-        <f>R9</f>
+      <c r="Q10" s="158">
+        <f t="shared" si="1"/>
         <v>40.299999999999997</v>
       </c>
-      <c r="R10" s="177">
+      <c r="R10" s="158">
         <v>43.8</v>
       </c>
-      <c r="S10" s="177" t="s">
+      <c r="S10" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="T10" s="193" t="s">
+      <c r="T10" s="174" t="s">
         <v>126</v>
       </c>
-      <c r="U10" s="176">
+      <c r="U10" s="157">
         <v>0.5</v>
       </c>
-      <c r="V10" s="176">
+      <c r="V10" s="157">
         <v>0.25</v>
       </c>
-      <c r="W10" s="176">
+      <c r="W10" s="157">
         <v>2.5</v>
       </c>
-      <c r="X10" s="176">
+      <c r="X10" s="157">
         <v>2.5</v>
       </c>
-      <c r="Y10" s="176">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="176">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="176">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="176">
+      <c r="Y10" s="157">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="157">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="157">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="157">
         <v>9</v>
       </c>
-      <c r="AC10" s="176">
+      <c r="AC10" s="157">
         <v>0.8</v>
       </c>
       <c r="AD10" s="53">
         <v>1.25</v>
       </c>
       <c r="AE10" s="53">
-        <f>IF(T10="Alm_Hamre_2018",1.5,369/102)</f>
+        <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
       <c r="AF10" s="53">
         <v>1.25</v>
       </c>
-      <c r="AG10" s="181"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="G11" s="175">
+      <c r="AG10" s="162"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="G11" s="156">
         <v>3.165</v>
       </c>
-      <c r="H11" s="174">
+      <c r="H11" s="155">
         <v>1.23</v>
       </c>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="173" t="s">
+      <c r="J11" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="L11" s="175">
+      <c r="L11" s="156">
         <v>10</v>
       </c>
-      <c r="M11" s="174">
+      <c r="M11" s="155">
         <v>25</v>
       </c>
-      <c r="N11" s="173">
-        <v>0</v>
-      </c>
-      <c r="P11" s="177">
+      <c r="N11" s="154">
+        <v>0</v>
+      </c>
+      <c r="P11" s="158">
         <v>10</v>
       </c>
-      <c r="Q11" s="177">
-        <f>R10</f>
+      <c r="Q11" s="158">
+        <f t="shared" si="1"/>
         <v>43.8</v>
       </c>
-      <c r="R11" s="177">
+      <c r="R11" s="158">
         <v>95</v>
       </c>
-      <c r="S11" s="177" t="s">
+      <c r="S11" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="T11" s="193" t="s">
+      <c r="T11" s="174" t="s">
         <v>208</v>
       </c>
-      <c r="U11" s="176">
+      <c r="U11" s="157">
         <v>0.5</v>
       </c>
-      <c r="V11" s="176">
+      <c r="V11" s="157">
         <v>0.25</v>
       </c>
-      <c r="W11" s="176">
+      <c r="W11" s="157">
         <v>2.5</v>
       </c>
-      <c r="X11" s="176">
+      <c r="X11" s="157">
         <v>2.5</v>
       </c>
-      <c r="Y11" s="176">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="176">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="176">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="176">
+      <c r="Y11" s="157">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="157">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="157">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="157">
         <v>9</v>
       </c>
-      <c r="AC11" s="176">
+      <c r="AC11" s="157">
         <v>0.8</v>
       </c>
       <c r="AD11" s="53">
         <v>1.25</v>
       </c>
       <c r="AE11" s="53">
-        <f>IF(T11="Alm_Hamre_2018",1.5,369/102)</f>
+        <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
       <c r="AF11" s="53">
         <v>1.25</v>
       </c>
-      <c r="AG11" s="181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="G12" s="175">
+      <c r="AG11" s="162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="G12" s="156">
         <v>3.24</v>
       </c>
-      <c r="H12" s="174">
+      <c r="H12" s="155">
         <v>1.23</v>
       </c>
-      <c r="I12" s="174" t="s">
+      <c r="I12" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J12" s="173" t="s">
+      <c r="J12" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="L12" s="175">
+      <c r="L12" s="156">
         <v>11</v>
       </c>
-      <c r="M12" s="174">
+      <c r="M12" s="155">
         <v>34</v>
       </c>
-      <c r="N12" s="173">
+      <c r="N12" s="154">
         <v>0</v>
       </c>
       <c r="P12" s="3"/>
       <c r="AE12" s="5"/>
-      <c r="AG12" s="181"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="G13" s="175">
+      <c r="AG12" s="162"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="G13" s="156">
         <v>3.3</v>
       </c>
-      <c r="H13" s="174">
+      <c r="H13" s="155">
         <v>3</v>
       </c>
-      <c r="I13" s="174" t="s">
+      <c r="I13" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="J13" s="173" t="s">
+      <c r="J13" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="L13" s="175">
+      <c r="L13" s="156">
         <v>12</v>
       </c>
-      <c r="M13" s="174">
+      <c r="M13" s="155">
         <v>51</v>
       </c>
-      <c r="N13" s="173">
+      <c r="N13" s="154">
         <v>0</v>
       </c>
       <c r="P13" s="3"/>
       <c r="AE13" s="5"/>
-      <c r="AG13" s="181"/>
-    </row>
-    <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="175">
+      <c r="AG13" s="162"/>
+    </row>
+    <row r="14" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="156">
         <v>3.4</v>
       </c>
-      <c r="H14" s="174">
+      <c r="H14" s="155">
         <v>3</v>
       </c>
-      <c r="I14" s="174" t="s">
+      <c r="I14" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="J14" s="173" t="s">
+      <c r="J14" s="154" t="s">
         <v>167</v>
       </c>
-      <c r="L14" s="180">
+      <c r="L14" s="161">
         <v>13</v>
       </c>
-      <c r="M14" s="179">
+      <c r="M14" s="160">
         <f>SUM(D2:D36)-5</f>
         <v>67</v>
       </c>
-      <c r="N14" s="178">
+      <c r="N14" s="159">
         <v>0</v>
       </c>
       <c r="P14" s="3"/>
       <c r="AE14" s="5"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="G15" s="175">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="G15" s="156">
         <v>3.6819999999999999</v>
       </c>
-      <c r="H15" s="174">
+      <c r="H15" s="155">
         <v>1.07</v>
       </c>
-      <c r="I15" s="174" t="s">
+      <c r="I15" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J15" s="173" t="s">
+      <c r="J15" s="154" t="s">
         <v>167</v>
       </c>
       <c r="P15" s="3"/>
       <c r="AE15" s="5"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="G16" s="175">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="G16" s="156">
         <v>3.6970000000000001</v>
       </c>
-      <c r="H16" s="174">
+      <c r="H16" s="155">
         <v>1.07</v>
       </c>
-      <c r="I16" s="174" t="s">
+      <c r="I16" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J16" s="173" t="s">
+      <c r="J16" s="154" t="s">
         <v>167</v>
       </c>
       <c r="P16" s="3"/>
       <c r="AE16" s="5"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G17" s="175">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="G17" s="156">
         <v>3.722</v>
       </c>
-      <c r="H17" s="174">
+      <c r="H17" s="155">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I17" s="174" t="s">
+      <c r="I17" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J17" s="173" t="s">
+      <c r="J17" s="154" t="s">
         <v>167</v>
       </c>
       <c r="P17" s="3"/>
       <c r="AE17" s="5"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G18" s="175">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="G18" s="156">
         <v>4.077</v>
       </c>
-      <c r="H18" s="174">
+      <c r="H18" s="155">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I18" s="174" t="s">
+      <c r="I18" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J18" s="173" t="s">
+      <c r="J18" s="154" t="s">
         <v>167</v>
       </c>
       <c r="P18" s="3"/>
       <c r="AE18" s="5"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G19" s="175">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="G19" s="156">
         <v>4.125</v>
       </c>
-      <c r="H19" s="174">
+      <c r="H19" s="155">
         <v>3</v>
       </c>
-      <c r="I19" s="174" t="s">
+      <c r="I19" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="J19" s="173" t="s">
+      <c r="J19" s="154" t="s">
         <v>167</v>
       </c>
       <c r="P19" s="3"/>
       <c r="AE19" s="5"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G20" s="175">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="G20" s="156">
         <v>5.2</v>
       </c>
-      <c r="H20" s="174">
+      <c r="H20" s="155">
         <v>1.0509999999999999</v>
       </c>
-      <c r="I20" s="174" t="s">
+      <c r="I20" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J20" s="173" t="s">
+      <c r="J20" s="154" t="s">
         <v>63</v>
       </c>
       <c r="P20" s="3"/>
       <c r="AE20" s="5"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G21" s="175">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="G21" s="156">
         <v>6.9320000000000004</v>
       </c>
-      <c r="H21" s="174">
+      <c r="H21" s="155">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I21" s="174" t="s">
+      <c r="I21" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="J21" s="173" t="s">
+      <c r="J21" s="154" t="s">
         <v>167</v>
       </c>
       <c r="P21" s="3"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G22" s="175">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="G22" s="156">
         <v>7.2880000000000003</v>
       </c>
-      <c r="H22" s="174">
+      <c r="H22" s="155">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I22" s="174" t="s">
+      <c r="I22" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="J22" s="173" t="s">
+      <c r="J22" s="154" t="s">
         <v>167</v>
       </c>
       <c r="P22" s="3"/>
       <c r="AE22" s="5"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G23" s="175">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="G23" s="156">
         <v>8.6</v>
       </c>
-      <c r="H23" s="174">
+      <c r="H23" s="155">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I23" s="174" t="s">
+      <c r="I23" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J23" s="173" t="s">
+      <c r="J23" s="154" t="s">
         <v>63</v>
       </c>
       <c r="P23" s="3"/>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G24" s="175">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="G24" s="156">
         <v>12.1</v>
       </c>
-      <c r="H24" s="174">
+      <c r="H24" s="155">
         <v>1.0509999999999999</v>
       </c>
-      <c r="I24" s="174" t="s">
+      <c r="I24" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J24" s="173" t="s">
+      <c r="J24" s="154" t="s">
         <v>63</v>
       </c>
       <c r="P24" s="3"/>
       <c r="AE24" s="5"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G25" s="175">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="G25" s="156">
         <v>13.092000000000001</v>
       </c>
-      <c r="H25" s="174">
+      <c r="H25" s="155">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I25" s="174" t="s">
+      <c r="I25" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="J25" s="173" t="s">
+      <c r="J25" s="154" t="s">
         <v>167</v>
       </c>
       <c r="P25" s="3"/>
       <c r="AE25" s="5"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G26" s="175">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="G26" s="156">
         <v>13.448</v>
       </c>
-      <c r="H26" s="174">
+      <c r="H26" s="155">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I26" s="174" t="s">
+      <c r="I26" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="J26" s="173" t="s">
+      <c r="J26" s="154" t="s">
         <v>167</v>
       </c>
       <c r="P26" s="3"/>
       <c r="AE26" s="5"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G27" s="175">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="G27" s="156">
         <v>15</v>
       </c>
-      <c r="H27" s="174">
+      <c r="H27" s="155">
         <v>1.524</v>
       </c>
-      <c r="I27" s="174" t="s">
+      <c r="I27" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="J27" s="173" t="s">
+      <c r="J27" s="154" t="s">
         <v>63</v>
       </c>
       <c r="P27" s="3"/>
       <c r="AE27" s="5"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G28" s="175">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="G28" s="156">
         <v>17</v>
       </c>
-      <c r="H28" s="174">
+      <c r="H28" s="155">
         <v>2</v>
       </c>
-      <c r="I28" s="174" t="s">
+      <c r="I28" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="J28" s="173" t="s">
+      <c r="J28" s="154" t="s">
         <v>167</v>
       </c>
       <c r="P28" s="3"/>
       <c r="AE28" s="5"/>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D29" s="192"/>
-      <c r="G29" s="175">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="D29" s="173"/>
+      <c r="G29" s="156">
         <v>19</v>
       </c>
-      <c r="H29" s="174">
+      <c r="H29" s="155">
         <v>1.145</v>
       </c>
-      <c r="I29" s="174" t="s">
+      <c r="I29" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J29" s="173" t="s">
+      <c r="J29" s="154" t="s">
         <v>63</v>
       </c>
       <c r="P29" s="3"/>
       <c r="AE29" s="5"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D30" s="192"/>
-      <c r="G30" s="175">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="D30" s="173"/>
+      <c r="G30" s="156">
         <v>21.8</v>
       </c>
-      <c r="H30" s="174">
+      <c r="H30" s="155">
         <v>1.4</v>
       </c>
-      <c r="I30" s="174" t="s">
+      <c r="I30" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="J30" s="173" t="s">
+      <c r="J30" s="154" t="s">
         <v>167</v>
       </c>
       <c r="P30" s="3"/>
       <c r="AE30" s="5"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="5"/>
-      <c r="G31" s="175">
+      <c r="G31" s="156">
         <v>22.2</v>
       </c>
-      <c r="H31" s="174">
+      <c r="H31" s="155">
         <v>1.4</v>
       </c>
-      <c r="I31" s="174" t="s">
+      <c r="I31" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="J31" s="173" t="s">
+      <c r="J31" s="154" t="s">
         <v>167</v>
       </c>
       <c r="P31" s="3"/>
       <c r="AE31" s="5"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="5"/>
-      <c r="G32" s="175">
+      <c r="G32" s="156">
         <v>23</v>
       </c>
-      <c r="H32" s="174">
+      <c r="H32" s="155">
         <v>1.143</v>
       </c>
-      <c r="I32" s="174" t="s">
+      <c r="I32" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J32" s="173" t="s">
+      <c r="J32" s="154" t="s">
         <v>63</v>
       </c>
       <c r="P32" s="3"/>
       <c r="AE32" s="5"/>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="5"/>
-      <c r="G33" s="175">
+      <c r="G33" s="156">
         <v>27</v>
       </c>
-      <c r="H33" s="174">
+      <c r="H33" s="155">
         <v>1.048</v>
       </c>
-      <c r="I33" s="174" t="s">
+      <c r="I33" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J33" s="173" t="s">
+      <c r="J33" s="154" t="s">
         <v>63</v>
       </c>
       <c r="P33" s="3"/>
       <c r="AE33" s="5"/>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="5"/>
-      <c r="G34" s="175">
+      <c r="G34" s="156">
         <v>31</v>
       </c>
-      <c r="H34" s="174">
+      <c r="H34" s="155">
         <v>1.18</v>
       </c>
-      <c r="I34" s="174" t="s">
+      <c r="I34" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="J34" s="173" t="s">
+      <c r="J34" s="154" t="s">
         <v>63</v>
       </c>
       <c r="P34" s="3"/>
       <c r="AE34" s="5"/>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -20971,7 +21096,7 @@
       <c r="P35" s="3"/>
       <c r="AE35" s="5"/>
     </row>
-    <row r="36" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -20996,216 +21121,216 @@
       <c r="AD36" s="7"/>
       <c r="AE36" s="8"/>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="172" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="153" t="s">
         <v>41</v>
       </c>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="172" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="153" t="s">
         <v>126</v>
       </c>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="172" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="153" t="s">
         <v>68</v>
       </c>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="172" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="153" t="s">
         <v>193</v>
       </c>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="172" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="153" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="172" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="153" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="172" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="153" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="172" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="153" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="172" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="153" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="172" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="153" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="Y2:AB11">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$T2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:X11">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$T2="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:X11">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$T2="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:X11">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21234,14 +21359,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="116" t="s">
         <v>225</v>
       </c>
@@ -21249,10 +21374,10 @@
         <v>226</v>
       </c>
       <c r="D2" s="116" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="114" t="s">
         <v>41</v>
       </c>
@@ -21260,10 +21385,10 @@
         <v>189</v>
       </c>
       <c r="D3" s="114" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="114" t="s">
         <v>126</v>
       </c>
@@ -21274,7 +21399,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="114" t="s">
         <v>68</v>
       </c>
@@ -21282,10 +21407,10 @@
         <v>194</v>
       </c>
       <c r="D5" s="114" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="114" t="s">
         <v>193</v>
       </c>
@@ -21294,7 +21419,7 @@
       </c>
       <c r="D6" s="114"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="114" t="s">
         <v>208</v>
       </c>
@@ -21303,47 +21428,47 @@
       </c>
       <c r="D7" s="114"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="115"/>
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>

--- a/Input/PDAcalc.xlsx
+++ b/Input/PDAcalc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8E88DD-B68D-4D70-8CE0-1A982139A43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9955DFB-4568-4B6F-BC46-2792224CC617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="652" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATIONS" sheetId="66" r:id="rId1"/>
@@ -770,7 +770,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="285">
   <si>
     <t>Setting</t>
   </si>
@@ -1053,9 +1053,6 @@
     <t>line</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
     <t>AO1</t>
   </si>
   <si>
@@ -1110,15 +1107,9 @@
     <t>CPTProfile</t>
   </si>
   <si>
-    <t>Blow_Count_HB</t>
-  </si>
-  <si>
     <t>Fatigue_UB</t>
   </si>
   <si>
-    <t>Reduced energy</t>
-  </si>
-  <si>
     <t>ituotdao1db</t>
   </si>
   <si>
@@ -1242,9 +1233,6 @@
     <t xml:space="preserve">Emb L </t>
   </si>
   <si>
-    <t>Full energy</t>
-  </si>
-  <si>
     <t>Switch</t>
   </si>
   <si>
@@ -1290,9 +1278,6 @@
     <t>Fatigue calculation</t>
   </si>
   <si>
-    <t>Analysis option 1</t>
-  </si>
-  <si>
     <t>SPSO</t>
   </si>
   <si>
@@ -1401,22 +1386,10 @@
     <t>Jones</t>
   </si>
   <si>
-    <t>NMS</t>
-  </si>
-  <si>
-    <t>CPT PDA profile</t>
-  </si>
-  <si>
     <t>NoiseSTR_4000</t>
   </si>
   <si>
     <t>NoiseSTR_5500</t>
-  </si>
-  <si>
-    <t>S-5500</t>
-  </si>
-  <si>
-    <t>S-4000</t>
   </si>
   <si>
     <t>Full_UB_4000</t>
@@ -1652,6 +1625,9 @@
   </si>
   <si>
     <t>Depth</t>
+  </si>
+  <si>
+    <t>Hybrid option 1</t>
   </si>
 </sst>
 </file>
@@ -2398,7 +2374,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2730,6 +2706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3486,7 +3463,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3511,80 +3488,80 @@
   <sheetData>
     <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="116" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1" s="116" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="140" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="140" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="140" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="140" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="140" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="140" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" s="140" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="L1" s="140" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="M1" s="140" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="N1" s="140" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="140" t="s">
+      <c r="O1" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="140" t="s">
+      <c r="P1" s="141" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="140" t="s">
+      <c r="Q1" s="140" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="140" t="s">
+      <c r="R1" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="140" t="s">
+      <c r="S1" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="140" t="s">
+      <c r="T1" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="140" t="s">
+      <c r="U1" s="140" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="140" t="s">
+      <c r="V1" s="140" t="s">
         <v>262</v>
-      </c>
-      <c r="N1" s="140" t="s">
-        <v>263</v>
-      </c>
-      <c r="O1" s="140" t="s">
-        <v>264</v>
-      </c>
-      <c r="P1" s="141" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q1" s="140" t="s">
-        <v>266</v>
-      </c>
-      <c r="R1" s="140" t="s">
-        <v>267</v>
-      </c>
-      <c r="S1" s="140" t="s">
-        <v>268</v>
-      </c>
-      <c r="T1" s="140" t="s">
-        <v>269</v>
-      </c>
-      <c r="U1" s="140" t="s">
-        <v>270</v>
-      </c>
-      <c r="V1" s="140" t="s">
-        <v>271</v>
       </c>
       <c r="W1" s="116" t="s">
         <v>79</v>
       </c>
       <c r="X1" s="113"/>
       <c r="AC1" s="137" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AD1" s="138" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AE1" s="139" t="s">
         <v>79</v>
@@ -3604,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="100" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C2" s="129">
         <v>70</v>
@@ -3690,7 +3667,7 @@
       </c>
       <c r="X2" s="72"/>
       <c r="AC2" s="134" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AD2" s="135">
         <v>70</v>
@@ -5302,7 +5279,7 @@
       <c r="V50" s="131"/>
       <c r="W50" s="35"/>
       <c r="X50" s="72" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
@@ -5512,7 +5489,7 @@
       <c r="V58" s="131"/>
       <c r="W58" s="35"/>
       <c r="X58" s="72" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
@@ -5930,7 +5907,7 @@
       <c r="V74" s="131"/>
       <c r="W74" s="35"/>
       <c r="X74" s="72" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
@@ -6878,7 +6855,7 @@
       <c r="V110" s="129"/>
       <c r="W110" s="130"/>
       <c r="X110" s="128" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.3">
@@ -8211,8 +8188,8 @@
   </sheetPr>
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8241,7 +8218,7 @@
     <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="105" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C2" s="106" t="s">
         <v>35</v>
@@ -8256,23 +8233,23 @@
         <v>37</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="H2" s="149" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" s="148" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" s="179" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="180"/>
+      <c r="L2" s="181"/>
       <c r="M2" s="53"/>
-      <c r="N2" s="179" t="s">
-        <v>227</v>
-      </c>
-      <c r="O2" s="180"/>
+      <c r="N2" s="180" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="181"/>
     </row>
     <row r="3" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13">
@@ -8305,11 +8282,11 @@
         <v>39</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M3" s="53"/>
       <c r="N3" s="31" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O3" s="27">
         <v>0</v>
@@ -8349,7 +8326,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="48" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M4" s="53"/>
       <c r="N4" s="19" t="s">
@@ -8369,7 +8346,7 @@
         <v>Full_UB_5500</v>
       </c>
       <c r="D5" s="54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="54">
         <f t="shared" si="1"/>
@@ -8391,14 +8368,14 @@
         <v>38</v>
       </c>
       <c r="L5" s="48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M5" s="53"/>
       <c r="N5" s="31" t="s">
         <v>9</v>
       </c>
       <c r="O5" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.3">
@@ -8430,10 +8407,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="L6" s="48" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="M6" s="53"/>
     </row>
@@ -8466,10 +8443,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
@@ -8504,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="L8" s="47">
         <v>0</v>
@@ -8540,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="53"/>
@@ -8574,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L10" s="48">
         <v>1000</v>
@@ -8610,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L11" s="48">
         <v>0</v>
@@ -8647,10 +8624,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="56" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M12" s="53"/>
     </row>
@@ -8749,10 +8726,10 @@
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
       <c r="I16" s="34"/>
-      <c r="K16" s="179" t="s">
-        <v>217</v>
-      </c>
-      <c r="L16" s="180"/>
+      <c r="K16" s="180" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" s="181"/>
     </row>
     <row r="17" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="str">
@@ -8772,11 +8749,11 @@
       <c r="K17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>288</v>
+      <c r="L17" s="177" t="s">
+        <v>279</v>
       </c>
       <c r="P17" s="53" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="53" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8795,10 +8772,10 @@
       <c r="H18" s="54"/>
       <c r="I18" s="34"/>
       <c r="K18" s="56" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
@@ -8873,42 +8850,42 @@
     </row>
     <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="184"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="184"/>
-      <c r="S24" s="184"/>
-      <c r="T24" s="184"/>
-      <c r="U24" s="184"/>
-      <c r="V24" s="184"/>
-      <c r="W24" s="184"/>
-      <c r="X24" s="184"/>
-      <c r="Y24" s="184"/>
-      <c r="Z24" s="184"/>
-      <c r="AA24" s="184"/>
-      <c r="AB24" s="178"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="185"/>
+      <c r="M24" s="185"/>
+      <c r="N24" s="185"/>
+      <c r="O24" s="185"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="185"/>
+      <c r="R24" s="185"/>
+      <c r="S24" s="185"/>
+      <c r="T24" s="185"/>
+      <c r="U24" s="185"/>
+      <c r="V24" s="185"/>
+      <c r="W24" s="185"/>
+      <c r="X24" s="185"/>
+      <c r="Y24" s="185"/>
+      <c r="Z24" s="185"/>
+      <c r="AA24" s="185"/>
+      <c r="AB24" s="179"/>
     </row>
     <row r="25" spans="1:28" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="143" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C25" s="144" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D25" s="144" t="s">
         <v>1</v>
@@ -8929,10 +8906,10 @@
         <v>45</v>
       </c>
       <c r="J25" s="144" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K25" s="144" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L25" s="144" t="s">
         <v>31</v>
@@ -8959,31 +8936,31 @@
         <v>65</v>
       </c>
       <c r="T25" s="144" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U25" s="144" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="V25" s="144" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W25" s="144" t="s">
         <v>77</v>
       </c>
       <c r="X25" s="144" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Y25" s="144" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Z25" s="144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA25" s="144" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AB25" s="145" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
@@ -8992,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="142" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D26" s="142">
         <v>0</v>
@@ -9032,13 +9009,13 @@
         <v>1</v>
       </c>
       <c r="Q26" s="142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R26" s="142">
         <v>1</v>
       </c>
       <c r="S26" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T26" s="142">
         <v>300</v>
@@ -9075,7 +9052,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D27" s="142">
         <v>0</v>
@@ -9115,13 +9092,13 @@
         <v>1</v>
       </c>
       <c r="Q27" s="142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R27" s="142">
         <v>1</v>
       </c>
       <c r="S27" s="142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T27" s="142">
         <v>0</v>
@@ -9148,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
@@ -9158,7 +9135,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="142" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D28" s="142">
         <v>0</v>
@@ -9198,13 +9175,13 @@
         <v>1</v>
       </c>
       <c r="Q28" s="142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R28" s="142">
         <v>1</v>
       </c>
       <c r="S28" s="142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T28" s="142">
         <v>0</v>
@@ -9231,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
@@ -9241,7 +9218,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="142" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D29" s="142">
         <v>0</v>
@@ -9281,13 +9258,13 @@
         <v>1</v>
       </c>
       <c r="Q29" s="142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R29" s="142">
         <v>1</v>
       </c>
       <c r="S29" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T29" s="142">
         <v>0</v>
@@ -9324,7 +9301,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="142" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30" s="142">
         <v>0</v>
@@ -9364,13 +9341,13 @@
         <v>1</v>
       </c>
       <c r="Q30" s="142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R30" s="142">
         <v>1</v>
       </c>
       <c r="S30" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T30" s="142">
         <v>0</v>
@@ -9382,7 +9359,7 @@
         <v>3411.4</v>
       </c>
       <c r="W30" s="142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X30" s="142" t="s">
         <v>91</v>
@@ -9407,7 +9384,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="142" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D31" s="142">
         <v>0</v>
@@ -9447,13 +9424,13 @@
         <v>1</v>
       </c>
       <c r="Q31" s="142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R31" s="142">
         <v>1</v>
       </c>
       <c r="S31" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T31" s="142">
         <v>0</v>
@@ -9490,7 +9467,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="142" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D32" s="142">
         <v>0</v>
@@ -9530,13 +9507,13 @@
         <v>1</v>
       </c>
       <c r="Q32" s="142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R32" s="142">
         <v>1</v>
       </c>
       <c r="S32" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T32" s="142">
         <v>0</v>
@@ -9573,7 +9550,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="142" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D33" s="142">
         <v>0</v>
@@ -9613,13 +9590,13 @@
         <v>1</v>
       </c>
       <c r="Q33" s="142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R33" s="142">
         <v>1</v>
       </c>
       <c r="S33" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T33" s="142">
         <v>0</v>
@@ -9656,7 +9633,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="142" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D34" s="142">
         <v>0</v>
@@ -9696,13 +9673,13 @@
         <v>1</v>
       </c>
       <c r="Q34" s="142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R34" s="142">
         <v>1</v>
       </c>
       <c r="S34" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T34" s="142">
         <v>300</v>
@@ -9739,7 +9716,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="142" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D35" s="142">
         <v>0</v>
@@ -9779,13 +9756,13 @@
         <v>1</v>
       </c>
       <c r="Q35" s="142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R35" s="142">
         <v>1</v>
       </c>
       <c r="S35" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T35" s="142">
         <v>300</v>
@@ -9822,7 +9799,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="142" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D36" s="142">
         <v>0</v>
@@ -9862,13 +9839,13 @@
         <v>1</v>
       </c>
       <c r="Q36" s="142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R36" s="142">
         <v>1</v>
       </c>
       <c r="S36" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T36" s="142">
         <v>0</v>
@@ -9905,7 +9882,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="142" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D37" s="142">
         <v>0</v>
@@ -9945,13 +9922,13 @@
         <v>1</v>
       </c>
       <c r="Q37" s="142" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R37" s="142">
         <v>1</v>
       </c>
       <c r="S37" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T37" s="142">
         <v>0</v>
@@ -10247,28 +10224,28 @@
     </row>
     <row r="46" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="181" t="s">
+      <c r="B47" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="183"/>
-      <c r="J47" s="181" t="s">
+      <c r="C47" s="183"/>
+      <c r="D47" s="183"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="183"/>
+      <c r="G47" s="183"/>
+      <c r="H47" s="184"/>
+      <c r="J47" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="182"/>
-      <c r="L47" s="182"/>
-      <c r="M47" s="182"/>
-      <c r="N47" s="182"/>
-      <c r="O47" s="182"/>
-      <c r="P47" s="182"/>
-      <c r="Q47" s="182"/>
-      <c r="R47" s="182"/>
-      <c r="S47" s="182"/>
-      <c r="T47" s="183"/>
+      <c r="K47" s="183"/>
+      <c r="L47" s="183"/>
+      <c r="M47" s="183"/>
+      <c r="N47" s="183"/>
+      <c r="O47" s="183"/>
+      <c r="P47" s="183"/>
+      <c r="Q47" s="183"/>
+      <c r="R47" s="183"/>
+      <c r="S47" s="183"/>
+      <c r="T47" s="184"/>
     </row>
     <row r="48" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="143" t="s">
@@ -10626,27 +10603,27 @@
     </row>
     <row r="62" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="63" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="177" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="178"/>
-      <c r="E63" s="177" t="s">
-        <v>291</v>
-      </c>
-      <c r="F63" s="178"/>
+      <c r="B63" s="178" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="179"/>
+      <c r="E63" s="178" t="s">
+        <v>282</v>
+      </c>
+      <c r="F63" s="179"/>
     </row>
     <row r="64" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="143" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="145" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E64" s="143" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F64" s="145" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
@@ -10845,12 +10822,12 @@
   </sheetPr>
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
       <selection pane="topRight" activeCell="C17" sqref="C17"/>
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10870,17 +10847,17 @@
     <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="105" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E2" s="106" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F2" s="105" t="s">
         <v>80</v>
@@ -10888,33 +10865,33 @@
       <c r="G2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="185" t="s">
+      <c r="H2" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="187" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="187" t="s">
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="185"/>
-      <c r="AB2" s="186"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="186"/>
+      <c r="AB2" s="187"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="95">
@@ -10927,7 +10904,7 @@
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="122">
         <v>1</v>
@@ -10939,22 +10916,18 @@
         <v>86</v>
       </c>
       <c r="H3" s="35">
-        <v>1</v>
-      </c>
-      <c r="I3" s="35">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" s="35"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
       <c r="N3" s="30"/>
       <c r="O3" s="110" t="s">
-        <v>214</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>213</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
@@ -10963,9 +10936,7 @@
       <c r="V3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="W3" s="54" t="s">
-        <v>93</v>
-      </c>
+      <c r="W3" s="54"/>
       <c r="X3" s="54"/>
       <c r="Y3" s="54"/>
       <c r="Z3" s="54"/>
@@ -10983,35 +10954,31 @@
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="100">
         <f>IF(F4="","",E3+1)</f>
         <v>2</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G4" s="126" t="s">
         <v>87</v>
       </c>
       <c r="H4" s="35">
-        <v>8</v>
-      </c>
-      <c r="I4" s="35">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" s="35"/>
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
       <c r="N4" s="34"/>
       <c r="O4" s="110" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>74</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
       <c r="S4" s="35"/>
@@ -11020,9 +10987,7 @@
       <c r="V4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="54" t="s">
-        <v>93</v>
-      </c>
+      <c r="W4" s="54"/>
       <c r="X4" s="54"/>
       <c r="Y4" s="54"/>
       <c r="Z4" s="54"/>
@@ -11049,36 +11014,31 @@
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="110">
-        <f t="shared" ref="D5:D40" si="0">IF(E5="","",0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="100">
-        <f t="shared" ref="E5:E40" si="1">IF(F5="","",E4+1)</f>
+        <f t="shared" ref="E5:E40" si="0">IF(F5="","",E4+1)</f>
         <v>3</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="G5" s="126" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" s="35">
-        <v>8</v>
-      </c>
-      <c r="I5" s="35">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" s="35"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
       <c r="L5" s="35"/>
       <c r="M5" s="35"/>
       <c r="N5" s="34"/>
       <c r="O5" s="110" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" s="35" t="s">
-        <v>74</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
       <c r="S5" s="35"/>
@@ -11087,9 +11047,7 @@
       <c r="V5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="W5" s="54" t="s">
-        <v>93</v>
-      </c>
+      <c r="W5" s="54"/>
       <c r="X5" s="54"/>
       <c r="Y5" s="54"/>
       <c r="Z5" s="54"/>
@@ -11107,48 +11065,26 @@
         <v>PileRun_UB</v>
       </c>
       <c r="C6" s="35"/>
-      <c r="D6" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="100">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="35">
-        <v>1</v>
-      </c>
-      <c r="I6" s="35">
-        <v>9</v>
-      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
       <c r="N6" s="34"/>
-      <c r="O6" s="110" t="s">
-        <v>214</v>
-      </c>
-      <c r="P6" s="35" t="s">
-        <v>213</v>
-      </c>
+      <c r="O6" s="110"/>
+      <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="35"/>
       <c r="S6" s="35"/>
       <c r="T6" s="35"/>
       <c r="U6" s="34"/>
-      <c r="V6" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="W6" s="54" t="s">
-        <v>93</v>
-      </c>
+      <c r="V6" s="9"/>
+      <c r="W6" s="54"/>
       <c r="X6" s="54"/>
       <c r="Y6" s="54"/>
       <c r="Z6" s="54"/>
@@ -11165,41 +11101,25 @@
         <v>PileRun_LB</v>
       </c>
       <c r="C7" s="35"/>
-      <c r="D7" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="100">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="35">
-        <v>1</v>
-      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
       <c r="N7" s="34"/>
-      <c r="O7" s="110" t="s">
-        <v>209</v>
-      </c>
+      <c r="O7" s="110"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
       <c r="U7" s="34"/>
-      <c r="V7" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="V7" s="9"/>
       <c r="W7" s="54"/>
       <c r="X7" s="54"/>
       <c r="Y7" s="54"/>
@@ -11217,48 +11137,26 @@
         <v>Entrapped_UB</v>
       </c>
       <c r="C8" s="35"/>
-      <c r="D8" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="100">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="35">
-        <v>7</v>
-      </c>
-      <c r="I8" s="35">
-        <v>8</v>
-      </c>
+      <c r="D8" s="110"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
       <c r="N8" s="34"/>
-      <c r="O8" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="P8" s="35" t="s">
-        <v>156</v>
-      </c>
+      <c r="O8" s="110"/>
+      <c r="P8" s="35"/>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="34"/>
-      <c r="V8" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="W8" s="54" t="s">
-        <v>92</v>
-      </c>
+      <c r="V8" s="9"/>
+      <c r="W8" s="54"/>
       <c r="X8" s="54"/>
       <c r="Y8" s="54"/>
       <c r="Z8" s="54"/>
@@ -11275,48 +11173,26 @@
         <v>Breakdown_BE</v>
       </c>
       <c r="C9" s="35"/>
-      <c r="D9" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="100">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="35">
-        <v>4</v>
-      </c>
-      <c r="I9" s="35">
-        <v>3</v>
-      </c>
+      <c r="D9" s="110"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
       <c r="N9" s="34"/>
-      <c r="O9" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="35" t="s">
-        <v>156</v>
-      </c>
+      <c r="O9" s="110"/>
+      <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="34"/>
-      <c r="V9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="W9" s="54" t="s">
-        <v>92</v>
-      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="54"/>
       <c r="X9" s="54"/>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
@@ -11333,41 +11209,25 @@
         <v>Entrapped_BE</v>
       </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="100">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="126" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="35">
-        <v>9</v>
-      </c>
+      <c r="D10" s="110"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
       <c r="N10" s="34"/>
-      <c r="O10" s="110" t="s">
-        <v>172</v>
-      </c>
+      <c r="O10" s="110"/>
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="34"/>
-      <c r="V10" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="V10" s="9"/>
       <c r="W10" s="54"/>
       <c r="X10" s="54"/>
       <c r="Y10" s="54"/>
@@ -11385,48 +11245,26 @@
         <v>NoiseSTR_5500</v>
       </c>
       <c r="C11" s="35"/>
-      <c r="D11" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="100">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="126" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="35">
-        <v>1</v>
-      </c>
-      <c r="I11" s="35">
-        <v>9</v>
-      </c>
+      <c r="D11" s="110"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
       <c r="M11" s="35"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="110" t="s">
-        <v>214</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>213</v>
-      </c>
+      <c r="O11" s="110"/>
+      <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
       <c r="U11" s="34"/>
-      <c r="V11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="W11" s="54" t="s">
-        <v>93</v>
-      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="54"/>
       <c r="X11" s="54"/>
       <c r="Y11" s="54"/>
       <c r="Z11" s="54"/>
@@ -11443,41 +11281,25 @@
         <v>NoiseSTR_ACC_SENSI</v>
       </c>
       <c r="C12" s="35"/>
-      <c r="D12" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="100">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="126" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="35">
-        <v>8</v>
-      </c>
+      <c r="D12" s="110"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
       <c r="N12" s="34"/>
-      <c r="O12" s="110" t="s">
-        <v>210</v>
-      </c>
+      <c r="O12" s="110"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
       <c r="U12" s="34"/>
-      <c r="V12" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="V12" s="9"/>
       <c r="W12" s="54"/>
       <c r="X12" s="54"/>
       <c r="Y12" s="54"/>
@@ -11495,48 +11317,26 @@
         <v>Fatigue_BLOW</v>
       </c>
       <c r="C13" s="35"/>
-      <c r="D13" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="100">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="126" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="35">
-        <v>5</v>
-      </c>
-      <c r="I13" s="35">
-        <v>6</v>
-      </c>
+      <c r="D13" s="110"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
       <c r="N13" s="34"/>
-      <c r="O13" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>74</v>
-      </c>
+      <c r="O13" s="110"/>
+      <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
       <c r="U13" s="34"/>
-      <c r="V13" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="W13" s="54" t="s">
-        <v>92</v>
-      </c>
+      <c r="V13" s="9"/>
+      <c r="W13" s="54"/>
       <c r="X13" s="54"/>
       <c r="Y13" s="54"/>
       <c r="Z13" s="54"/>
@@ -11553,41 +11353,25 @@
         <v>Fatigue_STRESS</v>
       </c>
       <c r="C14" s="35"/>
-      <c r="D14" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="100">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="35">
-        <v>8</v>
-      </c>
+      <c r="D14" s="110"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="110" t="s">
-        <v>78</v>
-      </c>
+      <c r="O14" s="110"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="34"/>
-      <c r="V14" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="V14" s="9"/>
       <c r="W14" s="54"/>
       <c r="X14" s="54"/>
       <c r="Y14" s="54"/>
@@ -11605,41 +11389,25 @@
         <v/>
       </c>
       <c r="C15" s="35"/>
-      <c r="D15" s="110">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="100">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="35">
-        <v>3</v>
-      </c>
+      <c r="D15" s="110"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="35"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="110" t="s">
-        <v>74</v>
-      </c>
+      <c r="O15" s="110"/>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="34"/>
-      <c r="V15" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="V15" s="9"/>
       <c r="W15" s="54"/>
       <c r="X15" s="54"/>
       <c r="Y15" s="54"/>
@@ -11657,14 +11425,8 @@
         <v/>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="110" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E16" s="100" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="D16" s="110"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="35"/>
       <c r="G16" s="34"/>
       <c r="H16" s="35"/>
@@ -11700,11 +11462,11 @@
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="110" t="str">
+        <f t="shared" ref="D5:D40" si="1">IF(E17="","",0)</f>
+        <v/>
+      </c>
+      <c r="E17" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E17" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F17" s="54"/>
@@ -11741,11 +11503,11 @@
         <v/>
       </c>
       <c r="D18" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E18" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E18" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F18" s="54"/>
@@ -11782,11 +11544,11 @@
         <v/>
       </c>
       <c r="D19" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E19" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E19" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F19" s="54"/>
@@ -11823,11 +11585,11 @@
         <v/>
       </c>
       <c r="D20" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E20" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E20" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F20" s="54"/>
@@ -11865,11 +11627,11 @@
       </c>
       <c r="C21" s="125"/>
       <c r="D21" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E21" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E21" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F21" s="54"/>
@@ -11906,11 +11668,11 @@
         <v/>
       </c>
       <c r="D22" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E22" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E22" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F22" s="54"/>
@@ -11939,11 +11701,11 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D23" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E23" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E23" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F23" s="54"/>
@@ -11972,11 +11734,11 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D24" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E24" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E24" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F24" s="54"/>
@@ -12005,11 +11767,11 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D25" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E25" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E25" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F25" s="54"/>
@@ -12038,11 +11800,11 @@
     </row>
     <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E26" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E26" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F26" s="54"/>
@@ -12070,16 +11832,16 @@
       <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="188" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="189"/>
+      <c r="A27" s="189" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="190"/>
       <c r="D27" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E27" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E27" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F27" s="54"/>
@@ -12111,14 +11873,14 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D28" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E28" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E28" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F28" s="54"/>
@@ -12153,11 +11915,11 @@
         <v>81</v>
       </c>
       <c r="D29" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E29" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E29" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F29" s="54"/>
@@ -12192,11 +11954,11 @@
         <v>86</v>
       </c>
       <c r="D30" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E30" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E30" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F30" s="54"/>
@@ -12228,14 +11990,14 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D31" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E31" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E31" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F31" s="54"/>
@@ -12267,14 +12029,14 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D32" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E32" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E32" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F32" s="54"/>
@@ -12309,11 +12071,11 @@
         <v>83</v>
       </c>
       <c r="D33" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E33" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E33" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F33" s="54"/>
@@ -12345,14 +12107,14 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D34" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E34" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E34" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F34" s="54"/>
@@ -12384,14 +12146,14 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D35" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E35" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E35" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F35" s="54"/>
@@ -12423,14 +12185,14 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D36" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E36" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E36" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F36" s="54"/>
@@ -12462,14 +12224,14 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E37" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E37" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F37" s="54"/>
@@ -12501,14 +12263,14 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E38" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E38" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F38" s="54"/>
@@ -12540,14 +12302,14 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D39" s="110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E39" s="100" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E39" s="100" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F39" s="54"/>
@@ -12579,14 +12341,14 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" s="111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E40" s="176" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E40" s="176" t="str">
-        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F40" s="7"/>
@@ -12618,7 +12380,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
@@ -12672,7 +12434,7 @@
   <dimension ref="A1:XFD105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12709,83 +12471,83 @@
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="105" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E2" s="106" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F2" s="106" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="106" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="106" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" s="106" t="s">
+        <v>225</v>
+      </c>
+      <c r="M2" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="N2" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="O2" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="P2" s="106" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q2" s="106" t="s">
         <v>230</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="R2" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="S2" s="106" t="s">
         <v>232</v>
       </c>
-      <c r="K2" s="106" t="s">
+      <c r="T2" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="L2" s="106" t="s">
+      <c r="U2" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="M2" s="106" t="s">
+      <c r="V2" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="N2" s="106" t="s">
+      <c r="W2" s="106" t="s">
         <v>236</v>
       </c>
-      <c r="O2" s="106" t="s">
+      <c r="X2" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="P2" s="106" t="s">
+      <c r="Y2" s="106" t="s">
         <v>238</v>
       </c>
-      <c r="Q2" s="106" t="s">
+      <c r="Z2" s="107" t="s">
         <v>239</v>
       </c>
-      <c r="R2" s="106" t="s">
+      <c r="AA2" s="106" t="s">
         <v>240</v>
-      </c>
-      <c r="S2" s="106" t="s">
-        <v>241</v>
-      </c>
-      <c r="T2" s="106" t="s">
-        <v>242</v>
-      </c>
-      <c r="U2" s="106" t="s">
-        <v>243</v>
-      </c>
-      <c r="V2" s="106" t="s">
-        <v>244</v>
-      </c>
-      <c r="W2" s="106" t="s">
-        <v>245</v>
-      </c>
-      <c r="X2" s="106" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y2" s="106" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z2" s="107" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA2" s="106" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
@@ -12799,29 +12561,25 @@
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="108">
         <v>1</v>
       </c>
       <c r="F3" s="108" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H3" s="100" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I3" s="34">
-        <v>4</v>
-      </c>
-      <c r="J3" s="100" t="s">
-        <v>285</v>
-      </c>
-      <c r="K3" s="54">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J3" s="100"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="3"/>
       <c r="M3" s="5"/>
       <c r="N3" s="3"/>
@@ -12850,7 +12608,7 @@
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="108">
         <f>IF(G4="","",E3+1)</f>
@@ -12860,20 +12618,16 @@
         <v>86</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H4" s="112" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I4" s="34">
-        <v>4</v>
-      </c>
-      <c r="J4" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="K4" s="34">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J4" s="112"/>
+      <c r="K4" s="34"/>
       <c r="L4" s="3"/>
       <c r="M4" s="5"/>
       <c r="N4" s="3"/>
@@ -12906,30 +12660,26 @@
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="108">
         <f t="shared" ref="E5" si="0">IF(G5="","",E4+1)</f>
         <v>3</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H5" s="112" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I5" s="34">
-        <v>4</v>
-      </c>
-      <c r="J5" s="112" t="s">
-        <v>285</v>
-      </c>
-      <c r="K5" s="34">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J5" s="112"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="3"/>
       <c r="M5" s="5"/>
       <c r="N5" s="3"/>
@@ -15782,35 +15532,35 @@
     <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="121"/>
       <c r="D2" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="106" t="s">
-        <v>272</v>
-      </c>
-      <c r="F2" s="105" t="s">
+      <c r="J2" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="K2" s="106" t="s">
         <v>159</v>
-      </c>
-      <c r="H2" s="120" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="120" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="106" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.3">
@@ -15830,7 +15580,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G3" s="123">
         <v>1</v>
@@ -15865,7 +15615,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G4" s="20">
         <v>1</v>
@@ -15883,7 +15633,7 @@
         <v>3</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
@@ -15915,7 +15665,7 @@
       <c r="J5" s="54"/>
       <c r="K5" s="5"/>
       <c r="AL5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AS5" s="9" t="s">
         <v>92</v>
@@ -16483,7 +16233,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>72</v>
@@ -16492,37 +16242,37 @@
         <v>73</v>
       </c>
       <c r="M2" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>149</v>
-      </c>
       <c r="R2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="21" t="s">
-        <v>103</v>
-      </c>
       <c r="V2" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="W2" s="21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16577,7 +16327,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
@@ -16597,7 +16347,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
@@ -16613,7 +16363,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
@@ -16632,14 +16382,14 @@
       <c r="B14" s="20"/>
     </row>
     <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="188" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="187"/>
     </row>
     <row r="16" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="105" t="s">
@@ -16663,22 +16413,22 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="32" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -16887,16 +16637,16 @@
   <sheetData>
     <row r="1" spans="2:33" s="28" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>32</v>
@@ -16915,19 +16665,19 @@
         <v>69</v>
       </c>
       <c r="M1" s="74" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P1" s="57" t="s">
         <v>71</v>
       </c>
       <c r="Q1" s="58" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R1" s="51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S1" s="71" t="s">
         <v>66</v>
@@ -16936,22 +16686,22 @@
         <v>67</v>
       </c>
       <c r="U1" s="58" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="V1" s="51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W1" s="58" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X1" s="51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y1" s="58" t="s">
         <v>70</v>
       </c>
       <c r="Z1" s="51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="58" t="s">
         <v>17</v>
@@ -16966,13 +16716,13 @@
         <v>76</v>
       </c>
       <c r="AE1" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF1" s="43" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AG1" s="43" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.3">
@@ -16995,7 +16745,7 @@
         <v>1.383</v>
       </c>
       <c r="I2" s="83" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J2" s="80" t="s">
         <v>63</v>
@@ -17020,10 +16770,10 @@
         <v>0.5</v>
       </c>
       <c r="S2" s="59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T2" s="89" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U2" s="89">
         <v>0.5</v>
@@ -17086,10 +16836,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J3" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K3" s="54"/>
       <c r="L3" s="78">
@@ -17112,10 +16862,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="S3" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T3" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U3" s="90">
         <v>0.5</v>
@@ -17168,10 +16918,10 @@
         <v>1.27</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J4" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K4" s="54"/>
       <c r="L4" s="78">
@@ -17194,10 +16944,10 @@
         <v>2</v>
       </c>
       <c r="S4" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T4" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U4" s="90">
         <v>0.5</v>
@@ -17250,10 +17000,10 @@
         <v>1.27</v>
       </c>
       <c r="I5" s="84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J5" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K5" s="54"/>
       <c r="L5" s="78">
@@ -17276,10 +17026,10 @@
         <v>3.5</v>
       </c>
       <c r="S5" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T5" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U5" s="90">
         <v>0.5</v>
@@ -17332,7 +17082,7 @@
         <v>1.325</v>
       </c>
       <c r="I6" s="84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J6" s="81" t="s">
         <v>63</v>
@@ -17358,10 +17108,10 @@
         <v>4</v>
       </c>
       <c r="S6" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T6" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U6" s="90">
         <v>0.5</v>
@@ -17414,10 +17164,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="I7" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J7" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K7" s="54"/>
       <c r="L7" s="78">
@@ -17440,10 +17190,10 @@
         <v>5</v>
       </c>
       <c r="S7" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T7" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U7" s="90">
         <v>0.5</v>
@@ -17496,10 +17246,10 @@
         <v>1.23</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J8" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K8" s="54"/>
       <c r="L8" s="78">
@@ -17522,10 +17272,10 @@
         <v>5.9</v>
       </c>
       <c r="S8" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T8" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U8" s="90">
         <v>0.5</v>
@@ -17578,10 +17328,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="I9" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J9" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K9" s="54"/>
       <c r="L9" s="78">
@@ -17604,10 +17354,10 @@
         <v>10.9</v>
       </c>
       <c r="S9" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T9" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U9" s="90">
         <v>0.5</v>
@@ -17660,10 +17410,10 @@
         <v>1.23</v>
       </c>
       <c r="I10" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J10" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K10" s="54"/>
       <c r="L10" s="78">
@@ -17686,10 +17436,10 @@
         <v>14</v>
       </c>
       <c r="S10" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T10" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U10" s="90">
         <v>0.5</v>
@@ -17742,10 +17492,10 @@
         <v>1.23</v>
       </c>
       <c r="I11" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J11" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K11" s="54"/>
       <c r="L11" s="78">
@@ -17768,10 +17518,10 @@
         <v>16.5</v>
       </c>
       <c r="S11" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T11" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U11" s="90">
         <v>0.5</v>
@@ -17824,10 +17574,10 @@
         <v>1.23</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K12" s="54"/>
       <c r="L12" s="78">
@@ -17850,10 +17600,10 @@
         <v>19.8</v>
       </c>
       <c r="S12" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T12" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U12" s="90">
         <v>0.5</v>
@@ -17906,10 +17656,10 @@
         <v>3</v>
       </c>
       <c r="I13" s="84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J13" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K13" s="54"/>
       <c r="L13" s="78">
@@ -17932,10 +17682,10 @@
         <v>30</v>
       </c>
       <c r="S13" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T13" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U13" s="90">
         <v>0.5</v>
@@ -17988,10 +17738,10 @@
         <v>3</v>
       </c>
       <c r="I14" s="84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K14" s="54"/>
       <c r="L14" s="79">
@@ -18015,10 +17765,10 @@
         <v>42.8</v>
       </c>
       <c r="S14" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T14" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U14" s="90">
         <v>0.5</v>
@@ -18071,10 +17821,10 @@
         <v>1.07</v>
       </c>
       <c r="I15" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J15" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K15" s="54"/>
       <c r="P15" s="60">
@@ -18088,10 +17838,10 @@
         <v>47.5</v>
       </c>
       <c r="S15" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T15" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U15" s="90">
         <v>0.5</v>
@@ -18144,10 +17894,10 @@
         <v>1.07</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J16" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K16" s="54"/>
       <c r="P16" s="60">
@@ -18161,10 +17911,10 @@
         <v>55</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T16" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U16" s="90">
         <v>0.5</v>
@@ -18216,10 +17966,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="I17" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J17" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K17" s="54"/>
       <c r="P17" s="60">
@@ -18233,10 +17983,10 @@
         <v>61</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T17" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U17" s="90">
         <v>0.5</v>
@@ -18288,10 +18038,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="I18" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J18" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K18" s="54"/>
       <c r="P18" s="61">
@@ -18305,10 +18055,10 @@
         <v>80</v>
       </c>
       <c r="S18" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T18" s="90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U18" s="90">
         <v>0.5</v>
@@ -18360,10 +18110,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J19" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K19" s="54"/>
       <c r="P19" s="60"/>
@@ -18397,7 +18147,7 @@
         <v>1.0509999999999999</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J20" s="81" t="s">
         <v>63</v>
@@ -18434,10 +18184,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="I21" s="84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J21" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K21" s="54"/>
       <c r="P21" s="60"/>
@@ -18471,10 +18221,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="I22" s="84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J22" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K22" s="54"/>
       <c r="P22" s="60"/>
@@ -18508,7 +18258,7 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="I23" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J23" s="81" t="s">
         <v>63</v>
@@ -18545,7 +18295,7 @@
         <v>1.0509999999999999</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J24" s="81" t="s">
         <v>63</v>
@@ -18582,10 +18332,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I25" s="84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J25" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K25" s="54"/>
       <c r="P25" s="60"/>
@@ -18619,10 +18369,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I26" s="84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J26" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K26" s="54"/>
       <c r="P26" s="60"/>
@@ -18656,7 +18406,7 @@
         <v>1.524</v>
       </c>
       <c r="I27" s="84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J27" s="81" t="s">
         <v>63</v>
@@ -18693,10 +18443,10 @@
         <v>2</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J28" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K28" s="54"/>
       <c r="P28" s="60"/>
@@ -18731,7 +18481,7 @@
         <v>1.145</v>
       </c>
       <c r="I29" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J29" s="81" t="s">
         <v>63</v>
@@ -18769,10 +18519,10 @@
         <v>1.4</v>
       </c>
       <c r="I30" s="84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J30" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K30" s="54"/>
       <c r="P30" s="60"/>
@@ -18807,10 +18557,10 @@
         <v>1.4</v>
       </c>
       <c r="I31" s="84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J31" s="81" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K31" s="54"/>
       <c r="P31" s="60"/>
@@ -18845,7 +18595,7 @@
         <v>1.143</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J32" s="81" t="s">
         <v>63</v>
@@ -18883,7 +18633,7 @@
         <v>1.048</v>
       </c>
       <c r="I33" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J33" s="81" t="s">
         <v>63</v>
@@ -18921,7 +18671,7 @@
         <v>1.18</v>
       </c>
       <c r="I34" s="84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J34" s="81" t="s">
         <v>63</v>
@@ -19793,16 +19543,16 @@
   <sheetData>
     <row r="1" spans="2:33" s="167" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="171" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C1" s="170" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D1" s="170" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E1" s="172" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G1" s="171" t="s">
         <v>32</v>
@@ -19820,19 +19570,19 @@
         <v>69</v>
       </c>
       <c r="M1" s="172" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N1" s="172" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P1" s="171" t="s">
         <v>71</v>
       </c>
       <c r="Q1" s="170" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R1" s="170" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S1" s="170" t="s">
         <v>66</v>
@@ -19841,22 +19591,22 @@
         <v>67</v>
       </c>
       <c r="U1" s="170" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="V1" s="170" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W1" s="170" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="X1" s="170" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y1" s="170" t="s">
         <v>70</v>
       </c>
       <c r="Z1" s="170" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="170" t="s">
         <v>17</v>
@@ -19871,13 +19621,13 @@
         <v>76</v>
       </c>
       <c r="AE1" s="169" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF1" s="169" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AG1" s="168" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.3">
@@ -19900,7 +19650,7 @@
         <v>1.383</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J2" s="154" t="s">
         <v>63</v>
@@ -19924,10 +19674,10 @@
         <v>1.7</v>
       </c>
       <c r="S2" s="158" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T2" s="174" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U2" s="163">
         <v>0.5</v>
@@ -19989,10 +19739,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="155" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J3" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L3" s="156">
         <v>2</v>
@@ -20014,10 +19764,10 @@
         <v>2.5</v>
       </c>
       <c r="S3" s="158" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T3" s="174" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="U3" s="157">
         <v>0.5</v>
@@ -20065,10 +19815,10 @@
         <v>1.27</v>
       </c>
       <c r="I4" s="155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J4" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L4" s="156">
         <v>3</v>
@@ -20090,10 +19840,10 @@
         <v>4</v>
       </c>
       <c r="S4" s="158" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T4" s="174" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U4" s="157">
         <v>0.5</v>
@@ -20141,10 +19891,10 @@
         <v>1.27</v>
       </c>
       <c r="I5" s="155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J5" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L5" s="156">
         <v>4</v>
@@ -20166,10 +19916,10 @@
         <v>5.5</v>
       </c>
       <c r="S5" s="158" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T5" s="174" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U5" s="157">
         <v>0.5</v>
@@ -20217,7 +19967,7 @@
         <v>1.325</v>
       </c>
       <c r="I6" s="155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J6" s="154" t="s">
         <v>63</v>
@@ -20242,10 +19992,10 @@
         <v>9</v>
       </c>
       <c r="S6" s="158" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T6" s="174" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="U6" s="157">
         <v>0.5</v>
@@ -20293,10 +20043,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="I7" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J7" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L7" s="156">
         <v>6</v>
@@ -20318,10 +20068,10 @@
         <v>14</v>
       </c>
       <c r="S7" s="158" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T7" s="174" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U7" s="157">
         <v>0.5</v>
@@ -20369,10 +20119,10 @@
         <v>1.23</v>
       </c>
       <c r="I8" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J8" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L8" s="156">
         <v>7</v>
@@ -20394,10 +20144,10 @@
         <v>25</v>
       </c>
       <c r="S8" s="158" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T8" s="174" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="U8" s="157">
         <v>0.5</v>
@@ -20445,10 +20195,10 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="I9" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J9" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L9" s="156">
         <v>8</v>
@@ -20470,10 +20220,10 @@
         <v>40.299999999999997</v>
       </c>
       <c r="S9" s="158" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T9" s="174" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="U9" s="157">
         <v>0.5</v>
@@ -20522,10 +20272,10 @@
         <v>1.23</v>
       </c>
       <c r="I10" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J10" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L10" s="156">
         <v>9</v>
@@ -20547,10 +20297,10 @@
         <v>43.8</v>
       </c>
       <c r="S10" s="158" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T10" s="174" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U10" s="157">
         <v>0.5</v>
@@ -20599,10 +20349,10 @@
         <v>1.23</v>
       </c>
       <c r="I11" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J11" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L11" s="156">
         <v>10</v>
@@ -20624,10 +20374,10 @@
         <v>95</v>
       </c>
       <c r="S11" s="158" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="T11" s="174" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="U11" s="157">
         <v>0.5</v>
@@ -20678,10 +20428,10 @@
         <v>1.23</v>
       </c>
       <c r="I12" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J12" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L12" s="156">
         <v>11</v>
@@ -20704,10 +20454,10 @@
         <v>3</v>
       </c>
       <c r="I13" s="155" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J13" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L13" s="156">
         <v>12</v>
@@ -20730,10 +20480,10 @@
         <v>3</v>
       </c>
       <c r="I14" s="155" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J14" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L14" s="161">
         <v>13</v>
@@ -20756,10 +20506,10 @@
         <v>1.07</v>
       </c>
       <c r="I15" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J15" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P15" s="3"/>
       <c r="AE15" s="5"/>
@@ -20772,10 +20522,10 @@
         <v>1.07</v>
       </c>
       <c r="I16" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J16" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P16" s="3"/>
       <c r="AE16" s="5"/>
@@ -20788,10 +20538,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="I17" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J17" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P17" s="3"/>
       <c r="AE17" s="5"/>
@@ -20804,10 +20554,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="I18" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J18" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P18" s="3"/>
       <c r="AE18" s="5"/>
@@ -20820,10 +20570,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="155" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J19" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P19" s="3"/>
       <c r="AE19" s="5"/>
@@ -20836,7 +20586,7 @@
         <v>1.0509999999999999</v>
       </c>
       <c r="I20" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J20" s="154" t="s">
         <v>63</v>
@@ -20852,10 +20602,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="I21" s="155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J21" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P21" s="3"/>
       <c r="AE21" s="5"/>
@@ -20868,10 +20618,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="I22" s="155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J22" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P22" s="3"/>
       <c r="AE22" s="5"/>
@@ -20884,7 +20634,7 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="I23" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J23" s="154" t="s">
         <v>63</v>
@@ -20900,7 +20650,7 @@
         <v>1.0509999999999999</v>
       </c>
       <c r="I24" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J24" s="154" t="s">
         <v>63</v>
@@ -20916,10 +20666,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I25" s="155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J25" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P25" s="3"/>
       <c r="AE25" s="5"/>
@@ -20932,10 +20682,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I26" s="155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J26" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P26" s="3"/>
       <c r="AE26" s="5"/>
@@ -20948,7 +20698,7 @@
         <v>1.524</v>
       </c>
       <c r="I27" s="155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J27" s="154" t="s">
         <v>63</v>
@@ -20964,10 +20714,10 @@
         <v>2</v>
       </c>
       <c r="I28" s="155" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J28" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P28" s="3"/>
       <c r="AE28" s="5"/>
@@ -20981,7 +20731,7 @@
         <v>1.145</v>
       </c>
       <c r="I29" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J29" s="154" t="s">
         <v>63</v>
@@ -20998,10 +20748,10 @@
         <v>1.4</v>
       </c>
       <c r="I30" s="155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J30" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P30" s="3"/>
       <c r="AE30" s="5"/>
@@ -21018,10 +20768,10 @@
         <v>1.4</v>
       </c>
       <c r="I31" s="155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J31" s="154" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P31" s="3"/>
       <c r="AE31" s="5"/>
@@ -21038,7 +20788,7 @@
         <v>1.143</v>
       </c>
       <c r="I32" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J32" s="154" t="s">
         <v>63</v>
@@ -21058,7 +20808,7 @@
         <v>1.048</v>
       </c>
       <c r="I33" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J33" s="154" t="s">
         <v>63</v>
@@ -21078,7 +20828,7 @@
         <v>1.18</v>
       </c>
       <c r="I34" s="155" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J34" s="154" t="s">
         <v>63</v>
@@ -21267,7 +21017,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="153" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J61" s="5"/>
     </row>
@@ -21279,38 +21029,38 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="153" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J63" s="5"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="153" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="153" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="153" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="153" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="153" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="153" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -21368,13 +21118,13 @@
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="116" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C2" s="116" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D2" s="116" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -21382,18 +21132,18 @@
         <v>41</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D3" s="114" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="114" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C4" s="114" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D4" s="114" t="s">
         <v>86</v>
@@ -21404,27 +21154,27 @@
         <v>68</v>
       </c>
       <c r="C5" s="114" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D5" s="114" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="114" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C6" s="114" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D6" s="114"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="114" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C7" s="114" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D7" s="114"/>
     </row>

--- a/Input/PDAcalc.xlsx
+++ b/Input/PDAcalc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9955DFB-4568-4B6F-BC46-2792224CC617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FF813-EE2B-48DA-B467-6FA5F0820671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="652" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATIONS" sheetId="66" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="APPENDIX" sheetId="51" r:id="rId6"/>
     <sheet name="LOCATION_NAME(Template)" sheetId="260" r:id="rId7"/>
     <sheet name="EW2_OSS_30_J" sheetId="268" r:id="rId8"/>
-    <sheet name="Hidden_settings" sheetId="264" state="hidden" r:id="rId9"/>
+    <sheet name="Hidden_settings" sheetId="264" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -770,7 +770,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="304">
   <si>
     <t>Setting</t>
   </si>
@@ -1628,15 +1628,69 @@
   </si>
   <si>
     <t>Hybrid option 1</t>
+  </si>
+  <si>
+    <t>Symbol_types</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>dash dot</t>
+  </si>
+  <si>
+    <t>Entrapped water</t>
+  </si>
+  <si>
+    <t>IHC S-1200</t>
+  </si>
+  <si>
+    <t>IHC S-2000</t>
+  </si>
+  <si>
+    <t>IHC S-4000</t>
+  </si>
+  <si>
+    <t>IHC S-3000 interpolated</t>
+  </si>
+  <si>
+    <t>Time series</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>Displacement</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>preparer</t>
+  </si>
+  <si>
+    <t>FKMV</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>prelim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-  </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2374,7 +2428,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2664,7 +2718,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2698,7 +2751,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2746,6 +2798,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3466,27 +3519,27 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" style="54" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="15.88671875" style="54" customWidth="1"/>
-    <col min="23" max="23" width="12.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="15.85546875" style="54" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.85546875" customWidth="1"/>
     <col min="29" max="29" width="23" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="116" t="s">
         <v>150</v>
       </c>
@@ -3576,7 +3629,7 @@
       <c r="AO1" s="54"/>
       <c r="AP1" s="54"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="110">
         <v>1</v>
       </c>
@@ -3685,7 +3738,7 @@
       <c r="AO2" s="54"/>
       <c r="AP2" s="54"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="125"/>
       <c r="C3" s="129"/>
@@ -3725,7 +3778,7 @@
       <c r="AO3" s="54"/>
       <c r="AP3" s="54"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" s="125"/>
       <c r="C4" s="129"/>
@@ -3765,7 +3818,7 @@
       <c r="AO4" s="54"/>
       <c r="AP4" s="54"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="125"/>
       <c r="C5" s="129"/>
@@ -3805,7 +3858,7 @@
       <c r="AO5" s="54"/>
       <c r="AP5" s="54"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="125"/>
       <c r="C6" s="129"/>
@@ -3845,7 +3898,7 @@
       <c r="AO6" s="54"/>
       <c r="AP6" s="54"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="125"/>
       <c r="C7" s="129"/>
@@ -3885,7 +3938,7 @@
       <c r="AO7" s="54"/>
       <c r="AP7" s="54"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="125"/>
       <c r="C8" s="129"/>
@@ -3925,7 +3978,7 @@
       <c r="AO8" s="54"/>
       <c r="AP8" s="54"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="125"/>
       <c r="C9" s="129"/>
@@ -3965,7 +4018,7 @@
       <c r="AO9" s="54"/>
       <c r="AP9" s="54"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="125"/>
       <c r="C10" s="129"/>
@@ -4005,7 +4058,7 @@
       <c r="AO10" s="54"/>
       <c r="AP10" s="54"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="125"/>
       <c r="C11" s="129"/>
@@ -4045,7 +4098,7 @@
       <c r="AO11" s="54"/>
       <c r="AP11" s="54"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="125"/>
       <c r="C12" s="129"/>
@@ -4083,7 +4136,7 @@
       <c r="AO12" s="54"/>
       <c r="AP12" s="54"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="125"/>
       <c r="C13" s="129"/>
@@ -4121,7 +4174,7 @@
       <c r="AO13" s="54"/>
       <c r="AP13" s="54"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="125"/>
       <c r="C14" s="129"/>
@@ -4159,7 +4212,7 @@
       <c r="AO14" s="54"/>
       <c r="AP14" s="54"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="125"/>
       <c r="C15" s="129"/>
@@ -4197,7 +4250,7 @@
       <c r="AO15" s="54"/>
       <c r="AP15" s="54"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="125"/>
       <c r="C16" s="129"/>
@@ -4235,7 +4288,7 @@
       <c r="AO16" s="54"/>
       <c r="AP16" s="54"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="125"/>
       <c r="C17" s="129"/>
@@ -4273,7 +4326,7 @@
       <c r="AO17" s="54"/>
       <c r="AP17" s="54"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="125"/>
       <c r="C18" s="129"/>
@@ -4311,7 +4364,7 @@
       <c r="AO18" s="54"/>
       <c r="AP18" s="54"/>
     </row>
-    <row r="19" spans="1:42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="125"/>
       <c r="C19" s="129"/>
@@ -4349,7 +4402,7 @@
       <c r="AO19" s="54"/>
       <c r="AP19" s="54"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="125"/>
       <c r="C20" s="129"/>
@@ -4387,7 +4440,7 @@
       <c r="AO20" s="54"/>
       <c r="AP20" s="54"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="125"/>
       <c r="C21" s="129"/>
@@ -4425,7 +4478,7 @@
       <c r="AO21" s="54"/>
       <c r="AP21" s="54"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="125"/>
       <c r="C22" s="129"/>
@@ -4463,7 +4516,7 @@
       <c r="AO22" s="54"/>
       <c r="AP22" s="54"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="125"/>
       <c r="C23" s="129"/>
@@ -4501,7 +4554,7 @@
       <c r="AO23" s="54"/>
       <c r="AP23" s="54"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="125"/>
       <c r="C24" s="129"/>
@@ -4539,7 +4592,7 @@
       <c r="AO24" s="54"/>
       <c r="AP24" s="54"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="125"/>
       <c r="C25" s="129"/>
@@ -4577,7 +4630,7 @@
       <c r="AO25" s="54"/>
       <c r="AP25" s="54"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="125"/>
       <c r="C26" s="129"/>
@@ -4615,7 +4668,7 @@
       <c r="AO26" s="54"/>
       <c r="AP26" s="54"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="125"/>
       <c r="C27" s="129"/>
@@ -4653,7 +4706,7 @@
       <c r="AO27" s="54"/>
       <c r="AP27" s="54"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="125"/>
       <c r="C28" s="129"/>
@@ -4691,7 +4744,7 @@
       <c r="AO28" s="54"/>
       <c r="AP28" s="54"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="125"/>
       <c r="C29" s="129"/>
@@ -4721,7 +4774,7 @@
       <c r="AE29" s="37"/>
       <c r="AJ29" s="39"/>
     </row>
-    <row r="30" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="35"/>
       <c r="B30" s="125"/>
       <c r="C30" s="129"/>
@@ -4751,7 +4804,7 @@
       <c r="AE30" s="42"/>
       <c r="AJ30" s="39"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="125"/>
       <c r="C31" s="129"/>
@@ -4778,7 +4831,7 @@
       <c r="X31" s="72"/>
       <c r="AJ31" s="39"/>
     </row>
-    <row r="32" spans="1:42" ht="12.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="125"/>
       <c r="C32" s="129"/>
@@ -4805,7 +4858,7 @@
       <c r="X32" s="72"/>
       <c r="AJ32" s="39"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="125"/>
       <c r="C33" s="129"/>
@@ -4832,7 +4885,7 @@
       <c r="X33" s="72"/>
       <c r="AJ33" s="39"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="125"/>
       <c r="C34" s="129"/>
@@ -4859,7 +4912,7 @@
       <c r="X34" s="72"/>
       <c r="AJ34" s="39"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="125"/>
       <c r="C35" s="129"/>
@@ -4886,7 +4939,7 @@
       <c r="X35" s="72"/>
       <c r="AJ35" s="39"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
       <c r="B36" s="125"/>
       <c r="C36" s="129"/>
@@ -4913,7 +4966,7 @@
       <c r="X36" s="72"/>
       <c r="AJ36" s="39"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="125"/>
       <c r="C37" s="129"/>
@@ -4940,7 +4993,7 @@
       <c r="X37" s="72"/>
       <c r="AJ37" s="39"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
       <c r="B38" s="125"/>
       <c r="C38" s="129"/>
@@ -4967,7 +5020,7 @@
       <c r="X38" s="72"/>
       <c r="AJ38" s="39"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="125"/>
       <c r="C39" s="129"/>
@@ -4994,7 +5047,7 @@
       <c r="X39" s="72"/>
       <c r="AJ39" s="39"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="125"/>
       <c r="C40" s="129"/>
@@ -5020,7 +5073,7 @@
       <c r="W40" s="130"/>
       <c r="X40" s="72"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="125"/>
       <c r="C41" s="129"/>
@@ -5046,7 +5099,7 @@
       <c r="W41" s="130"/>
       <c r="X41" s="72"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="125"/>
       <c r="C42" s="129"/>
@@ -5072,7 +5125,7 @@
       <c r="W42" s="130"/>
       <c r="X42" s="72"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="125"/>
       <c r="C43" s="129"/>
@@ -5098,7 +5151,7 @@
       <c r="W43" s="130"/>
       <c r="X43" s="72"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="125"/>
       <c r="C44" s="129"/>
@@ -5124,7 +5177,7 @@
       <c r="W44" s="130"/>
       <c r="X44" s="72"/>
     </row>
-    <row r="45" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="125"/>
       <c r="C45" s="129"/>
@@ -5150,7 +5203,7 @@
       <c r="W45" s="130"/>
       <c r="X45" s="72"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
       <c r="B46" s="125"/>
       <c r="C46" s="129"/>
@@ -5176,7 +5229,7 @@
       <c r="W46" s="130"/>
       <c r="X46" s="72"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
       <c r="B47" s="125"/>
       <c r="C47" s="129"/>
@@ -5202,7 +5255,7 @@
       <c r="W47" s="130"/>
       <c r="X47" s="72"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
       <c r="B48" s="125"/>
       <c r="C48" s="129"/>
@@ -5228,7 +5281,7 @@
       <c r="W48" s="130"/>
       <c r="X48" s="72"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="125"/>
       <c r="C49" s="129"/>
@@ -5254,7 +5307,7 @@
       <c r="W49" s="130"/>
       <c r="X49" s="72"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
       <c r="B50" s="125"/>
       <c r="C50" s="131"/>
@@ -5282,7 +5335,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
       <c r="B51" s="125"/>
       <c r="C51" s="131"/>
@@ -5308,7 +5361,7 @@
       <c r="W51" s="35"/>
       <c r="X51" s="72"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
       <c r="B52" s="125"/>
       <c r="C52" s="131"/>
@@ -5334,7 +5387,7 @@
       <c r="W52" s="35"/>
       <c r="X52" s="72"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="125"/>
       <c r="C53" s="131"/>
@@ -5360,7 +5413,7 @@
       <c r="W53" s="35"/>
       <c r="X53" s="72"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="125"/>
       <c r="C54" s="131"/>
@@ -5386,7 +5439,7 @@
       <c r="W54" s="35"/>
       <c r="X54" s="72"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="125"/>
       <c r="C55" s="131"/>
@@ -5412,7 +5465,7 @@
       <c r="W55" s="35"/>
       <c r="X55" s="72"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
       <c r="B56" s="125"/>
       <c r="C56" s="131"/>
@@ -5438,7 +5491,7 @@
       <c r="W56" s="35"/>
       <c r="X56" s="72"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="125"/>
       <c r="C57" s="131"/>
@@ -5464,7 +5517,7 @@
       <c r="W57" s="35"/>
       <c r="X57" s="72"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="125"/>
       <c r="C58" s="131"/>
@@ -5492,7 +5545,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
       <c r="B59" s="125"/>
       <c r="C59" s="131"/>
@@ -5518,7 +5571,7 @@
       <c r="W59" s="35"/>
       <c r="X59" s="72"/>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="125"/>
       <c r="C60" s="132"/>
@@ -5544,7 +5597,7 @@
       <c r="W60" s="128"/>
       <c r="X60" s="72"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
       <c r="B61" s="125"/>
       <c r="C61" s="131"/>
@@ -5570,7 +5623,7 @@
       <c r="W61" s="35"/>
       <c r="X61" s="72"/>
     </row>
-    <row r="62" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="125"/>
       <c r="C62" s="131"/>
@@ -5596,7 +5649,7 @@
       <c r="W62" s="35"/>
       <c r="X62" s="72"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="125"/>
       <c r="C63" s="131"/>
@@ -5622,7 +5675,7 @@
       <c r="W63" s="35"/>
       <c r="X63" s="72"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="125"/>
       <c r="C64" s="131"/>
@@ -5648,7 +5701,7 @@
       <c r="W64" s="35"/>
       <c r="X64" s="72"/>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
       <c r="B65" s="125"/>
       <c r="C65" s="129"/>
@@ -5674,7 +5727,7 @@
       <c r="W65" s="130"/>
       <c r="X65" s="72"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
       <c r="B66" s="125"/>
       <c r="C66" s="129"/>
@@ -5700,7 +5753,7 @@
       <c r="W66" s="130"/>
       <c r="X66" s="72"/>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="125"/>
       <c r="C67" s="131"/>
@@ -5726,7 +5779,7 @@
       <c r="W67" s="35"/>
       <c r="X67" s="72"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="125"/>
       <c r="C68" s="131"/>
@@ -5752,7 +5805,7 @@
       <c r="W68" s="35"/>
       <c r="X68" s="72"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="125"/>
       <c r="C69" s="131"/>
@@ -5778,7 +5831,7 @@
       <c r="W69" s="35"/>
       <c r="X69" s="72"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
       <c r="B70" s="125"/>
       <c r="C70" s="129"/>
@@ -5804,7 +5857,7 @@
       <c r="W70" s="130"/>
       <c r="X70" s="72"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="125"/>
       <c r="C71" s="129"/>
@@ -5830,7 +5883,7 @@
       <c r="W71" s="130"/>
       <c r="X71" s="72"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
       <c r="B72" s="125"/>
       <c r="C72" s="129"/>
@@ -5856,7 +5909,7 @@
       <c r="W72" s="130"/>
       <c r="X72" s="72"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
       <c r="B73" s="125"/>
       <c r="C73" s="131"/>
@@ -5882,7 +5935,7 @@
       <c r="W73" s="35"/>
       <c r="X73" s="72"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
       <c r="B74" s="125"/>
       <c r="C74" s="131"/>
@@ -5910,7 +5963,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="125"/>
       <c r="C75" s="131"/>
@@ -5936,7 +5989,7 @@
       <c r="W75" s="35"/>
       <c r="X75" s="72"/>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="35"/>
       <c r="B76" s="125"/>
       <c r="C76" s="131"/>
@@ -5962,7 +6015,7 @@
       <c r="W76" s="35"/>
       <c r="X76" s="72"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
       <c r="B77" s="125"/>
       <c r="C77" s="131"/>
@@ -5988,7 +6041,7 @@
       <c r="W77" s="35"/>
       <c r="X77" s="72"/>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
       <c r="B78" s="125"/>
       <c r="C78" s="131"/>
@@ -6014,7 +6067,7 @@
       <c r="W78" s="35"/>
       <c r="X78" s="72"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
       <c r="B79" s="125"/>
       <c r="C79" s="131"/>
@@ -6040,7 +6093,7 @@
       <c r="W79" s="35"/>
       <c r="X79" s="72"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
       <c r="B80" s="125"/>
       <c r="C80" s="131"/>
@@ -6066,7 +6119,7 @@
       <c r="W80" s="35"/>
       <c r="X80" s="72"/>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
       <c r="B81" s="125"/>
       <c r="C81" s="131"/>
@@ -6092,7 +6145,7 @@
       <c r="W81" s="35"/>
       <c r="X81" s="72"/>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="125"/>
       <c r="C82" s="129"/>
@@ -6118,7 +6171,7 @@
       <c r="W82" s="130"/>
       <c r="X82" s="72"/>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
       <c r="B83" s="125"/>
       <c r="C83" s="129"/>
@@ -6144,7 +6197,7 @@
       <c r="W83" s="130"/>
       <c r="X83" s="72"/>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
       <c r="B84" s="125"/>
       <c r="C84" s="129"/>
@@ -6170,7 +6223,7 @@
       <c r="W84" s="130"/>
       <c r="X84" s="72"/>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="B85" s="125"/>
       <c r="C85" s="129"/>
@@ -6196,7 +6249,7 @@
       <c r="W85" s="130"/>
       <c r="X85" s="72"/>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
       <c r="B86" s="125"/>
       <c r="C86" s="129"/>
@@ -6222,7 +6275,7 @@
       <c r="W86" s="130"/>
       <c r="X86" s="72"/>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
       <c r="B87" s="125"/>
       <c r="C87" s="129"/>
@@ -6248,7 +6301,7 @@
       <c r="W87" s="130"/>
       <c r="X87" s="72"/>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
       <c r="B88" s="125"/>
       <c r="C88" s="129"/>
@@ -6274,7 +6327,7 @@
       <c r="W88" s="130"/>
       <c r="X88" s="72"/>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
       <c r="B89" s="125"/>
       <c r="C89" s="131"/>
@@ -6300,7 +6353,7 @@
       <c r="W89" s="35"/>
       <c r="X89" s="72"/>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
       <c r="B90" s="125"/>
       <c r="C90" s="131"/>
@@ -6326,7 +6379,7 @@
       <c r="W90" s="35"/>
       <c r="X90" s="72"/>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="125"/>
       <c r="C91" s="132"/>
@@ -6352,7 +6405,7 @@
       <c r="W91" s="128"/>
       <c r="X91" s="72"/>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="125"/>
       <c r="C92" s="131"/>
@@ -6378,7 +6431,7 @@
       <c r="W92" s="35"/>
       <c r="X92" s="72"/>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
       <c r="B93" s="125"/>
       <c r="C93" s="131"/>
@@ -6404,7 +6457,7 @@
       <c r="W93" s="35"/>
       <c r="X93" s="72"/>
     </row>
-    <row r="94" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="35"/>
       <c r="B94" s="125"/>
       <c r="C94" s="131"/>
@@ -6434,7 +6487,7 @@
       <c r="AE94" s="42"/>
       <c r="AJ94" s="39"/>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
       <c r="B95" s="125"/>
       <c r="C95" s="131"/>
@@ -6461,7 +6514,7 @@
       <c r="X95" s="72"/>
       <c r="AJ95" s="39"/>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" s="35"/>
       <c r="B96" s="125"/>
       <c r="C96" s="129"/>
@@ -6488,7 +6541,7 @@
       <c r="X96" s="72"/>
       <c r="AJ96" s="39"/>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="35"/>
       <c r="B97" s="125"/>
       <c r="C97" s="129"/>
@@ -6515,7 +6568,7 @@
       <c r="X97" s="72"/>
       <c r="AJ97" s="39"/>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
       <c r="B98" s="125"/>
       <c r="C98" s="129"/>
@@ -6542,7 +6595,7 @@
       <c r="X98" s="72"/>
       <c r="AJ98" s="39"/>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="35"/>
       <c r="B99" s="125"/>
       <c r="C99" s="129"/>
@@ -6569,7 +6622,7 @@
       <c r="X99" s="72"/>
       <c r="AJ99" s="39"/>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" s="35"/>
       <c r="B100" s="125"/>
       <c r="C100" s="129"/>
@@ -6596,7 +6649,7 @@
       <c r="X100" s="72"/>
       <c r="AJ100" s="39"/>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" s="35"/>
       <c r="B101" s="125"/>
       <c r="C101" s="129"/>
@@ -6622,7 +6675,7 @@
       <c r="W101" s="130"/>
       <c r="X101" s="72"/>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="35"/>
       <c r="B102" s="125"/>
       <c r="C102" s="131"/>
@@ -6648,7 +6701,7 @@
       <c r="W102" s="35"/>
       <c r="X102" s="72"/>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" s="35"/>
       <c r="B103" s="125"/>
       <c r="C103" s="131"/>
@@ -6674,7 +6727,7 @@
       <c r="W103" s="35"/>
       <c r="X103" s="72"/>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
       <c r="B104" s="125"/>
       <c r="C104" s="132"/>
@@ -6700,7 +6753,7 @@
       <c r="W104" s="128"/>
       <c r="X104" s="72"/>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="35"/>
       <c r="B105" s="125"/>
       <c r="C105" s="131"/>
@@ -6726,7 +6779,7 @@
       <c r="W105" s="35"/>
       <c r="X105" s="72"/>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" s="35"/>
       <c r="B106" s="125"/>
       <c r="C106" s="131"/>
@@ -6752,7 +6805,7 @@
       <c r="W106" s="35"/>
       <c r="X106" s="72"/>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="35"/>
       <c r="B107" s="125"/>
       <c r="C107" s="131"/>
@@ -6778,7 +6831,7 @@
       <c r="W107" s="35"/>
       <c r="X107" s="72"/>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" s="35"/>
       <c r="B108" s="125"/>
       <c r="C108" s="131"/>
@@ -6804,7 +6857,7 @@
       <c r="W108" s="35"/>
       <c r="X108" s="72"/>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="35"/>
       <c r="B109" s="125"/>
       <c r="C109" s="129"/>
@@ -6830,7 +6883,7 @@
       <c r="W109" s="130"/>
       <c r="X109" s="72"/>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="35"/>
       <c r="B110" s="125"/>
       <c r="C110" s="129"/>
@@ -6858,7 +6911,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" s="35"/>
       <c r="B111" s="125"/>
       <c r="C111" s="129"/>
@@ -6884,7 +6937,7 @@
       <c r="W111" s="130"/>
       <c r="X111" s="127"/>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" s="35"/>
       <c r="B112" s="125"/>
       <c r="C112" s="129"/>
@@ -6910,7 +6963,7 @@
       <c r="W112" s="130"/>
       <c r="X112" s="127"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="35"/>
       <c r="B113" s="125"/>
       <c r="C113" s="129"/>
@@ -6936,7 +6989,7 @@
       <c r="W113" s="130"/>
       <c r="X113" s="127"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="35"/>
       <c r="B114" s="125"/>
       <c r="C114" s="129"/>
@@ -6962,7 +7015,7 @@
       <c r="W114" s="130"/>
       <c r="X114" s="127"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="35"/>
       <c r="B115" s="125"/>
       <c r="C115" s="129"/>
@@ -6988,7 +7041,7 @@
       <c r="W115" s="130"/>
       <c r="X115" s="127"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="35"/>
       <c r="B116" s="125"/>
       <c r="C116" s="129"/>
@@ -7014,7 +7067,7 @@
       <c r="W116" s="130"/>
       <c r="X116" s="127"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="35"/>
       <c r="B117" s="125"/>
       <c r="C117" s="129"/>
@@ -7040,7 +7093,7 @@
       <c r="W117" s="130"/>
       <c r="X117" s="127"/>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="35"/>
       <c r="B118" s="125"/>
       <c r="C118" s="129"/>
@@ -7066,7 +7119,7 @@
       <c r="W118" s="130"/>
       <c r="X118" s="127"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="35"/>
       <c r="B119" s="125"/>
       <c r="C119" s="129"/>
@@ -7092,7 +7145,7 @@
       <c r="W119" s="130"/>
       <c r="X119" s="127"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="35"/>
       <c r="B120" s="125"/>
       <c r="C120" s="129"/>
@@ -7118,7 +7171,7 @@
       <c r="W120" s="130"/>
       <c r="X120" s="127"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
       <c r="B121" s="125"/>
       <c r="C121" s="129"/>
@@ -7144,7 +7197,7 @@
       <c r="W121" s="130"/>
       <c r="X121" s="127"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
       <c r="B122" s="125"/>
       <c r="C122" s="129"/>
@@ -7170,7 +7223,7 @@
       <c r="W122" s="130"/>
       <c r="X122" s="127"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="130"/>
       <c r="B123" s="125"/>
       <c r="C123" s="129"/>
@@ -7196,7 +7249,7 @@
       <c r="W123" s="130"/>
       <c r="X123" s="127"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
       <c r="B124" s="125"/>
       <c r="C124" s="129"/>
@@ -7222,7 +7275,7 @@
       <c r="W124" s="130"/>
       <c r="X124" s="127"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
       <c r="B125" s="125"/>
       <c r="C125" s="129"/>
@@ -7248,7 +7301,7 @@
       <c r="W125" s="130"/>
       <c r="X125" s="127"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
       <c r="B126" s="125"/>
       <c r="C126" s="129"/>
@@ -7274,7 +7327,7 @@
       <c r="W126" s="130"/>
       <c r="X126" s="127"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
       <c r="B127" s="125"/>
       <c r="C127" s="129"/>
@@ -7300,7 +7353,7 @@
       <c r="W127" s="130"/>
       <c r="X127" s="127"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="35"/>
       <c r="B128" s="125"/>
       <c r="C128" s="129"/>
@@ -7326,7 +7379,7 @@
       <c r="W128" s="130"/>
       <c r="X128" s="127"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="35"/>
       <c r="B129" s="125"/>
       <c r="C129" s="129"/>
@@ -7352,7 +7405,7 @@
       <c r="W129" s="130"/>
       <c r="X129" s="127"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
       <c r="B130" s="125"/>
       <c r="C130" s="129"/>
@@ -7378,7 +7431,7 @@
       <c r="W130" s="130"/>
       <c r="X130" s="127"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
       <c r="B131" s="125"/>
       <c r="C131" s="129"/>
@@ -7404,7 +7457,7 @@
       <c r="W131" s="130"/>
       <c r="X131" s="127"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
       <c r="B132" s="125"/>
       <c r="C132" s="129"/>
@@ -7430,7 +7483,7 @@
       <c r="W132" s="130"/>
       <c r="X132" s="127"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
       <c r="B133" s="125"/>
       <c r="C133" s="129"/>
@@ -7456,7 +7509,7 @@
       <c r="W133" s="130"/>
       <c r="X133" s="127"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
       <c r="B134" s="125"/>
       <c r="C134" s="129"/>
@@ -7482,7 +7535,7 @@
       <c r="W134" s="130"/>
       <c r="X134" s="127"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
       <c r="B135" s="125"/>
       <c r="C135" s="129"/>
@@ -7508,7 +7561,7 @@
       <c r="W135" s="130"/>
       <c r="X135" s="127"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
       <c r="B136" s="125"/>
       <c r="C136" s="129"/>
@@ -7534,7 +7587,7 @@
       <c r="W136" s="130"/>
       <c r="X136" s="127"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
       <c r="B137" s="125"/>
       <c r="C137" s="129"/>
@@ -7560,7 +7613,7 @@
       <c r="W137" s="130"/>
       <c r="X137" s="72"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
       <c r="B138" s="125"/>
       <c r="C138" s="129"/>
@@ -7586,7 +7639,7 @@
       <c r="W138" s="130"/>
       <c r="X138" s="72"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
       <c r="B139" s="125"/>
       <c r="C139" s="129"/>
@@ -7612,7 +7665,7 @@
       <c r="W139" s="130"/>
       <c r="X139" s="72"/>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
       <c r="B140" s="125"/>
       <c r="C140" s="129"/>
@@ -7638,7 +7691,7 @@
       <c r="W140" s="130"/>
       <c r="X140" s="127"/>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
       <c r="B141" s="125"/>
       <c r="C141" s="129"/>
@@ -7664,7 +7717,7 @@
       <c r="W141" s="130"/>
       <c r="X141" s="127"/>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
       <c r="B142" s="125"/>
       <c r="C142" s="129"/>
@@ -7690,7 +7743,7 @@
       <c r="W142" s="130"/>
       <c r="X142" s="127"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="35"/>
       <c r="B143" s="125"/>
       <c r="C143" s="129"/>
@@ -7716,7 +7769,7 @@
       <c r="W143" s="130"/>
       <c r="X143" s="127"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
       <c r="B144" s="125"/>
       <c r="C144" s="129"/>
@@ -7742,7 +7795,7 @@
       <c r="W144" s="130"/>
       <c r="X144" s="72"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
       <c r="B145" s="125"/>
       <c r="C145" s="129"/>
@@ -7768,7 +7821,7 @@
       <c r="W145" s="130"/>
       <c r="X145" s="72"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
       <c r="B146" s="125"/>
       <c r="C146" s="129"/>
@@ -7794,7 +7847,7 @@
       <c r="W146" s="130"/>
       <c r="X146" s="127"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
       <c r="B147" s="125"/>
       <c r="C147" s="129"/>
@@ -7820,7 +7873,7 @@
       <c r="W147" s="130"/>
       <c r="X147" s="127"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
       <c r="B148" s="125"/>
       <c r="C148" s="129"/>
@@ -7846,7 +7899,7 @@
       <c r="W148" s="130"/>
       <c r="X148" s="127"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
       <c r="B149" s="125"/>
       <c r="C149" s="129"/>
@@ -7872,7 +7925,7 @@
       <c r="W149" s="130"/>
       <c r="X149" s="127"/>
     </row>
-    <row r="150" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="35"/>
       <c r="B150" s="125"/>
       <c r="C150" s="129"/>
@@ -7898,7 +7951,7 @@
       <c r="W150" s="130"/>
       <c r="X150" s="127"/>
     </row>
-    <row r="151" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="35"/>
       <c r="B151" s="125"/>
       <c r="C151" s="129"/>
@@ -7924,7 +7977,7 @@
       <c r="W151" s="130"/>
       <c r="X151" s="127"/>
     </row>
-    <row r="152" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:24" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
       <c r="B152" s="125"/>
       <c r="C152" s="129"/>
@@ -7950,7 +8003,7 @@
       <c r="W152" s="130"/>
       <c r="X152" s="127"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
       <c r="B153" s="125"/>
       <c r="C153" s="129"/>
@@ -7976,7 +8029,7 @@
       <c r="W153" s="130"/>
       <c r="X153" s="72"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
       <c r="B154" s="125"/>
       <c r="C154" s="129"/>
@@ -8002,7 +8055,7 @@
       <c r="W154" s="130"/>
       <c r="X154" s="72"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
       <c r="B155" s="125"/>
       <c r="C155" s="129"/>
@@ -8028,7 +8081,7 @@
       <c r="W155" s="130"/>
       <c r="X155" s="72"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
       <c r="B156" s="125"/>
       <c r="C156" s="129"/>
@@ -8054,7 +8107,7 @@
       <c r="W156" s="130"/>
       <c r="X156" s="72"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
       <c r="B157" s="125"/>
       <c r="C157" s="129"/>
@@ -8080,7 +8133,7 @@
       <c r="W157" s="130"/>
       <c r="X157" s="72"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
       <c r="B158" s="125"/>
       <c r="C158" s="129"/>
@@ -8106,7 +8159,7 @@
       <c r="W158" s="130"/>
       <c r="X158" s="72"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="35"/>
       <c r="B159" s="125"/>
       <c r="C159" s="129"/>
@@ -8132,7 +8185,7 @@
       <c r="W159" s="130"/>
       <c r="X159" s="72"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="35"/>
       <c r="B160" s="125"/>
       <c r="C160" s="129"/>
@@ -8188,35 +8241,35 @@
   </sheetPr>
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.88671875" customWidth="1"/>
-    <col min="26" max="26" width="20.6640625" customWidth="1"/>
-    <col min="27" max="27" width="15.44140625" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="105" t="s">
         <v>264</v>
       </c>
@@ -8241,17 +8294,17 @@
       <c r="I2" s="148" t="s">
         <v>167</v>
       </c>
-      <c r="K2" s="180" t="s">
+      <c r="K2" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="181"/>
+      <c r="L2" s="179"/>
       <c r="M2" s="53"/>
-      <c r="N2" s="180" t="s">
+      <c r="N2" s="178" t="s">
         <v>218</v>
       </c>
-      <c r="O2" s="181"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="179"/>
+    </row>
+    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
         <v>1</v>
       </c>
@@ -8294,7 +8347,7 @@
       <c r="Y3" s="72"/>
       <c r="Z3" s="72"/>
     </row>
-    <row r="4" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <f>IF(C4="","",B3+1)</f>
         <v>2</v>
@@ -8336,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <f t="shared" ref="B5:B22" si="2">IF(C5="","",B4+1)</f>
         <v>3</v>
@@ -8378,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -8414,7 +8467,7 @@
       </c>
       <c r="M6" s="53"/>
     </row>
-    <row r="7" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8452,7 +8505,7 @@
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
     </row>
-    <row r="8" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -8488,7 +8541,7 @@
       </c>
       <c r="M8" s="53"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -8522,7 +8575,7 @@
       <c r="L9" s="48"/>
       <c r="M9" s="53"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -8558,7 +8611,7 @@
       </c>
       <c r="M10" s="53"/>
     </row>
-    <row r="11" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -8596,7 +8649,7 @@
       <c r="N11" s="53"/>
       <c r="O11" s="53"/>
     </row>
-    <row r="12" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8631,7 +8684,7 @@
       </c>
       <c r="M12" s="53"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -8658,11 +8711,15 @@
       <c r="I13" s="34">
         <v>0</v>
       </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
+      <c r="K13" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>303</v>
+      </c>
       <c r="M13" s="53"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -8691,11 +8748,15 @@
         <v>0</v>
       </c>
       <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
+      <c r="K14" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>302</v>
+      </c>
       <c r="M14" s="53"/>
     </row>
-    <row r="15" spans="2:26" s="53" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:26" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8710,8 +8771,14 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="I15" s="34"/>
-    </row>
-    <row r="16" spans="2:26" s="53" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8726,12 +8793,12 @@
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
       <c r="I16" s="34"/>
-      <c r="K16" s="180" t="s">
+      <c r="K16" s="178" t="s">
         <v>208</v>
       </c>
-      <c r="L16" s="181"/>
-    </row>
-    <row r="17" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="179"/>
+    </row>
+    <row r="17" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8749,14 +8816,14 @@
       <c r="K17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="177" t="s">
+      <c r="L17" s="175" t="s">
         <v>279</v>
       </c>
       <c r="P17" s="53" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="53" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8778,7 +8845,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8794,7 +8861,7 @@
       <c r="H19" s="54"/>
       <c r="I19" s="34"/>
     </row>
-    <row r="20" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8810,7 +8877,7 @@
       <c r="H20" s="54"/>
       <c r="I20" s="34"/>
     </row>
-    <row r="21" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8826,7 +8893,7 @@
       <c r="H21" s="54"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8848,39 +8915,39 @@
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
     </row>
-    <row r="23" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="178" t="s">
+    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="185"/>
-      <c r="K24" s="185"/>
-      <c r="L24" s="185"/>
-      <c r="M24" s="185"/>
-      <c r="N24" s="185"/>
-      <c r="O24" s="185"/>
-      <c r="P24" s="185"/>
-      <c r="Q24" s="185"/>
-      <c r="R24" s="185"/>
-      <c r="S24" s="185"/>
-      <c r="T24" s="185"/>
-      <c r="U24" s="185"/>
-      <c r="V24" s="185"/>
-      <c r="W24" s="185"/>
-      <c r="X24" s="185"/>
-      <c r="Y24" s="185"/>
-      <c r="Z24" s="185"/>
-      <c r="AA24" s="185"/>
-      <c r="AB24" s="179"/>
-    </row>
-    <row r="25" spans="1:28" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
+      <c r="AB24" s="177"/>
+    </row>
+    <row r="25" spans="1:28" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="143" t="s">
         <v>264</v>
       </c>
@@ -8963,7 +9030,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
       <c r="B26" s="52">
         <v>1</v>
@@ -9045,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
       <c r="B27" s="52">
         <f>IF(C27="","",B26+1)</f>
@@ -9128,7 +9195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
       <c r="B28" s="52">
         <f t="shared" ref="B28:B45" si="3">IF(C28="","",B27+1)</f>
@@ -9211,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
       <c r="B29" s="52">
         <f t="shared" si="3"/>
@@ -9264,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="142" t="s">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c r="T29" s="142">
         <v>0</v>
@@ -9294,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
       <c r="B30" s="52">
         <f t="shared" si="3"/>
@@ -9377,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
       <c r="B31" s="52">
         <f t="shared" si="3"/>
@@ -9430,7 +9497,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="142" t="s">
-        <v>103</v>
+        <v>296</v>
       </c>
       <c r="T31" s="142">
         <v>0</v>
@@ -9460,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
       <c r="B32" s="52">
         <f t="shared" si="3"/>
@@ -9513,7 +9580,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="142" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="T32" s="142">
         <v>0</v>
@@ -9543,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
       <c r="B33" s="52">
         <f t="shared" si="3"/>
@@ -9626,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="52"/>
       <c r="B34" s="52">
         <f t="shared" si="3"/>
@@ -9709,7 +9776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="52"/>
       <c r="B35" s="52">
         <f t="shared" si="3"/>
@@ -9792,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
       <c r="B36" s="52">
         <f t="shared" si="3"/>
@@ -9875,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
       <c r="B37" s="52">
         <f t="shared" si="3"/>
@@ -9958,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="142"/>
       <c r="B38" s="52" t="str">
         <f t="shared" si="3"/>
@@ -9991,7 +10058,7 @@
       <c r="AA38" s="142"/>
       <c r="AB38" s="150"/>
     </row>
-    <row r="39" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="52"/>
       <c r="B39" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10024,7 +10091,7 @@
       <c r="AA39" s="142"/>
       <c r="AB39" s="150"/>
     </row>
-    <row r="40" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="52"/>
       <c r="B40" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10057,7 +10124,7 @@
       <c r="AA40" s="142"/>
       <c r="AB40" s="150"/>
     </row>
-    <row r="41" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="52"/>
       <c r="B41" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10090,7 +10157,7 @@
       <c r="AA41" s="142"/>
       <c r="AB41" s="150"/>
     </row>
-    <row r="42" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="52"/>
       <c r="B42" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10123,7 +10190,7 @@
       <c r="AA42" s="142"/>
       <c r="AB42" s="150"/>
     </row>
-    <row r="43" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="52"/>
       <c r="B43" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10156,7 +10223,7 @@
       <c r="AA43" s="142"/>
       <c r="AB43" s="150"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="52"/>
       <c r="B44" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10189,7 +10256,7 @@
       <c r="AA44" s="142"/>
       <c r="AB44" s="150"/>
     </row>
-    <row r="45" spans="1:28" s="53" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="52"/>
       <c r="B45" s="55" t="str">
         <f t="shared" si="3"/>
@@ -10222,32 +10289,32 @@
       <c r="AA45" s="151"/>
       <c r="AB45" s="152"/>
     </row>
-    <row r="46" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="182" t="s">
+    <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="183"/>
-      <c r="D47" s="183"/>
-      <c r="E47" s="183"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="183"/>
-      <c r="H47" s="184"/>
-      <c r="J47" s="182" t="s">
+      <c r="C47" s="181"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
+      <c r="H47" s="182"/>
+      <c r="J47" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="183"/>
-      <c r="L47" s="183"/>
-      <c r="M47" s="183"/>
-      <c r="N47" s="183"/>
-      <c r="O47" s="183"/>
-      <c r="P47" s="183"/>
-      <c r="Q47" s="183"/>
-      <c r="R47" s="183"/>
-      <c r="S47" s="183"/>
-      <c r="T47" s="184"/>
-    </row>
-    <row r="48" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K47" s="181"/>
+      <c r="L47" s="181"/>
+      <c r="M47" s="181"/>
+      <c r="N47" s="181"/>
+      <c r="O47" s="181"/>
+      <c r="P47" s="181"/>
+      <c r="Q47" s="181"/>
+      <c r="R47" s="181"/>
+      <c r="S47" s="181"/>
+      <c r="T47" s="182"/>
+    </row>
+    <row r="48" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="143" t="s">
         <v>0</v>
       </c>
@@ -10303,7 +10370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="49">
         <v>1</v>
       </c>
@@ -10359,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -10401,7 +10468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -10421,7 +10488,7 @@
       <c r="S51" s="54"/>
       <c r="T51" s="5"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -10441,7 +10508,7 @@
       <c r="S52" s="54"/>
       <c r="T52" s="5"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -10461,7 +10528,7 @@
       <c r="S53" s="54"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -10481,7 +10548,7 @@
       <c r="S54" s="54"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -10501,7 +10568,7 @@
       <c r="S55" s="54"/>
       <c r="T55" s="5"/>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -10521,7 +10588,7 @@
       <c r="S56" s="54"/>
       <c r="T56" s="5"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -10541,7 +10608,7 @@
       <c r="S57" s="54"/>
       <c r="T57" s="5"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -10561,7 +10628,7 @@
       <c r="S58" s="54"/>
       <c r="T58" s="5"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -10581,7 +10648,7 @@
       <c r="S59" s="54"/>
       <c r="T59" s="5"/>
     </row>
-    <row r="60" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="6"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -10601,18 +10668,18 @@
       <c r="S60" s="7"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="62" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="178" t="s">
+    <row r="62" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="176" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="179"/>
-      <c r="E63" s="178" t="s">
+      <c r="C63" s="177"/>
+      <c r="E63" s="176" t="s">
         <v>282</v>
       </c>
-      <c r="F63" s="179"/>
-    </row>
-    <row r="64" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F63" s="177"/>
+    </row>
+    <row r="64" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="143" t="s">
         <v>94</v>
       </c>
@@ -10626,7 +10693,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <v>1</v>
       </c>
@@ -10640,7 +10707,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>2</v>
       </c>
@@ -10654,7 +10721,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>3</v>
       </c>
@@ -10664,7 +10731,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>4</v>
       </c>
@@ -10674,7 +10741,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>5</v>
       </c>
@@ -10684,7 +10751,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>6</v>
       </c>
@@ -10694,7 +10761,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>7</v>
       </c>
@@ -10704,7 +10771,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>8</v>
       </c>
@@ -10714,7 +10781,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>9</v>
       </c>
@@ -10724,7 +10791,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>10</v>
       </c>
@@ -10734,43 +10801,43 @@
       <c r="E74" s="3"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="5"/>
       <c r="E75" s="3"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="5"/>
       <c r="E76" s="3"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="5"/>
       <c r="E77" s="3"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="5"/>
       <c r="E78" s="3"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="5"/>
       <c r="E79" s="3"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="5"/>
       <c r="E80" s="3"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
       <c r="C81" s="8"/>
       <c r="E81" s="6"/>
@@ -10787,18 +10854,9 @@
     <mergeCell ref="B24:AB24"/>
     <mergeCell ref="E63:F63"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X37:X43 X27:X33" xr:uid="{3900C4C6-43F3-4DF6-8675-9B5D9868FF8C}">
-      <formula1>"Not Applied, IHC S-1200, IHC S-2000, IHC S-4000"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X26 X34:X36" xr:uid="{6CCC0A35-6707-47E0-BBCE-DF3BF7CD2ABA}">
-      <formula1>"Not Applied,IHC S-1200,IHC S-2000,IHC S-4000"</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W26:W43" xr:uid="{0A6E4592-A1B3-4934-9B92-F44984C26EB1}">
       <formula1>"LB,UB,BE,LB/UB"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S26:S43" xr:uid="{568B7630-D0D0-439A-8DC0-67AFD922C505}">
-      <formula1>"Normal,Acceleration,Force,Displacement,Velocity"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I26:I45" xr:uid="{34412A3F-BA3F-4186-89DE-2AC0433242D5}">
       <formula1>0</formula1>
@@ -10812,6 +10870,24 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B786BE95-172B-4093-B281-48D5E13F4E8A}">
+          <x14:formula1>
+            <xm:f>Hidden_settings!$F$3:$F$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>X26:X45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{977EFE82-F9BC-45A5-86F0-00BB61E94FD9}">
+          <x14:formula1>
+            <xm:f>Hidden_settings!$G$3:$G$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>S26:S45</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10822,30 +10898,30 @@
   </sheetPr>
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C17" sqref="C17"/>
       <selection pane="topRight" activeCell="C17" sqref="C17"/>
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
         <v>107</v>
       </c>
@@ -10865,35 +10941,35 @@
       <c r="G2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="186" t="s">
+      <c r="H2" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="188" t="s">
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="186"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="188" t="s">
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="186" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="186"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="187"/>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="184"/>
+      <c r="AB2" s="185"/>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="95">
         <f>IF(B3="","",PROJ!B26)</f>
         <v>1</v>
@@ -10912,7 +10988,7 @@
       <c r="F3" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="175" t="s">
+      <c r="G3" s="173" t="s">
         <v>86</v>
       </c>
       <c r="H3" s="35">
@@ -10943,7 +11019,7 @@
       <c r="AA3" s="54"/>
       <c r="AB3" s="5"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="96">
         <f>IF(B4="","",PROJ!B27)</f>
         <v>2</v>
@@ -11003,7 +11079,7 @@
       <c r="AS4" s="9"/>
       <c r="AT4" s="9"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="96">
         <f>IF(B5="","",PROJ!B28)</f>
         <v>3</v>
@@ -11055,7 +11131,7 @@
       <c r="AB5" s="5"/>
       <c r="AS5" s="9"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="96">
         <f>IF(B6="","",PROJ!B29)</f>
         <v>4</v>
@@ -11091,7 +11167,7 @@
       <c r="AA6" s="54"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="96">
         <f>IF(B7="","",PROJ!B30)</f>
         <v>5</v>
@@ -11127,7 +11203,7 @@
       <c r="AA7" s="54"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="96">
         <f>IF(B8="","",PROJ!B31)</f>
         <v>6</v>
@@ -11163,7 +11239,7 @@
       <c r="AA8" s="54"/>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="96">
         <f>IF(B9="","",PROJ!B32)</f>
         <v>7</v>
@@ -11199,7 +11275,7 @@
       <c r="AA9" s="54"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="96">
         <f>IF(B10="","",PROJ!B33)</f>
         <v>8</v>
@@ -11235,7 +11311,7 @@
       <c r="AA10" s="54"/>
       <c r="AB10" s="5"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="96">
         <f>IF(B11="","",PROJ!B34)</f>
         <v>9</v>
@@ -11271,7 +11347,7 @@
       <c r="AA11" s="54"/>
       <c r="AB11" s="5"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="96">
         <f>IF(B12="","",PROJ!B35)</f>
         <v>10</v>
@@ -11307,7 +11383,7 @@
       <c r="AA12" s="54"/>
       <c r="AB12" s="5"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="96">
         <f>IF(B13="","",PROJ!B36)</f>
         <v>11</v>
@@ -11343,7 +11419,7 @@
       <c r="AA13" s="54"/>
       <c r="AB13" s="5"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="96">
         <f>IF(B14="","",PROJ!B37)</f>
         <v>12</v>
@@ -11379,7 +11455,7 @@
       <c r="AA14" s="54"/>
       <c r="AB14" s="5"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="96" t="str">
         <f>IF(B15="","",PROJ!B44)</f>
         <v/>
@@ -11415,7 +11491,7 @@
       <c r="AA15" s="54"/>
       <c r="AB15" s="5"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="96" t="str">
         <f>IF(B16="","",PROJ!B46)</f>
         <v/>
@@ -11451,7 +11527,7 @@
       <c r="AA16" s="54"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="96" t="str">
         <f>IF(B17="","",PROJ!B47)</f>
         <v/>
@@ -11462,7 +11538,7 @@
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="110" t="str">
-        <f t="shared" ref="D5:D40" si="1">IF(E17="","",0)</f>
+        <f t="shared" ref="D17:D40" si="1">IF(E17="","",0)</f>
         <v/>
       </c>
       <c r="E17" s="100" t="str">
@@ -11493,7 +11569,7 @@
       <c r="AA17" s="54"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="96" t="str">
         <f>IF(B18="","",PROJ!B48)</f>
         <v/>
@@ -11534,7 +11610,7 @@
       <c r="AA18" s="54"/>
       <c r="AB18" s="5"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="96" t="str">
         <f>IF(B19="","",PROJ!B49)</f>
         <v/>
@@ -11575,7 +11651,7 @@
       <c r="AA19" s="54"/>
       <c r="AB19" s="5"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="96" t="str">
         <f>IF(B20="","",PROJ!B50)</f>
         <v/>
@@ -11616,7 +11692,7 @@
       <c r="AA20" s="54"/>
       <c r="AB20" s="5"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="96" t="str">
         <f>IF(B21="","",PROJ!B51)</f>
         <v/>
@@ -11658,7 +11734,7 @@
       <c r="AA21" s="54"/>
       <c r="AB21" s="5"/>
     </row>
-    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="97" t="str">
         <f>IF(B22="","",PROJ!B52)</f>
         <v/>
@@ -11699,7 +11775,7 @@
       <c r="AA22" s="54"/>
       <c r="AB22" s="5"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D23" s="110" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11732,7 +11808,7 @@
       <c r="AA23" s="54"/>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D24" s="110" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11765,7 +11841,7 @@
       <c r="AA24" s="54"/>
       <c r="AB24" s="5"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D25" s="110" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11798,7 +11874,7 @@
       <c r="AA25" s="54"/>
       <c r="AB25" s="5"/>
     </row>
-    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="110" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11831,11 +11907,11 @@
       <c r="AA26" s="54"/>
       <c r="AB26" s="5"/>
     </row>
-    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="189" t="s">
+    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="187" t="s">
         <v>220</v>
       </c>
-      <c r="B27" s="190"/>
+      <c r="B27" s="188"/>
       <c r="D27" s="110" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -11868,7 +11944,7 @@
       <c r="AA27" s="54"/>
       <c r="AB27" s="5"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -11907,7 +11983,7 @@
       <c r="AA28" s="54"/>
       <c r="AB28" s="5"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -11946,7 +12022,7 @@
       <c r="AA29" s="54"/>
       <c r="AB29" s="5"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -11985,7 +12061,7 @@
       <c r="AA30" s="54"/>
       <c r="AB30" s="5"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -12024,7 +12100,7 @@
       <c r="AA31" s="54"/>
       <c r="AB31" s="5"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -12063,7 +12139,7 @@
       <c r="AA32" s="54"/>
       <c r="AB32" s="5"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -12102,7 +12178,7 @@
       <c r="AA33" s="54"/>
       <c r="AB33" s="5"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -12141,7 +12217,7 @@
       <c r="AA34" s="54"/>
       <c r="AB34" s="5"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -12180,7 +12256,7 @@
       <c r="AA35" s="54"/>
       <c r="AB35" s="5"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -12219,7 +12295,7 @@
       <c r="AA36" s="54"/>
       <c r="AB36" s="5"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
@@ -12258,7 +12334,7 @@
       <c r="AA37" s="54"/>
       <c r="AB37" s="5"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -12297,7 +12373,7 @@
       <c r="AA38" s="54"/>
       <c r="AB38" s="5"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
@@ -12336,7 +12412,7 @@
       <c r="AA39" s="54"/>
       <c r="AB39" s="5"/>
     </row>
-    <row r="40" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>13</v>
       </c>
@@ -12347,7 +12423,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E40" s="176" t="str">
+      <c r="E40" s="174" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -12375,7 +12451,7 @@
       <c r="AA40" s="7"/>
       <c r="AB40" s="8"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
@@ -12383,7 +12459,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15</v>
       </c>
@@ -12404,7 +12480,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G15" xr:uid="{A0F243FA-6754-45A6-9279-C58FE865E29C}">
       <formula1>"SRD,Blow Count, Stress, Fatigue,CPT"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS4:AT4 V14:V16 AS5 V3 V4:W13" xr:uid="{D1D538C5-918F-4145-AEBD-2EAFC8CC9DD1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS4:AT4 AS5" xr:uid="{D1D538C5-918F-4145-AEBD-2EAFC8CC9DD1}">
       <formula1>"line,dash,circle,plus,dash dott"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G9" xr:uid="{9EF4F000-8108-4C18-865A-41563FCFEA85}">
@@ -12423,6 +12499,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{25B37088-1C1D-4319-B45A-6517FB599CFF}">
+          <x14:formula1>
+            <xm:f>Hidden_settings!$E$3:$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>V3:AB40</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12434,42 +12522,42 @@
   <dimension ref="A1:XFD105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="53" customWidth="1"/>
     <col min="7" max="7" width="11" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="53" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="53" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="53" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="53" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="53" customWidth="1"/>
     <col min="11" max="12" width="10" style="53" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" style="53" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" style="53" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="53" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="53" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="53"/>
+    <col min="13" max="13" width="9.85546875" style="53" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="53" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="53" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="53" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
         <v>107</v>
       </c>
@@ -12550,7 +12638,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="95">
         <f>IF(B3="","",PROJ!B26)</f>
         <v>1</v>
@@ -12597,7 +12685,7 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="96">
         <f>IF(B4="","",PROJ!B27)</f>
         <v>2</v>
@@ -12649,7 +12737,7 @@
       <c r="AD4" s="99"/>
       <c r="AE4" s="99"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="96">
         <f>IF(B5="","",PROJ!B28)</f>
         <v>3</v>
@@ -12700,7 +12788,7 @@
       <c r="AD5" s="99"/>
       <c r="AE5" s="54"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="96">
         <f>IF(B6="","",PROJ!B29)</f>
         <v>4</v>
@@ -12738,7 +12826,7 @@
       <c r="AD6" s="54"/>
       <c r="AE6" s="54"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="96">
         <f>IF(B7="","",PROJ!B30)</f>
         <v>5</v>
@@ -12773,7 +12861,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="96">
         <f>IF(B8="","",PROJ!B31)</f>
         <v>6</v>
@@ -12808,7 +12896,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="96">
         <f>IF(B9="","",PROJ!B32)</f>
         <v>7</v>
@@ -12843,7 +12931,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="96">
         <f>IF(B10="","",PROJ!B33)</f>
         <v>8</v>
@@ -12878,7 +12966,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="96">
         <f>IF(B11="","",PROJ!B34)</f>
         <v>9</v>
@@ -12913,7 +13001,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="96">
         <f>IF(B12="","",PROJ!B35)</f>
         <v>10</v>
@@ -12948,7 +13036,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="96">
         <f>IF(B13="","",PROJ!B36)</f>
         <v>11</v>
@@ -12983,7 +13071,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="96">
         <f>IF(B14="","",PROJ!B37)</f>
         <v>12</v>
@@ -13018,7 +13106,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="96" t="str">
         <f>IF(B15="","",PROJ!B44)</f>
         <v/>
@@ -13053,7 +13141,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="96" t="str">
         <f>IF(B16="","",PROJ!B46)</f>
         <v/>
@@ -13088,7 +13176,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="96" t="str">
         <f>IF(B17="","",PROJ!B47)</f>
         <v/>
@@ -13123,7 +13211,7 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="96" t="str">
         <f>IF(B18="","",PROJ!B48)</f>
         <v/>
@@ -13158,7 +13246,7 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="96" t="str">
         <f>IF(B19="","",PROJ!B49)</f>
         <v/>
@@ -13193,7 +13281,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="96" t="str">
         <f>IF(B20="","",PROJ!B50)</f>
         <v/>
@@ -13228,7 +13316,7 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="96" t="str">
         <f>IF(B21="","",PROJ!B51)</f>
         <v/>
@@ -13263,7 +13351,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="97" t="str">
         <f>IF(B22="","",PROJ!B52)</f>
         <v/>
@@ -13298,7 +13386,7 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -13327,7 +13415,7 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -13356,7 +13444,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -13385,7 +13473,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="5"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -13414,7 +13502,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="5"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -13443,7 +13531,7 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
@@ -13472,7 +13560,7 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="5"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -13501,7 +13589,7 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -13530,7 +13618,7 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="5"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -13559,7 +13647,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="5"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -13588,7 +13676,7 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="5"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -13617,7 +13705,7 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="5"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="72"/>
       <c r="B34" s="72"/>
       <c r="C34" s="72"/>
@@ -13646,7 +13734,7 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="5"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="72"/>
       <c r="B35" s="72"/>
       <c r="C35" s="72"/>
@@ -13675,7 +13763,7 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="5"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="72"/>
       <c r="B36" s="72"/>
       <c r="C36" s="72"/>
@@ -13704,7 +13792,7 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="5"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="72"/>
       <c r="B37" s="72"/>
       <c r="C37" s="72"/>
@@ -13733,7 +13821,7 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="5"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="72"/>
       <c r="B38" s="72"/>
       <c r="C38" s="72"/>
@@ -13762,7 +13850,7 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="5"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="72"/>
       <c r="B39" s="72"/>
       <c r="C39" s="72"/>
@@ -13791,7 +13879,7 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="5"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D40" s="110"/>
       <c r="E40" s="108"/>
       <c r="F40" s="108"/>
@@ -13817,7 +13905,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D41" s="110"/>
       <c r="E41" s="108"/>
       <c r="F41" s="108"/>
@@ -13843,7 +13931,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="5"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D42" s="110"/>
       <c r="E42" s="108"/>
       <c r="F42" s="108"/>
@@ -13869,7 +13957,7 @@
       <c r="Z42" s="3"/>
       <c r="AA42" s="5"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D43" s="110"/>
       <c r="E43" s="108"/>
       <c r="F43" s="108"/>
@@ -13895,7 +13983,7 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="5"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D44" s="110"/>
       <c r="E44" s="108"/>
       <c r="F44" s="108"/>
@@ -13921,7 +14009,7 @@
       <c r="Z44" s="3"/>
       <c r="AA44" s="5"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D45" s="110"/>
       <c r="E45" s="108"/>
       <c r="F45" s="108"/>
@@ -13947,7 +14035,7 @@
       <c r="Z45" s="3"/>
       <c r="AA45" s="5"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D46" s="110"/>
       <c r="E46" s="108"/>
       <c r="F46" s="108"/>
@@ -13973,7 +14061,7 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D47" s="110"/>
       <c r="E47" s="108"/>
       <c r="F47" s="108"/>
@@ -13999,7 +14087,7 @@
       <c r="Z47" s="3"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D48" s="110"/>
       <c r="E48" s="108"/>
       <c r="F48" s="108"/>
@@ -14025,7 +14113,7 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="5"/>
     </row>
-    <row r="49" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D49" s="110"/>
       <c r="E49" s="108"/>
       <c r="F49" s="108"/>
@@ -14051,7 +14139,7 @@
       <c r="Z49" s="3"/>
       <c r="AA49" s="5"/>
     </row>
-    <row r="50" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D50" s="110"/>
       <c r="E50" s="108"/>
       <c r="F50" s="108"/>
@@ -14077,7 +14165,7 @@
       <c r="Z50" s="3"/>
       <c r="AA50" s="5"/>
     </row>
-    <row r="51" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D51" s="110"/>
       <c r="E51" s="108"/>
       <c r="F51" s="108"/>
@@ -14103,7 +14191,7 @@
       <c r="Z51" s="3"/>
       <c r="AA51" s="5"/>
     </row>
-    <row r="52" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D52" s="110"/>
       <c r="E52" s="108"/>
       <c r="F52" s="108"/>
@@ -14129,7 +14217,7 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="5"/>
     </row>
-    <row r="53" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D53" s="110"/>
       <c r="E53" s="108"/>
       <c r="F53" s="108"/>
@@ -14155,7 +14243,7 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="5"/>
     </row>
-    <row r="54" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D54" s="110"/>
       <c r="E54" s="108"/>
       <c r="F54" s="108"/>
@@ -14181,7 +14269,7 @@
       <c r="Z54" s="3"/>
       <c r="AA54" s="5"/>
     </row>
-    <row r="55" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D55" s="110"/>
       <c r="E55" s="108"/>
       <c r="F55" s="108"/>
@@ -14207,7 +14295,7 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="5"/>
     </row>
-    <row r="56" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D56" s="110"/>
       <c r="E56" s="108"/>
       <c r="F56" s="108"/>
@@ -14233,7 +14321,7 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="5"/>
     </row>
-    <row r="57" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D57" s="110"/>
       <c r="E57" s="108"/>
       <c r="F57" s="108"/>
@@ -14259,7 +14347,7 @@
       <c r="Z57" s="3"/>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D58" s="110"/>
       <c r="E58" s="108"/>
       <c r="F58" s="108"/>
@@ -14285,7 +14373,7 @@
       <c r="Z58" s="3"/>
       <c r="AA58" s="5"/>
     </row>
-    <row r="59" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D59" s="110"/>
       <c r="E59" s="108"/>
       <c r="F59" s="108"/>
@@ -14311,7 +14399,7 @@
       <c r="Z59" s="3"/>
       <c r="AA59" s="5"/>
     </row>
-    <row r="60" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D60" s="110"/>
       <c r="E60" s="108"/>
       <c r="F60" s="108"/>
@@ -14337,7 +14425,7 @@
       <c r="Z60" s="3"/>
       <c r="AA60" s="5"/>
     </row>
-    <row r="61" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D61" s="110"/>
       <c r="E61" s="108"/>
       <c r="F61" s="108"/>
@@ -14363,7 +14451,7 @@
       <c r="Z61" s="3"/>
       <c r="AA61" s="5"/>
     </row>
-    <row r="62" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D62" s="110"/>
       <c r="E62" s="108"/>
       <c r="F62" s="108"/>
@@ -14389,7 +14477,7 @@
       <c r="Z62" s="3"/>
       <c r="AA62" s="5"/>
     </row>
-    <row r="63" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D63" s="110"/>
       <c r="E63" s="108"/>
       <c r="F63" s="108"/>
@@ -14415,7 +14503,7 @@
       <c r="Z63" s="3"/>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D64" s="110"/>
       <c r="E64" s="108"/>
       <c r="F64" s="108"/>
@@ -14441,7 +14529,7 @@
       <c r="Z64" s="3"/>
       <c r="AA64" s="5"/>
     </row>
-    <row r="65" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D65" s="110"/>
       <c r="E65" s="108"/>
       <c r="F65" s="108"/>
@@ -14467,7 +14555,7 @@
       <c r="Z65" s="3"/>
       <c r="AA65" s="5"/>
     </row>
-    <row r="66" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D66" s="110"/>
       <c r="E66" s="108"/>
       <c r="F66" s="108"/>
@@ -14493,7 +14581,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="5"/>
     </row>
-    <row r="67" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D67" s="110"/>
       <c r="E67" s="108"/>
       <c r="F67" s="108"/>
@@ -14519,7 +14607,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="5"/>
     </row>
-    <row r="68" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D68" s="110"/>
       <c r="E68" s="108"/>
       <c r="F68" s="108"/>
@@ -14545,7 +14633,7 @@
       <c r="Z68" s="3"/>
       <c r="AA68" s="5"/>
     </row>
-    <row r="69" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D69" s="110"/>
       <c r="E69" s="108"/>
       <c r="F69" s="108"/>
@@ -14571,7 +14659,7 @@
       <c r="Z69" s="3"/>
       <c r="AA69" s="5"/>
     </row>
-    <row r="70" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D70" s="110"/>
       <c r="E70" s="108"/>
       <c r="F70" s="108"/>
@@ -14597,7 +14685,7 @@
       <c r="Z70" s="3"/>
       <c r="AA70" s="5"/>
     </row>
-    <row r="71" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D71" s="110"/>
       <c r="E71" s="108"/>
       <c r="F71" s="108"/>
@@ -14623,7 +14711,7 @@
       <c r="Z71" s="3"/>
       <c r="AA71" s="5"/>
     </row>
-    <row r="72" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D72" s="110"/>
       <c r="E72" s="108"/>
       <c r="F72" s="108"/>
@@ -14649,7 +14737,7 @@
       <c r="Z72" s="3"/>
       <c r="AA72" s="5"/>
     </row>
-    <row r="73" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D73" s="110"/>
       <c r="E73" s="108"/>
       <c r="F73" s="108"/>
@@ -14675,7 +14763,7 @@
       <c r="Z73" s="3"/>
       <c r="AA73" s="5"/>
     </row>
-    <row r="74" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D74" s="110"/>
       <c r="E74" s="108"/>
       <c r="F74" s="108"/>
@@ -14701,7 +14789,7 @@
       <c r="Z74" s="3"/>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D75" s="110"/>
       <c r="E75" s="108"/>
       <c r="F75" s="108"/>
@@ -14727,7 +14815,7 @@
       <c r="Z75" s="3"/>
       <c r="AA75" s="5"/>
     </row>
-    <row r="76" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D76" s="110"/>
       <c r="E76" s="108"/>
       <c r="F76" s="108"/>
@@ -14753,7 +14841,7 @@
       <c r="Z76" s="3"/>
       <c r="AA76" s="5"/>
     </row>
-    <row r="77" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D77" s="110"/>
       <c r="E77" s="108"/>
       <c r="F77" s="108"/>
@@ -14779,7 +14867,7 @@
       <c r="Z77" s="3"/>
       <c r="AA77" s="5"/>
     </row>
-    <row r="78" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D78" s="110"/>
       <c r="E78" s="108"/>
       <c r="F78" s="108"/>
@@ -14805,7 +14893,7 @@
       <c r="Z78" s="3"/>
       <c r="AA78" s="5"/>
     </row>
-    <row r="79" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D79" s="110"/>
       <c r="E79" s="108"/>
       <c r="F79" s="108"/>
@@ -14831,7 +14919,7 @@
       <c r="Z79" s="3"/>
       <c r="AA79" s="5"/>
     </row>
-    <row r="80" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D80" s="110"/>
       <c r="E80" s="108"/>
       <c r="F80" s="108"/>
@@ -14857,7 +14945,7 @@
       <c r="Z80" s="3"/>
       <c r="AA80" s="5"/>
     </row>
-    <row r="81" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D81" s="110"/>
       <c r="E81" s="108"/>
       <c r="F81" s="108"/>
@@ -14883,7 +14971,7 @@
       <c r="Z81" s="3"/>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D82" s="110"/>
       <c r="E82" s="108"/>
       <c r="F82" s="108"/>
@@ -14909,7 +14997,7 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="5"/>
     </row>
-    <row r="83" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D83" s="110"/>
       <c r="E83" s="108"/>
       <c r="F83" s="108"/>
@@ -14935,7 +15023,7 @@
       <c r="Z83" s="3"/>
       <c r="AA83" s="5"/>
     </row>
-    <row r="84" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D84" s="110"/>
       <c r="E84" s="108"/>
       <c r="F84" s="108"/>
@@ -14961,7 +15049,7 @@
       <c r="Z84" s="3"/>
       <c r="AA84" s="5"/>
     </row>
-    <row r="85" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D85" s="110"/>
       <c r="E85" s="108"/>
       <c r="F85" s="108"/>
@@ -14987,7 +15075,7 @@
       <c r="Z85" s="3"/>
       <c r="AA85" s="5"/>
     </row>
-    <row r="86" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D86" s="110"/>
       <c r="E86" s="108"/>
       <c r="F86" s="108"/>
@@ -15013,7 +15101,7 @@
       <c r="Z86" s="3"/>
       <c r="AA86" s="5"/>
     </row>
-    <row r="87" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D87" s="110"/>
       <c r="E87" s="108"/>
       <c r="F87" s="108"/>
@@ -15039,7 +15127,7 @@
       <c r="Z87" s="3"/>
       <c r="AA87" s="5"/>
     </row>
-    <row r="88" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D88" s="110"/>
       <c r="E88" s="108"/>
       <c r="F88" s="108"/>
@@ -15065,7 +15153,7 @@
       <c r="Z88" s="3"/>
       <c r="AA88" s="5"/>
     </row>
-    <row r="89" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D89" s="110"/>
       <c r="E89" s="108"/>
       <c r="F89" s="108"/>
@@ -15091,7 +15179,7 @@
       <c r="Z89" s="3"/>
       <c r="AA89" s="5"/>
     </row>
-    <row r="90" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D90" s="110"/>
       <c r="E90" s="108"/>
       <c r="F90" s="108"/>
@@ -15117,7 +15205,7 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="5"/>
     </row>
-    <row r="91" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D91" s="110"/>
       <c r="E91" s="108"/>
       <c r="F91" s="108"/>
@@ -15143,7 +15231,7 @@
       <c r="Z91" s="3"/>
       <c r="AA91" s="5"/>
     </row>
-    <row r="92" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D92" s="110"/>
       <c r="E92" s="108"/>
       <c r="F92" s="108"/>
@@ -15169,7 +15257,7 @@
       <c r="Z92" s="3"/>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D93" s="110"/>
       <c r="E93" s="108"/>
       <c r="F93" s="108"/>
@@ -15195,7 +15283,7 @@
       <c r="Z93" s="3"/>
       <c r="AA93" s="5"/>
     </row>
-    <row r="94" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D94" s="110"/>
       <c r="E94" s="108"/>
       <c r="F94" s="108"/>
@@ -15221,7 +15309,7 @@
       <c r="Z94" s="3"/>
       <c r="AA94" s="5"/>
     </row>
-    <row r="95" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D95" s="110"/>
       <c r="E95" s="108"/>
       <c r="F95" s="108"/>
@@ -15247,7 +15335,7 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="5"/>
     </row>
-    <row r="96" spans="4:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D96" s="110"/>
       <c r="E96" s="108"/>
       <c r="F96" s="108"/>
@@ -15273,7 +15361,7 @@
       <c r="Z96" s="3"/>
       <c r="AA96" s="5"/>
     </row>
-    <row r="97" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
       <c r="D97" s="110"/>
       <c r="E97" s="108"/>
       <c r="F97" s="108"/>
@@ -15299,7 +15387,7 @@
       <c r="Z97" s="3"/>
       <c r="AA97" s="5"/>
     </row>
-    <row r="98" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
       <c r="D98" s="110"/>
       <c r="E98" s="108"/>
       <c r="F98" s="108"/>
@@ -15325,7 +15413,7 @@
       <c r="Z98" s="3"/>
       <c r="AA98" s="5"/>
     </row>
-    <row r="99" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
       <c r="D99" s="110"/>
       <c r="E99" s="108"/>
       <c r="F99" s="108"/>
@@ -15351,7 +15439,7 @@
       <c r="Z99" s="3"/>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
       <c r="D100" s="110"/>
       <c r="E100" s="108"/>
       <c r="F100" s="108"/>
@@ -15377,7 +15465,7 @@
       <c r="Z100" s="3"/>
       <c r="AA100" s="5"/>
     </row>
-    <row r="101" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
       <c r="D101" s="110"/>
       <c r="E101" s="108"/>
       <c r="F101" s="108"/>
@@ -15404,7 +15492,7 @@
       <c r="AA101" s="5"/>
       <c r="XFD101" s="54"/>
     </row>
-    <row r="102" spans="4:27 16384:16384" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="4:27 16384:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D102" s="111"/>
       <c r="E102" s="109"/>
       <c r="F102" s="109"/>
@@ -15431,19 +15519,19 @@
       <c r="AA102" s="8"/>
       <c r="XFD102" s="54"/>
     </row>
-    <row r="103" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
       <c r="E103" s="98"/>
       <c r="F103" s="98"/>
       <c r="G103" s="72"/>
       <c r="XFD103" s="54"/>
     </row>
-    <row r="104" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
       <c r="E104" s="98"/>
       <c r="F104" s="98"/>
       <c r="G104" s="72"/>
       <c r="XFD104" s="54"/>
     </row>
-    <row r="105" spans="4:27 16384:16384" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:27 16384:16384" x14ac:dyDescent="0.25">
       <c r="E105" s="98"/>
       <c r="F105" s="98"/>
       <c r="G105" s="72"/>
@@ -15511,26 +15599,26 @@
       <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
         <v>107</v>
       </c>
@@ -15563,7 +15651,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="95">
         <f>IF(B3="","",PROJ!B26)</f>
         <v>1</v>
@@ -15598,7 +15686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="96">
         <f>IF(B4="","",PROJ!B27)</f>
         <v>2</v>
@@ -15646,7 +15734,7 @@
       </c>
       <c r="AT4" s="9"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="96">
         <f>IF(B5="","",PROJ!B28)</f>
         <v>3</v>
@@ -15671,7 +15759,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="96">
         <f>IF(B6="","",PROJ!B29)</f>
         <v>4</v>
@@ -15690,7 +15778,7 @@
       <c r="J6" s="54"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="96">
         <f>IF(B7="","",PROJ!B30)</f>
         <v>5</v>
@@ -15709,7 +15797,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="96">
         <f>IF(B8="","",PROJ!B31)</f>
         <v>6</v>
@@ -15728,7 +15816,7 @@
       <c r="J8" s="54"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="96">
         <f>IF(B9="","",PROJ!B32)</f>
         <v>7</v>
@@ -15747,7 +15835,7 @@
       <c r="J9" s="54"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="96">
         <f>IF(B10="","",PROJ!B33)</f>
         <v>8</v>
@@ -15766,7 +15854,7 @@
       <c r="J10" s="54"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="96">
         <f>IF(B11="","",PROJ!B34)</f>
         <v>9</v>
@@ -15785,7 +15873,7 @@
       <c r="J11" s="54"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="96">
         <f>IF(B12="","",PROJ!B35)</f>
         <v>10</v>
@@ -15804,7 +15892,7 @@
       <c r="J12" s="54"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="96">
         <f>IF(B13="","",PROJ!B36)</f>
         <v>11</v>
@@ -15823,7 +15911,7 @@
       <c r="J13" s="54"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="96">
         <f>IF(B14="","",PROJ!B37)</f>
         <v>12</v>
@@ -15842,7 +15930,7 @@
       <c r="J14" s="54"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="96" t="str">
         <f>IF(B15="","",PROJ!B44)</f>
         <v/>
@@ -15861,7 +15949,7 @@
       <c r="J15" s="54"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="96" t="str">
         <f>IF(B16="","",PROJ!B46)</f>
         <v/>
@@ -15881,7 +15969,7 @@
       <c r="K16" s="5"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="96" t="str">
         <f>IF(B17="","",PROJ!B47)</f>
         <v/>
@@ -15900,7 +15988,7 @@
       <c r="J17" s="54"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="96" t="str">
         <f>IF(B18="","",PROJ!B48)</f>
         <v/>
@@ -15919,7 +16007,7 @@
       <c r="J18" s="54"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="96" t="str">
         <f>IF(B19="","",PROJ!B49)</f>
         <v/>
@@ -15938,7 +16026,7 @@
       <c r="J19" s="54"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="96" t="str">
         <f>IF(B20="","",PROJ!B50)</f>
         <v/>
@@ -15957,7 +16045,7 @@
       <c r="J20" s="54"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="96" t="str">
         <f>IF(B21="","",PROJ!B51)</f>
         <v/>
@@ -15976,7 +16064,7 @@
       <c r="J21" s="54"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="97" t="str">
         <f>IF(B22="","",PROJ!B52)</f>
         <v/>
@@ -15995,7 +16083,7 @@
       <c r="J22" s="54"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
@@ -16005,7 +16093,7 @@
       <c r="J23" s="54"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
@@ -16015,7 +16103,7 @@
       <c r="J24" s="54"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="E25" s="54"/>
       <c r="F25" s="54"/>
@@ -16025,7 +16113,7 @@
       <c r="J25" s="54"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="E26" s="54"/>
       <c r="F26" s="54"/>
@@ -16035,7 +16123,7 @@
       <c r="J26" s="54"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="E27" s="54"/>
       <c r="F27" s="54"/>
@@ -16045,7 +16133,7 @@
       <c r="J27" s="54"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="54"/>
       <c r="F28" s="54"/>
@@ -16055,7 +16143,7 @@
       <c r="J28" s="54"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="E29" s="54"/>
       <c r="F29" s="54"/>
@@ -16065,7 +16153,7 @@
       <c r="J29" s="54"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="E30" s="54"/>
       <c r="F30" s="54"/>
@@ -16075,7 +16163,7 @@
       <c r="J30" s="54"/>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
@@ -16085,7 +16173,7 @@
       <c r="J31" s="54"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="E32" s="54"/>
       <c r="F32" s="54"/>
@@ -16095,7 +16183,7 @@
       <c r="J32" s="54"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
       <c r="E33" s="54"/>
       <c r="F33" s="54"/>
@@ -16105,7 +16193,7 @@
       <c r="J33" s="54"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
       <c r="E34" s="54"/>
       <c r="F34" s="54"/>
@@ -16115,7 +16203,7 @@
       <c r="J34" s="54"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
@@ -16125,7 +16213,7 @@
       <c r="J35" s="54"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
       <c r="E36" s="54"/>
       <c r="F36" s="54"/>
@@ -16135,7 +16223,7 @@
       <c r="J36" s="54"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="E37" s="54"/>
       <c r="F37" s="54"/>
@@ -16145,7 +16233,7 @@
       <c r="J37" s="54"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
@@ -16155,7 +16243,7 @@
       <c r="J38" s="54"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="E39" s="54"/>
       <c r="F39" s="54"/>
@@ -16165,7 +16253,7 @@
       <c r="J39" s="54"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -16205,30 +16293,30 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="117" t="s">
         <v>46</v>
       </c>
@@ -16275,7 +16363,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="118" t="s">
         <v>47</v>
       </c>
@@ -16322,7 +16410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="118" t="s">
         <v>48</v>
       </c>
@@ -16330,19 +16418,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="118" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="118" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="118" t="s">
         <v>51</v>
       </c>
@@ -16350,7 +16438,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="118" t="s">
         <v>52</v>
       </c>
@@ -16358,7 +16446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="119" t="s">
         <v>53</v>
       </c>
@@ -16366,32 +16454,32 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
     </row>
-    <row r="14" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20"/>
     </row>
-    <row r="15" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="188" t="s">
+    <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="186" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="187"/>
-    </row>
-    <row r="16" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="185"/>
+    </row>
+    <row r="16" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105" t="s">
         <v>55</v>
       </c>
@@ -16411,7 +16499,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
         <v>177</v>
       </c>
@@ -16431,7 +16519,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -16439,7 +16527,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -16447,7 +16535,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -16455,7 +16543,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -16463,7 +16551,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -16471,7 +16559,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -16479,7 +16567,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -16487,7 +16575,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -16495,7 +16583,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -16503,7 +16591,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -16511,7 +16599,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -16519,7 +16607,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -16527,7 +16615,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -16535,7 +16623,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -16543,7 +16631,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -16551,7 +16639,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -16559,7 +16647,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -16567,7 +16655,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -16575,7 +16663,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -16612,30 +16700,30 @@
   <dimension ref="A1:AG74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="53"/>
-    <col min="4" max="4" width="12.44140625" style="53" customWidth="1"/>
-    <col min="5" max="12" width="8.6640625" style="53"/>
-    <col min="13" max="13" width="18.109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="8.6640625" style="53"/>
-    <col min="20" max="20" width="17.109375" style="53" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="8.6640625" style="53"/>
+    <col min="1" max="3" width="8.7109375" style="53"/>
+    <col min="4" max="4" width="12.42578125" style="53" customWidth="1"/>
+    <col min="5" max="12" width="8.7109375" style="53"/>
+    <col min="13" max="13" width="18.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8.7109375" style="53"/>
+    <col min="20" max="20" width="17.140625" style="53" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="8.7109375" style="53"/>
     <col min="26" max="26" width="12" style="53" customWidth="1"/>
-    <col min="27" max="28" width="8.6640625" style="53"/>
+    <col min="27" max="28" width="8.7109375" style="53"/>
     <col min="29" max="29" width="12" style="53" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" style="53" customWidth="1"/>
-    <col min="31" max="31" width="14.44140625" style="53" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="53" customWidth="1"/>
-    <col min="33" max="16384" width="8.6640625" style="53"/>
+    <col min="30" max="30" width="10.85546875" style="53" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="53" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="53" customWidth="1"/>
+    <col min="33" max="16384" width="8.7109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="28" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" s="28" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="73" t="s">
         <v>135</v>
       </c>
@@ -16725,7 +16813,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="77">
         <v>3.5</v>
       </c>
@@ -16816,7 +16904,7 @@
       </c>
       <c r="AG2" s="89"/>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B3" s="78">
         <v>3.5</v>
       </c>
@@ -16906,7 +16994,7 @@
       </c>
       <c r="AG3" s="90"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B4" s="78"/>
       <c r="C4" s="81"/>
       <c r="D4" s="84"/>
@@ -16988,7 +17076,7 @@
       </c>
       <c r="AG4" s="90"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B5" s="78"/>
       <c r="C5" s="81"/>
       <c r="D5" s="84"/>
@@ -17070,7 +17158,7 @@
       </c>
       <c r="AG5" s="90"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="78"/>
       <c r="C6" s="81"/>
       <c r="D6" s="84"/>
@@ -17152,7 +17240,7 @@
       </c>
       <c r="AG6" s="90"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="78"/>
       <c r="C7" s="81"/>
       <c r="D7" s="84"/>
@@ -17234,7 +17322,7 @@
       </c>
       <c r="AG7" s="90"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="78"/>
       <c r="C8" s="81"/>
       <c r="D8" s="84"/>
@@ -17316,7 +17404,7 @@
       </c>
       <c r="AG8" s="90"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="78"/>
       <c r="C9" s="81"/>
       <c r="D9" s="84"/>
@@ -17398,7 +17486,7 @@
       </c>
       <c r="AG9" s="90"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="78"/>
       <c r="C10" s="81"/>
       <c r="D10" s="84"/>
@@ -17480,7 +17568,7 @@
       </c>
       <c r="AG10" s="90"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="78"/>
       <c r="C11" s="81"/>
       <c r="D11" s="84"/>
@@ -17562,7 +17650,7 @@
       </c>
       <c r="AG11" s="90"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="78"/>
       <c r="C12" s="81"/>
       <c r="D12" s="84"/>
@@ -17644,7 +17732,7 @@
       </c>
       <c r="AG12" s="90"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="78"/>
       <c r="C13" s="81"/>
       <c r="D13" s="84"/>
@@ -17726,7 +17814,7 @@
       </c>
       <c r="AG13" s="90"/>
     </row>
-    <row r="14" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="78"/>
       <c r="C14" s="81"/>
       <c r="D14" s="84"/>
@@ -17809,7 +17897,7 @@
       </c>
       <c r="AG14" s="90"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="78"/>
       <c r="C15" s="81"/>
       <c r="D15" s="84"/>
@@ -17882,7 +17970,7 @@
       </c>
       <c r="AG15" s="90"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" s="78"/>
       <c r="C16" s="81"/>
       <c r="D16" s="84"/>
@@ -17954,7 +18042,7 @@
       </c>
       <c r="AG16" s="90"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B17" s="78"/>
       <c r="C17" s="81"/>
       <c r="D17" s="84"/>
@@ -18026,7 +18114,7 @@
       </c>
       <c r="AG17" s="90"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B18" s="78"/>
       <c r="C18" s="81"/>
       <c r="D18" s="84"/>
@@ -18098,7 +18186,7 @@
       </c>
       <c r="AG18" s="90"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B19" s="78"/>
       <c r="C19" s="81"/>
       <c r="D19" s="84"/>
@@ -18135,7 +18223,7 @@
       <c r="AF19" s="90"/>
       <c r="AG19" s="90"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B20" s="78"/>
       <c r="C20" s="81"/>
       <c r="D20" s="84"/>
@@ -18172,7 +18260,7 @@
       <c r="AF20" s="90"/>
       <c r="AG20" s="90"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B21" s="78"/>
       <c r="C21" s="81"/>
       <c r="D21" s="84"/>
@@ -18209,7 +18297,7 @@
       <c r="AF21" s="90"/>
       <c r="AG21" s="90"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B22" s="78"/>
       <c r="C22" s="81"/>
       <c r="D22" s="84"/>
@@ -18246,7 +18334,7 @@
       <c r="AF22" s="90"/>
       <c r="AG22" s="90"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B23" s="78"/>
       <c r="C23" s="81"/>
       <c r="D23" s="84"/>
@@ -18283,7 +18371,7 @@
       <c r="AF23" s="90"/>
       <c r="AG23" s="90"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B24" s="78"/>
       <c r="C24" s="81"/>
       <c r="D24" s="84"/>
@@ -18320,7 +18408,7 @@
       <c r="AF24" s="90"/>
       <c r="AG24" s="90"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B25" s="78"/>
       <c r="C25" s="81"/>
       <c r="D25" s="84"/>
@@ -18357,7 +18445,7 @@
       <c r="AF25" s="90"/>
       <c r="AG25" s="90"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B26" s="78"/>
       <c r="C26" s="81"/>
       <c r="D26" s="84"/>
@@ -18394,7 +18482,7 @@
       <c r="AF26" s="90"/>
       <c r="AG26" s="90"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B27" s="78"/>
       <c r="C27" s="81"/>
       <c r="D27" s="84"/>
@@ -18431,7 +18519,7 @@
       <c r="AF27" s="90"/>
       <c r="AG27" s="90"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B28" s="78"/>
       <c r="C28" s="81"/>
       <c r="D28" s="84"/>
@@ -18468,7 +18556,7 @@
       <c r="AF28" s="90"/>
       <c r="AG28" s="90"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
       <c r="B29" s="78"/>
       <c r="C29" s="81"/>
@@ -18506,7 +18594,7 @@
       <c r="AF29" s="90"/>
       <c r="AG29" s="90"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="78"/>
       <c r="C30" s="81"/>
@@ -18544,7 +18632,7 @@
       <c r="AF30" s="90"/>
       <c r="AG30" s="90"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
       <c r="B31" s="78"/>
       <c r="C31" s="81"/>
@@ -18582,7 +18670,7 @@
       <c r="AF31" s="90"/>
       <c r="AG31" s="90"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="78"/>
       <c r="C32" s="81"/>
@@ -18620,7 +18708,7 @@
       <c r="AF32" s="90"/>
       <c r="AG32" s="90"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="54"/>
       <c r="B33" s="78"/>
       <c r="C33" s="81"/>
@@ -18658,7 +18746,7 @@
       <c r="AF33" s="90"/>
       <c r="AG33" s="90"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="54"/>
       <c r="B34" s="78"/>
       <c r="C34" s="81"/>
@@ -18696,7 +18784,7 @@
       <c r="AF34" s="90"/>
       <c r="AG34" s="90"/>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="54"/>
       <c r="B35" s="78"/>
       <c r="C35" s="81"/>
@@ -18726,7 +18814,7 @@
       <c r="AF35" s="90"/>
       <c r="AG35" s="90"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="54"/>
       <c r="B36" s="78"/>
       <c r="C36" s="81"/>
@@ -18756,7 +18844,7 @@
       <c r="AF36" s="90"/>
       <c r="AG36" s="90"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="B37" s="78"/>
       <c r="C37" s="81"/>
@@ -18786,7 +18874,7 @@
       <c r="AF37" s="90"/>
       <c r="AG37" s="90"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="54"/>
       <c r="B38" s="78"/>
       <c r="C38" s="81"/>
@@ -18816,7 +18904,7 @@
       <c r="AF38" s="90"/>
       <c r="AG38" s="90"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="54"/>
       <c r="B39" s="78"/>
       <c r="C39" s="81"/>
@@ -18846,7 +18934,7 @@
       <c r="AF39" s="90"/>
       <c r="AG39" s="90"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="54"/>
       <c r="B40" s="78"/>
       <c r="C40" s="81"/>
@@ -18876,7 +18964,7 @@
       <c r="AF40" s="90"/>
       <c r="AG40" s="90"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="54"/>
       <c r="B41" s="78"/>
       <c r="C41" s="81"/>
@@ -18906,7 +18994,7 @@
       <c r="AF41" s="90"/>
       <c r="AG41" s="90"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="54"/>
       <c r="B42" s="78"/>
       <c r="C42" s="81"/>
@@ -18936,7 +19024,7 @@
       <c r="AF42" s="90"/>
       <c r="AG42" s="90"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="54"/>
       <c r="B43" s="78"/>
       <c r="C43" s="81"/>
@@ -18966,7 +19054,7 @@
       <c r="AF43" s="90"/>
       <c r="AG43" s="90"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="54"/>
       <c r="B44" s="78"/>
       <c r="C44" s="81"/>
@@ -18996,7 +19084,7 @@
       <c r="AF44" s="90"/>
       <c r="AG44" s="90"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="54"/>
       <c r="B45" s="78"/>
       <c r="C45" s="81"/>
@@ -19026,7 +19114,7 @@
       <c r="AF45" s="90"/>
       <c r="AG45" s="90"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
       <c r="B46" s="78"/>
       <c r="C46" s="81"/>
@@ -19056,7 +19144,7 @@
       <c r="AF46" s="90"/>
       <c r="AG46" s="90"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="54"/>
       <c r="B47" s="78"/>
       <c r="C47" s="81"/>
@@ -19086,7 +19174,7 @@
       <c r="AF47" s="90"/>
       <c r="AG47" s="90"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="54"/>
       <c r="B48" s="78"/>
       <c r="C48" s="81"/>
@@ -19116,7 +19204,7 @@
       <c r="AF48" s="90"/>
       <c r="AG48" s="90"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="54"/>
       <c r="B49" s="78"/>
       <c r="C49" s="81"/>
@@ -19146,7 +19234,7 @@
       <c r="AF49" s="90"/>
       <c r="AG49" s="90"/>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="54"/>
       <c r="B50" s="78"/>
       <c r="C50" s="81"/>
@@ -19176,7 +19264,7 @@
       <c r="AF50" s="90"/>
       <c r="AG50" s="90"/>
     </row>
-    <row r="51" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="54"/>
       <c r="B51" s="79"/>
       <c r="C51" s="82"/>
@@ -19206,7 +19294,7 @@
       <c r="AF51" s="91"/>
       <c r="AG51" s="91"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -19218,7 +19306,7 @@
       <c r="J52" s="54"/>
       <c r="K52" s="54"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="54"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
@@ -19230,7 +19318,7 @@
       <c r="J53" s="54"/>
       <c r="K53" s="54"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="54"/>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
@@ -19242,7 +19330,7 @@
       <c r="J54" s="54"/>
       <c r="K54" s="54"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="54"/>
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
@@ -19254,7 +19342,7 @@
       <c r="J55" s="54"/>
       <c r="K55" s="54"/>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="54"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
@@ -19266,7 +19354,7 @@
       <c r="J56" s="54"/>
       <c r="K56" s="54"/>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="54"/>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -19278,7 +19366,7 @@
       <c r="J57" s="54"/>
       <c r="K57" s="54"/>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="54"/>
       <c r="B58" s="54"/>
       <c r="C58" s="54"/>
@@ -19290,7 +19378,7 @@
       <c r="J58" s="54"/>
       <c r="K58" s="54"/>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
       <c r="B59" s="54"/>
       <c r="C59" s="54"/>
@@ -19302,7 +19390,7 @@
       <c r="J59" s="54"/>
       <c r="K59" s="54"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="54"/>
       <c r="C60" s="54"/>
@@ -19314,7 +19402,7 @@
       <c r="J60" s="54"/>
       <c r="K60" s="54"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
@@ -19326,7 +19414,7 @@
       <c r="J61" s="54"/>
       <c r="K61" s="54"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="54"/>
       <c r="C62" s="54"/>
@@ -19338,7 +19426,7 @@
       <c r="J62" s="54"/>
       <c r="K62" s="54"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="72"/>
       <c r="G63" s="54"/>
       <c r="H63" s="54"/>
@@ -19346,7 +19434,7 @@
       <c r="J63" s="54"/>
       <c r="K63" s="54"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="G64" s="54"/>
       <c r="H64" s="54"/>
@@ -19354,7 +19442,7 @@
       <c r="J64" s="54"/>
       <c r="K64" s="54"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="72"/>
       <c r="G65" s="54"/>
       <c r="H65" s="54"/>
@@ -19362,31 +19450,31 @@
       <c r="J65" s="54"/>
       <c r="K65" s="54"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="72"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="72"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="72"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="72"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="72"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="72"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="72"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="72"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="72"/>
     </row>
   </sheetData>
@@ -19521,189 +19609,189 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="53"/>
-    <col min="4" max="4" width="12.44140625" style="53" customWidth="1"/>
-    <col min="5" max="12" width="8.6640625" style="53"/>
-    <col min="13" max="13" width="18.109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="8.6640625" style="53"/>
-    <col min="20" max="20" width="17.109375" style="53" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="8.6640625" style="53"/>
+    <col min="1" max="3" width="8.7109375" style="53"/>
+    <col min="4" max="4" width="12.42578125" style="53" customWidth="1"/>
+    <col min="5" max="12" width="8.7109375" style="53"/>
+    <col min="13" max="13" width="18.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8.7109375" style="53"/>
+    <col min="20" max="20" width="17.140625" style="53" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="8.7109375" style="53"/>
     <col min="26" max="26" width="12" style="53" customWidth="1"/>
-    <col min="27" max="28" width="8.6640625" style="53"/>
+    <col min="27" max="28" width="8.7109375" style="53"/>
     <col min="29" max="29" width="12" style="53" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" style="53" customWidth="1"/>
-    <col min="31" max="31" width="14.44140625" style="53" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="53" customWidth="1"/>
-    <col min="33" max="16384" width="8.6640625" style="53"/>
+    <col min="30" max="30" width="10.85546875" style="53" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="53" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="53" customWidth="1"/>
+    <col min="33" max="16384" width="8.7109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="167" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="171" t="s">
+    <row r="1" spans="2:33" s="166" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="170" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="169" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="170" t="s">
+      <c r="D1" s="169" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="172" t="s">
+      <c r="E1" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="171" t="s">
+      <c r="G1" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="170" t="s">
+      <c r="H1" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="170" t="s">
+      <c r="I1" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="172" t="s">
+      <c r="J1" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="171" t="s">
+      <c r="L1" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="172" t="s">
+      <c r="M1" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="172" t="s">
+      <c r="N1" s="171" t="s">
         <v>165</v>
       </c>
-      <c r="P1" s="171" t="s">
+      <c r="P1" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="170" t="s">
+      <c r="Q1" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="170" t="s">
+      <c r="R1" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="170" t="s">
+      <c r="S1" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="170" t="s">
+      <c r="T1" s="169" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="170" t="s">
+      <c r="U1" s="169" t="s">
         <v>139</v>
       </c>
-      <c r="V1" s="170" t="s">
+      <c r="V1" s="169" t="s">
         <v>140</v>
       </c>
-      <c r="W1" s="170" t="s">
+      <c r="W1" s="169" t="s">
         <v>137</v>
       </c>
-      <c r="X1" s="170" t="s">
+      <c r="X1" s="169" t="s">
         <v>138</v>
       </c>
-      <c r="Y1" s="170" t="s">
+      <c r="Y1" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="170" t="s">
+      <c r="Z1" s="169" t="s">
         <v>141</v>
       </c>
-      <c r="AA1" s="170" t="s">
+      <c r="AA1" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="170" t="s">
+      <c r="AB1" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="170" t="s">
+      <c r="AC1" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="170" t="s">
+      <c r="AD1" s="169" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="169" t="s">
+      <c r="AE1" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="AF1" s="169" t="s">
+      <c r="AF1" s="168" t="s">
         <v>179</v>
       </c>
-      <c r="AG1" s="168" t="s">
+      <c r="AG1" s="167" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B2" s="53">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B2" s="13">
         <v>3</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="2">
         <v>65</v>
       </c>
-      <c r="G2" s="156">
+      <c r="G2" s="165">
         <v>0.215</v>
       </c>
-      <c r="H2" s="155">
+      <c r="H2" s="164">
         <v>1.383</v>
       </c>
-      <c r="I2" s="155" t="s">
+      <c r="I2" s="164" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="154" t="s">
+      <c r="J2" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="166">
+      <c r="L2" s="165">
         <v>1</v>
       </c>
-      <c r="M2" s="165">
+      <c r="M2" s="164">
         <v>0.1</v>
       </c>
-      <c r="N2" s="164">
+      <c r="N2" s="163">
         <v>1</v>
       </c>
-      <c r="P2" s="158">
+      <c r="P2" s="157">
         <v>1</v>
       </c>
-      <c r="Q2" s="158">
-        <v>0</v>
-      </c>
-      <c r="R2" s="158">
+      <c r="Q2" s="157">
+        <v>0</v>
+      </c>
+      <c r="R2" s="157">
         <v>1.7</v>
       </c>
-      <c r="S2" s="158" t="s">
+      <c r="S2" s="157" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="174" t="s">
+      <c r="T2" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="U2" s="163">
+      <c r="U2" s="162">
         <v>0.5</v>
       </c>
-      <c r="V2" s="163">
+      <c r="V2" s="162">
         <v>0.25</v>
       </c>
-      <c r="W2" s="163">
+      <c r="W2" s="162">
         <v>2.5</v>
       </c>
-      <c r="X2" s="163">
+      <c r="X2" s="162">
         <v>2.5</v>
       </c>
-      <c r="Y2" s="163">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="163">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="157">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="163">
+      <c r="Y2" s="162">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="162">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="156">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="162">
         <v>9</v>
       </c>
-      <c r="AC2" s="163">
+      <c r="AC2" s="162">
         <f>1/1.25</f>
         <v>0.8</v>
       </c>
@@ -19719,81 +19807,81 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="53">
+    <row r="3" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="7">
         <v>60</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="8">
         <v>50</v>
       </c>
-      <c r="G3" s="156">
+      <c r="G3" s="155">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H3" s="155">
+      <c r="H3" s="189">
         <v>3</v>
       </c>
-      <c r="I3" s="155" t="s">
+      <c r="I3" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="154" t="s">
+      <c r="J3" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="L3" s="156">
+      <c r="L3" s="155">
         <v>2</v>
       </c>
-      <c r="M3" s="155">
+      <c r="M3" s="154">
         <v>3</v>
       </c>
-      <c r="N3" s="154">
-        <v>0</v>
-      </c>
-      <c r="P3" s="158">
+      <c r="N3" s="153">
+        <v>0</v>
+      </c>
+      <c r="P3" s="157">
         <v>2</v>
       </c>
-      <c r="Q3" s="158">
+      <c r="Q3" s="157">
         <f t="shared" ref="Q3:Q11" si="1">R2</f>
         <v>1.7</v>
       </c>
-      <c r="R3" s="158">
+      <c r="R3" s="157">
         <v>2.5</v>
       </c>
-      <c r="S3" s="158" t="s">
+      <c r="S3" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="T3" s="174" t="s">
+      <c r="T3" s="172" t="s">
         <v>203</v>
       </c>
-      <c r="U3" s="157">
+      <c r="U3" s="156">
         <v>0.5</v>
       </c>
-      <c r="V3" s="157">
+      <c r="V3" s="156">
         <v>0.25</v>
       </c>
-      <c r="W3" s="157">
+      <c r="W3" s="156">
         <v>2.5</v>
       </c>
-      <c r="X3" s="157">
+      <c r="X3" s="156">
         <v>2.5</v>
       </c>
-      <c r="Y3" s="157">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="157">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="157">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="157">
+      <c r="Y3" s="156">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="156">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="156">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="156">
         <v>9</v>
       </c>
-      <c r="AC3" s="157">
+      <c r="AC3" s="156">
         <v>0.8</v>
       </c>
       <c r="AD3" s="53">
@@ -19807,69 +19895,69 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="G4" s="156">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G4" s="155">
         <v>1.25</v>
       </c>
-      <c r="H4" s="155">
+      <c r="H4" s="189">
         <v>1.27</v>
       </c>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="154" t="s">
+      <c r="J4" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="L4" s="156">
+      <c r="L4" s="155">
         <v>3</v>
       </c>
-      <c r="M4" s="155">
+      <c r="M4" s="154">
         <v>3.7</v>
       </c>
-      <c r="N4" s="154">
-        <v>0</v>
-      </c>
-      <c r="P4" s="158">
+      <c r="N4" s="153">
+        <v>0</v>
+      </c>
+      <c r="P4" s="157">
         <v>3</v>
       </c>
-      <c r="Q4" s="158">
+      <c r="Q4" s="157">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="R4" s="158">
+      <c r="R4" s="157">
         <v>4</v>
       </c>
-      <c r="S4" s="158" t="s">
+      <c r="S4" s="157" t="s">
         <v>184</v>
       </c>
-      <c r="T4" s="174" t="s">
+      <c r="T4" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="U4" s="157">
+      <c r="U4" s="156">
         <v>0.5</v>
       </c>
-      <c r="V4" s="157">
+      <c r="V4" s="156">
         <v>0.25</v>
       </c>
-      <c r="W4" s="157">
+      <c r="W4" s="156">
         <v>2.5</v>
       </c>
-      <c r="X4" s="157">
+      <c r="X4" s="156">
         <v>2.5</v>
       </c>
-      <c r="Y4" s="157">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="157">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="157">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="157">
+      <c r="Y4" s="156">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="156">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="156">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="156">
         <v>9</v>
       </c>
-      <c r="AC4" s="157">
+      <c r="AC4" s="156">
         <v>0.8</v>
       </c>
       <c r="AD4" s="53">
@@ -19883,69 +19971,69 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="G5" s="156">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G5" s="155">
         <v>1.35</v>
       </c>
-      <c r="H5" s="155">
+      <c r="H5" s="189">
         <v>1.27</v>
       </c>
-      <c r="I5" s="155" t="s">
+      <c r="I5" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J5" s="154" t="s">
+      <c r="J5" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="L5" s="156">
+      <c r="L5" s="155">
         <v>4</v>
       </c>
-      <c r="M5" s="155">
+      <c r="M5" s="154">
         <v>5</v>
       </c>
-      <c r="N5" s="154">
-        <v>0</v>
-      </c>
-      <c r="P5" s="158">
+      <c r="N5" s="153">
+        <v>0</v>
+      </c>
+      <c r="P5" s="157">
         <v>4</v>
       </c>
-      <c r="Q5" s="158">
+      <c r="Q5" s="157">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="R5" s="158">
+      <c r="R5" s="157">
         <v>5.5</v>
       </c>
-      <c r="S5" s="158" t="s">
+      <c r="S5" s="157" t="s">
         <v>184</v>
       </c>
-      <c r="T5" s="174" t="s">
+      <c r="T5" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="U5" s="157">
+      <c r="U5" s="156">
         <v>0.5</v>
       </c>
-      <c r="V5" s="157">
+      <c r="V5" s="156">
         <v>0.25</v>
       </c>
-      <c r="W5" s="157">
+      <c r="W5" s="156">
         <v>2.5</v>
       </c>
-      <c r="X5" s="157">
+      <c r="X5" s="156">
         <v>2.5</v>
       </c>
-      <c r="Y5" s="157">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="157">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="157">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="157">
+      <c r="Y5" s="156">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="156">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="156">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="156">
         <v>9</v>
       </c>
-      <c r="AC5" s="157">
+      <c r="AC5" s="156">
         <v>0.8</v>
       </c>
       <c r="AD5" s="53">
@@ -19959,69 +20047,69 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="G6" s="156">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G6" s="155">
         <v>2</v>
       </c>
-      <c r="H6" s="155">
+      <c r="H6" s="189">
         <v>1.325</v>
       </c>
-      <c r="I6" s="155" t="s">
+      <c r="I6" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J6" s="154" t="s">
+      <c r="J6" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="156">
+      <c r="L6" s="155">
         <v>5</v>
       </c>
-      <c r="M6" s="155">
+      <c r="M6" s="154">
         <v>6</v>
       </c>
-      <c r="N6" s="154">
-        <v>0</v>
-      </c>
-      <c r="P6" s="158">
+      <c r="N6" s="153">
+        <v>0</v>
+      </c>
+      <c r="P6" s="157">
         <v>5</v>
       </c>
-      <c r="Q6" s="158">
+      <c r="Q6" s="157">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="R6" s="158">
+      <c r="R6" s="157">
         <v>9</v>
       </c>
-      <c r="S6" s="158" t="s">
+      <c r="S6" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="T6" s="174" t="s">
+      <c r="T6" s="172" t="s">
         <v>203</v>
       </c>
-      <c r="U6" s="157">
+      <c r="U6" s="156">
         <v>0.5</v>
       </c>
-      <c r="V6" s="157">
+      <c r="V6" s="156">
         <v>0.25</v>
       </c>
-      <c r="W6" s="157">
+      <c r="W6" s="156">
         <v>2.5</v>
       </c>
-      <c r="X6" s="157">
+      <c r="X6" s="156">
         <v>2.5</v>
       </c>
-      <c r="Y6" s="157">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="157">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="157">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="157">
+      <c r="Y6" s="156">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="156">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="156">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="156">
         <v>9</v>
       </c>
-      <c r="AC6" s="157">
+      <c r="AC6" s="156">
         <v>0.8</v>
       </c>
       <c r="AD6" s="53">
@@ -20035,69 +20123,69 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="G7" s="156">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G7" s="155">
         <v>2.7149999999999999</v>
       </c>
-      <c r="H7" s="155">
+      <c r="H7" s="189">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I7" s="155" t="s">
+      <c r="I7" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J7" s="154" t="s">
+      <c r="J7" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="L7" s="156">
+      <c r="L7" s="155">
         <v>6</v>
       </c>
-      <c r="M7" s="155">
+      <c r="M7" s="154">
         <v>7.3</v>
       </c>
-      <c r="N7" s="154">
-        <v>0</v>
-      </c>
-      <c r="P7" s="158">
+      <c r="N7" s="153">
+        <v>0</v>
+      </c>
+      <c r="P7" s="157">
         <v>6</v>
       </c>
-      <c r="Q7" s="158">
+      <c r="Q7" s="157">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="R7" s="158">
+      <c r="R7" s="157">
         <v>14</v>
       </c>
-      <c r="S7" s="158" t="s">
+      <c r="S7" s="157" t="s">
         <v>184</v>
       </c>
-      <c r="T7" s="174" t="s">
+      <c r="T7" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="U7" s="157">
+      <c r="U7" s="156">
         <v>0.5</v>
       </c>
-      <c r="V7" s="157">
+      <c r="V7" s="156">
         <v>0.25</v>
       </c>
-      <c r="W7" s="157">
+      <c r="W7" s="156">
         <v>2.5</v>
       </c>
-      <c r="X7" s="157">
+      <c r="X7" s="156">
         <v>2.5</v>
       </c>
-      <c r="Y7" s="157">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="157">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="157">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="157">
+      <c r="Y7" s="156">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="156">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="156">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="156">
         <v>9</v>
       </c>
-      <c r="AC7" s="157">
+      <c r="AC7" s="156">
         <v>0.8</v>
       </c>
       <c r="AD7" s="53">
@@ -20111,69 +20199,69 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="G8" s="156">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G8" s="155">
         <v>2.8149999999999999</v>
       </c>
-      <c r="H8" s="155">
+      <c r="H8" s="189">
         <v>1.23</v>
       </c>
-      <c r="I8" s="155" t="s">
+      <c r="I8" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J8" s="154" t="s">
+      <c r="J8" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="L8" s="156">
+      <c r="L8" s="155">
         <v>7</v>
       </c>
-      <c r="M8" s="155">
+      <c r="M8" s="154">
         <v>10</v>
       </c>
-      <c r="N8" s="154">
-        <v>0</v>
-      </c>
-      <c r="P8" s="158">
+      <c r="N8" s="153">
+        <v>0</v>
+      </c>
+      <c r="P8" s="157">
         <v>7</v>
       </c>
-      <c r="Q8" s="158">
+      <c r="Q8" s="157">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="R8" s="158">
+      <c r="R8" s="157">
         <v>25</v>
       </c>
-      <c r="S8" s="158" t="s">
+      <c r="S8" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="T8" s="174" t="s">
+      <c r="T8" s="172" t="s">
         <v>203</v>
       </c>
-      <c r="U8" s="157">
+      <c r="U8" s="156">
         <v>0.5</v>
       </c>
-      <c r="V8" s="157">
+      <c r="V8" s="156">
         <v>0.25</v>
       </c>
-      <c r="W8" s="157">
+      <c r="W8" s="156">
         <v>2.5</v>
       </c>
-      <c r="X8" s="157">
+      <c r="X8" s="156">
         <v>2.5</v>
       </c>
-      <c r="Y8" s="157">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="157">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="157">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="157">
+      <c r="Y8" s="156">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="156">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="156">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="156">
         <v>9</v>
       </c>
-      <c r="AC8" s="157">
+      <c r="AC8" s="156">
         <v>0.8</v>
       </c>
       <c r="AD8" s="53">
@@ -20187,69 +20275,69 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="G9" s="156">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G9" s="155">
         <v>2.8849999999999998</v>
       </c>
-      <c r="H9" s="155">
+      <c r="H9" s="189">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I9" s="155" t="s">
+      <c r="I9" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J9" s="154" t="s">
+      <c r="J9" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="L9" s="156">
+      <c r="L9" s="155">
         <v>8</v>
       </c>
-      <c r="M9" s="155">
+      <c r="M9" s="154">
         <v>12.93</v>
       </c>
-      <c r="N9" s="154">
-        <v>0</v>
-      </c>
-      <c r="P9" s="158">
+      <c r="N9" s="153">
+        <v>0</v>
+      </c>
+      <c r="P9" s="157">
         <v>8</v>
       </c>
-      <c r="Q9" s="158">
+      <c r="Q9" s="157">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="R9" s="158">
+      <c r="R9" s="157">
         <v>40.299999999999997</v>
       </c>
-      <c r="S9" s="158" t="s">
+      <c r="S9" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="T9" s="174" t="s">
+      <c r="T9" s="172" t="s">
         <v>203</v>
       </c>
-      <c r="U9" s="157">
+      <c r="U9" s="156">
         <v>0.5</v>
       </c>
-      <c r="V9" s="157">
+      <c r="V9" s="156">
         <v>0.25</v>
       </c>
-      <c r="W9" s="157">
+      <c r="W9" s="156">
         <v>2.5</v>
       </c>
-      <c r="X9" s="157">
+      <c r="X9" s="156">
         <v>2.5</v>
       </c>
-      <c r="Y9" s="157">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="157">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="157">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="157">
+      <c r="Y9" s="156">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="156">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="156">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="156">
         <v>9</v>
       </c>
-      <c r="AC9" s="157">
+      <c r="AC9" s="156">
         <v>0.8</v>
       </c>
       <c r="AD9" s="53">
@@ -20262,71 +20350,71 @@
       <c r="AF9" s="53">
         <v>0.8</v>
       </c>
-      <c r="AG9" s="162"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="G10" s="156">
+      <c r="AG9" s="161"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G10" s="155">
         <v>2.89</v>
       </c>
-      <c r="H10" s="155">
+      <c r="H10" s="189">
         <v>1.23</v>
       </c>
-      <c r="I10" s="155" t="s">
+      <c r="I10" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J10" s="154" t="s">
+      <c r="J10" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="156">
+      <c r="L10" s="155">
         <v>9</v>
       </c>
-      <c r="M10" s="155">
+      <c r="M10" s="154">
         <v>17.399999999999999</v>
       </c>
-      <c r="N10" s="154">
-        <v>0</v>
-      </c>
-      <c r="P10" s="158">
+      <c r="N10" s="153">
+        <v>0</v>
+      </c>
+      <c r="P10" s="157">
         <v>9</v>
       </c>
-      <c r="Q10" s="158">
+      <c r="Q10" s="157">
         <f t="shared" si="1"/>
         <v>40.299999999999997</v>
       </c>
-      <c r="R10" s="158">
+      <c r="R10" s="157">
         <v>43.8</v>
       </c>
-      <c r="S10" s="158" t="s">
+      <c r="S10" s="157" t="s">
         <v>184</v>
       </c>
-      <c r="T10" s="174" t="s">
+      <c r="T10" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="U10" s="157">
+      <c r="U10" s="156">
         <v>0.5</v>
       </c>
-      <c r="V10" s="157">
+      <c r="V10" s="156">
         <v>0.25</v>
       </c>
-      <c r="W10" s="157">
+      <c r="W10" s="156">
         <v>2.5</v>
       </c>
-      <c r="X10" s="157">
+      <c r="X10" s="156">
         <v>2.5</v>
       </c>
-      <c r="Y10" s="157">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="157">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="157">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="157">
+      <c r="Y10" s="156">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="156">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="156">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="156">
         <v>9</v>
       </c>
-      <c r="AC10" s="157">
+      <c r="AC10" s="156">
         <v>0.8</v>
       </c>
       <c r="AD10" s="53">
@@ -20339,71 +20427,71 @@
       <c r="AF10" s="53">
         <v>1.25</v>
       </c>
-      <c r="AG10" s="162"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="G11" s="156">
+      <c r="AG10" s="161"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G11" s="155">
         <v>3.165</v>
       </c>
-      <c r="H11" s="155">
+      <c r="H11" s="189">
         <v>1.23</v>
       </c>
-      <c r="I11" s="155" t="s">
+      <c r="I11" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J11" s="154" t="s">
+      <c r="J11" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="L11" s="156">
+      <c r="L11" s="155">
         <v>10</v>
       </c>
-      <c r="M11" s="155">
+      <c r="M11" s="154">
         <v>25</v>
       </c>
-      <c r="N11" s="154">
-        <v>0</v>
-      </c>
-      <c r="P11" s="158">
+      <c r="N11" s="153">
+        <v>0</v>
+      </c>
+      <c r="P11" s="157">
         <v>10</v>
       </c>
-      <c r="Q11" s="158">
+      <c r="Q11" s="157">
         <f t="shared" si="1"/>
         <v>43.8</v>
       </c>
-      <c r="R11" s="158">
+      <c r="R11" s="157">
         <v>95</v>
       </c>
-      <c r="S11" s="158" t="s">
+      <c r="S11" s="157" t="s">
         <v>185</v>
       </c>
-      <c r="T11" s="174" t="s">
+      <c r="T11" s="172" t="s">
         <v>203</v>
       </c>
-      <c r="U11" s="157">
+      <c r="U11" s="156">
         <v>0.5</v>
       </c>
-      <c r="V11" s="157">
+      <c r="V11" s="156">
         <v>0.25</v>
       </c>
-      <c r="W11" s="157">
+      <c r="W11" s="156">
         <v>2.5</v>
       </c>
-      <c r="X11" s="157">
+      <c r="X11" s="156">
         <v>2.5</v>
       </c>
-      <c r="Y11" s="157">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="157">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="157">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="157">
+      <c r="Y11" s="156">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="156">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="156">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="156">
         <v>9</v>
       </c>
-      <c r="AC11" s="157">
+      <c r="AC11" s="156">
         <v>0.8</v>
       </c>
       <c r="AD11" s="53">
@@ -20416,444 +20504,413 @@
       <c r="AF11" s="53">
         <v>1.25</v>
       </c>
-      <c r="AG11" s="162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="G12" s="156">
+      <c r="AG11" s="161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G12" s="155">
         <v>3.24</v>
       </c>
-      <c r="H12" s="155">
+      <c r="H12" s="189">
         <v>1.23</v>
       </c>
-      <c r="I12" s="155" t="s">
+      <c r="I12" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J12" s="154" t="s">
+      <c r="J12" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="L12" s="156">
+      <c r="L12" s="155">
         <v>11</v>
       </c>
-      <c r="M12" s="155">
+      <c r="M12" s="154">
         <v>34</v>
       </c>
-      <c r="N12" s="154">
+      <c r="N12" s="153">
         <v>0</v>
       </c>
       <c r="P12" s="3"/>
       <c r="AE12" s="5"/>
-      <c r="AG12" s="162"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="G13" s="156">
+      <c r="AG12" s="161"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G13" s="155">
         <v>3.3</v>
       </c>
-      <c r="H13" s="155">
+      <c r="H13" s="189">
         <v>3</v>
       </c>
-      <c r="I13" s="155" t="s">
+      <c r="I13" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="J13" s="154" t="s">
+      <c r="J13" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="L13" s="156">
+      <c r="L13" s="155">
         <v>12</v>
       </c>
-      <c r="M13" s="155">
+      <c r="M13" s="154">
         <v>51</v>
       </c>
-      <c r="N13" s="154">
+      <c r="N13" s="153">
         <v>0</v>
       </c>
       <c r="P13" s="3"/>
       <c r="AE13" s="5"/>
-      <c r="AG13" s="162"/>
-    </row>
-    <row r="14" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="156">
+      <c r="AG13" s="161"/>
+    </row>
+    <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="155">
         <v>3.4</v>
       </c>
-      <c r="H14" s="155">
+      <c r="H14" s="189">
         <v>3</v>
       </c>
-      <c r="I14" s="155" t="s">
+      <c r="I14" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="J14" s="154" t="s">
+      <c r="J14" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="L14" s="161">
+      <c r="L14" s="160">
         <v>13</v>
       </c>
-      <c r="M14" s="160">
+      <c r="M14" s="159">
         <f>SUM(D2:D36)-5</f>
         <v>67</v>
       </c>
-      <c r="N14" s="159">
+      <c r="N14" s="158">
         <v>0</v>
       </c>
       <c r="P14" s="3"/>
       <c r="AE14" s="5"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="G15" s="156">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G15" s="155">
         <v>3.6819999999999999</v>
       </c>
-      <c r="H15" s="155">
+      <c r="H15" s="189">
         <v>1.07</v>
       </c>
-      <c r="I15" s="155" t="s">
+      <c r="I15" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J15" s="154" t="s">
+      <c r="J15" s="153" t="s">
         <v>163</v>
       </c>
       <c r="P15" s="3"/>
       <c r="AE15" s="5"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="G16" s="156">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="G16" s="155">
         <v>3.6970000000000001</v>
       </c>
-      <c r="H16" s="155">
+      <c r="H16" s="189">
         <v>1.07</v>
       </c>
-      <c r="I16" s="155" t="s">
+      <c r="I16" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="154" t="s">
+      <c r="J16" s="153" t="s">
         <v>163</v>
       </c>
       <c r="P16" s="3"/>
       <c r="AE16" s="5"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="G17" s="156">
+    <row r="17" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G17" s="155">
         <v>3.722</v>
       </c>
-      <c r="H17" s="155">
+      <c r="H17" s="189">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I17" s="155" t="s">
+      <c r="I17" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J17" s="154" t="s">
+      <c r="J17" s="153" t="s">
         <v>163</v>
       </c>
       <c r="P17" s="3"/>
       <c r="AE17" s="5"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="G18" s="156">
+    <row r="18" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G18" s="155">
         <v>4.077</v>
       </c>
-      <c r="H18" s="155">
+      <c r="H18" s="189">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I18" s="155" t="s">
+      <c r="I18" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J18" s="154" t="s">
+      <c r="J18" s="153" t="s">
         <v>163</v>
       </c>
       <c r="P18" s="3"/>
       <c r="AE18" s="5"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="G19" s="156">
+    <row r="19" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G19" s="155">
         <v>4.125</v>
       </c>
-      <c r="H19" s="155">
+      <c r="H19" s="189">
         <v>3</v>
       </c>
-      <c r="I19" s="155" t="s">
+      <c r="I19" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="J19" s="154" t="s">
+      <c r="J19" s="153" t="s">
         <v>163</v>
       </c>
       <c r="P19" s="3"/>
       <c r="AE19" s="5"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="G20" s="156">
+    <row r="20" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G20" s="155">
         <v>5.2</v>
       </c>
-      <c r="H20" s="155">
+      <c r="H20" s="189">
         <v>1.0509999999999999</v>
       </c>
-      <c r="I20" s="155" t="s">
+      <c r="I20" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J20" s="154" t="s">
+      <c r="J20" s="153" t="s">
         <v>63</v>
       </c>
       <c r="P20" s="3"/>
       <c r="AE20" s="5"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="G21" s="156">
+    <row r="21" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G21" s="155">
         <v>6.9320000000000004</v>
       </c>
-      <c r="H21" s="155">
+      <c r="H21" s="189">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I21" s="155" t="s">
+      <c r="I21" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J21" s="154" t="s">
+      <c r="J21" s="153" t="s">
         <v>163</v>
       </c>
       <c r="P21" s="3"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="G22" s="156">
+    <row r="22" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G22" s="155">
         <v>7.2880000000000003</v>
       </c>
-      <c r="H22" s="155">
+      <c r="H22" s="189">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I22" s="155" t="s">
+      <c r="I22" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J22" s="154" t="s">
+      <c r="J22" s="153" t="s">
         <v>163</v>
       </c>
       <c r="P22" s="3"/>
       <c r="AE22" s="5"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="G23" s="156">
+    <row r="23" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G23" s="155">
         <v>8.6</v>
       </c>
-      <c r="H23" s="155">
+      <c r="H23" s="189">
         <v>0.97599999999999998</v>
       </c>
-      <c r="I23" s="155" t="s">
+      <c r="I23" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J23" s="154" t="s">
+      <c r="J23" s="153" t="s">
         <v>63</v>
       </c>
       <c r="P23" s="3"/>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="G24" s="156">
+    <row r="24" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G24" s="155">
         <v>12.1</v>
       </c>
-      <c r="H24" s="155">
+      <c r="H24" s="189">
         <v>1.0509999999999999</v>
       </c>
-      <c r="I24" s="155" t="s">
+      <c r="I24" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J24" s="154" t="s">
+      <c r="J24" s="153" t="s">
         <v>63</v>
       </c>
       <c r="P24" s="3"/>
       <c r="AE24" s="5"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="G25" s="156">
+    <row r="25" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G25" s="155">
         <v>13.092000000000001</v>
       </c>
-      <c r="H25" s="155">
+      <c r="H25" s="189">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I25" s="155" t="s">
+      <c r="I25" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J25" s="154" t="s">
+      <c r="J25" s="153" t="s">
         <v>163</v>
       </c>
       <c r="P25" s="3"/>
       <c r="AE25" s="5"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="G26" s="156">
+    <row r="26" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G26" s="155">
         <v>13.448</v>
       </c>
-      <c r="H26" s="155">
+      <c r="H26" s="189">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I26" s="155" t="s">
+      <c r="I26" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J26" s="154" t="s">
+      <c r="J26" s="153" t="s">
         <v>163</v>
       </c>
       <c r="P26" s="3"/>
       <c r="AE26" s="5"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="G27" s="156">
+    <row r="27" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G27" s="155">
         <v>15</v>
       </c>
-      <c r="H27" s="155">
+      <c r="H27" s="189">
         <v>1.524</v>
       </c>
-      <c r="I27" s="155" t="s">
+      <c r="I27" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J27" s="154" t="s">
+      <c r="J27" s="153" t="s">
         <v>63</v>
       </c>
       <c r="P27" s="3"/>
       <c r="AE27" s="5"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="G28" s="156">
+    <row r="28" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G28" s="155">
         <v>17</v>
       </c>
-      <c r="H28" s="155">
+      <c r="H28" s="189">
         <v>2</v>
       </c>
-      <c r="I28" s="155" t="s">
+      <c r="I28" s="189" t="s">
         <v>162</v>
       </c>
-      <c r="J28" s="154" t="s">
+      <c r="J28" s="153" t="s">
         <v>163</v>
       </c>
       <c r="P28" s="3"/>
       <c r="AE28" s="5"/>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="D29" s="173"/>
-      <c r="G29" s="156">
+    <row r="29" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G29" s="155">
         <v>19</v>
       </c>
-      <c r="H29" s="155">
+      <c r="H29" s="189">
         <v>1.145</v>
       </c>
-      <c r="I29" s="155" t="s">
+      <c r="I29" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J29" s="154" t="s">
+      <c r="J29" s="153" t="s">
         <v>63</v>
       </c>
       <c r="P29" s="3"/>
       <c r="AE29" s="5"/>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="D30" s="173"/>
-      <c r="G30" s="156">
+    <row r="30" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G30" s="155">
         <v>21.8</v>
       </c>
-      <c r="H30" s="155">
+      <c r="H30" s="189">
         <v>1.4</v>
       </c>
-      <c r="I30" s="155" t="s">
+      <c r="I30" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J30" s="154" t="s">
+      <c r="J30" s="153" t="s">
         <v>163</v>
       </c>
       <c r="P30" s="3"/>
       <c r="AE30" s="5"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="5"/>
-      <c r="G31" s="156">
+    <row r="31" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G31" s="155">
         <v>22.2</v>
       </c>
-      <c r="H31" s="155">
+      <c r="H31" s="189">
         <v>1.4</v>
       </c>
-      <c r="I31" s="155" t="s">
+      <c r="I31" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="154" t="s">
+      <c r="J31" s="153" t="s">
         <v>163</v>
       </c>
       <c r="P31" s="3"/>
       <c r="AE31" s="5"/>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="5"/>
-      <c r="G32" s="156">
+    <row r="32" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G32" s="155">
         <v>23</v>
       </c>
-      <c r="H32" s="155">
+      <c r="H32" s="189">
         <v>1.143</v>
       </c>
-      <c r="I32" s="155" t="s">
+      <c r="I32" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J32" s="154" t="s">
+      <c r="J32" s="153" t="s">
         <v>63</v>
       </c>
       <c r="P32" s="3"/>
       <c r="AE32" s="5"/>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="5"/>
-      <c r="G33" s="156">
+    <row r="33" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G33" s="155">
         <v>27</v>
       </c>
-      <c r="H33" s="155">
+      <c r="H33" s="189">
         <v>1.048</v>
       </c>
-      <c r="I33" s="155" t="s">
+      <c r="I33" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="J33" s="154" t="s">
+      <c r="J33" s="153" t="s">
         <v>63</v>
       </c>
       <c r="P33" s="3"/>
       <c r="AE33" s="5"/>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="5"/>
-      <c r="G34" s="156">
+    <row r="34" spans="7:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="160">
         <v>31</v>
       </c>
-      <c r="H34" s="155">
+      <c r="H34" s="159">
         <v>1.18</v>
       </c>
-      <c r="I34" s="155" t="s">
+      <c r="I34" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="J34" s="154" t="s">
+      <c r="J34" s="158" t="s">
         <v>63</v>
       </c>
       <c r="P34" s="3"/>
       <c r="AE34" s="5"/>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="5"/>
-      <c r="G35" s="3"/>
-      <c r="J35" s="5"/>
+    <row r="35" spans="7:31" x14ac:dyDescent="0.25">
       <c r="P35" s="3"/>
       <c r="AE35" s="5"/>
     </row>
-    <row r="36" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="8"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
-      <c r="J36" s="5"/>
+    <row r="36" spans="7:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P36" s="6"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -20871,195 +20928,53 @@
       <c r="AD36" s="7"/>
       <c r="AE36" s="8"/>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="153" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="153" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="153" t="s">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="153" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="153" t="s">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="53" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="153" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="53" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="153" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="53" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="153" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="53" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="153" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="53" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="153" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="53" t="s">
         <v>186</v>
       </c>
     </row>
@@ -21103,20 +21018,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39DDD79-4D68-495B-BE7A-71DC4131C6BD}">
-  <dimension ref="B1:D16"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="116" t="s">
         <v>216</v>
       </c>
@@ -21126,8 +21041,17 @@
       <c r="D2" s="116" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="116" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="116" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2" s="116" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="114" t="s">
         <v>41</v>
       </c>
@@ -21137,8 +21061,17 @@
       <c r="D3" s="114" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="114" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="114" t="s">
         <v>123</v>
       </c>
@@ -21148,8 +21081,17 @@
       <c r="D4" s="114" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="114" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="114" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="114" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="114" t="s">
         <v>68</v>
       </c>
@@ -21159,8 +21101,17 @@
       <c r="D5" s="114" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="114" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="114" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="114" t="s">
         <v>188</v>
       </c>
@@ -21168,8 +21119,17 @@
         <v>190</v>
       </c>
       <c r="D6" s="114"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="114" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="114" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="114" t="s">
         <v>203</v>
       </c>
@@ -21177,53 +21137,90 @@
         <v>186</v>
       </c>
       <c r="D7" s="114"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="114"/>
+      <c r="F7" s="114" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="114" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="115"/>
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input/PDAcalc.xlsx
+++ b/Input/PDAcalc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ADD6D0-A5AC-4453-8127-8AF5360C0BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91C22E5-CBF7-4844-831A-F007E664DA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="652" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1416" windowWidth="23256" windowHeight="12576" tabRatio="652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATIONS" sheetId="66" r:id="rId1"/>
@@ -386,6 +386,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB25" authorId="0" shapeId="0" xr:uid="{2A9C6DEB-CD8F-4919-AF0A-E8E7B095418B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0 = normal driving
+1 = hybrid driving, depth is distance from embedment depth
+2 = hybrid driving, depth is distance from mudline</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0" xr:uid="{576C90F1-D1EC-4115-B2DF-9179E2FEAB98}">
       <text>
         <r>
@@ -744,7 +770,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="299">
   <si>
     <t>Setting</t>
   </si>
@@ -1635,13 +1661,22 @@
   </si>
   <si>
     <t>Lehane</t>
+  </si>
+  <si>
+    <t>Hybrid pile</t>
+  </si>
+  <si>
+    <t>Hybrid driving strategy</t>
+  </si>
+  <si>
+    <t>Depth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1722,6 +1757,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2430,7 +2478,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -2760,45 +2808,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2825,6 +2834,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2833,18 +2884,7 @@
     <cellStyle name="Normal 3" xfId="3" xr:uid="{BB2A21B6-ED26-4A17-A481-3F1C823DC031}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{DC5E9318-48F4-4F4E-B624-85906B79C1B1}"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <b val="0"/>
@@ -8262,12 +8302,12 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>$D2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:W1048576">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>$A2=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8289,8 +8329,8 @@
   </sheetPr>
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8342,15 +8382,15 @@
       <c r="I2" s="148" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="179" t="s">
+      <c r="K2" s="201" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="180"/>
+      <c r="L2" s="202"/>
       <c r="M2" s="53"/>
-      <c r="N2" s="179" t="s">
+      <c r="N2" s="201" t="s">
         <v>226</v>
       </c>
-      <c r="O2" s="180"/>
+      <c r="O2" s="202"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13">
@@ -8827,10 +8867,10 @@
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
       <c r="I16" s="34"/>
-      <c r="K16" s="179" t="s">
+      <c r="K16" s="201" t="s">
         <v>216</v>
       </c>
-      <c r="L16" s="180"/>
+      <c r="L16" s="202"/>
     </row>
     <row r="17" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
@@ -8949,36 +8989,36 @@
       <c r="N22" s="53"/>
       <c r="O22" s="53"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="177" t="s">
+      <c r="B24" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="184"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="184"/>
-      <c r="G24" s="184"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="184"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="184"/>
-      <c r="S24" s="184"/>
-      <c r="T24" s="184"/>
-      <c r="U24" s="184"/>
-      <c r="V24" s="184"/>
-      <c r="W24" s="184"/>
-      <c r="X24" s="184"/>
-      <c r="Y24" s="184"/>
-      <c r="Z24" s="184"/>
-      <c r="AA24" s="178"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="200"/>
+      <c r="L24" s="200"/>
+      <c r="M24" s="200"/>
+      <c r="N24" s="200"/>
+      <c r="O24" s="200"/>
+      <c r="P24" s="200"/>
+      <c r="Q24" s="200"/>
+      <c r="R24" s="200"/>
+      <c r="S24" s="200"/>
+      <c r="T24" s="200"/>
+      <c r="U24" s="200"/>
+      <c r="V24" s="200"/>
+      <c r="W24" s="200"/>
+      <c r="X24" s="200"/>
+      <c r="Y24" s="200"/>
+      <c r="Z24" s="200"/>
+      <c r="AA24" s="200"/>
+      <c r="AB24" s="200"/>
     </row>
     <row r="25" spans="1:28" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="150" t="s">
@@ -9059,7 +9099,9 @@
       <c r="AA25" s="152" t="s">
         <v>152</v>
       </c>
-      <c r="AB25" s="53"/>
+      <c r="AB25" s="145" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="52"/>
@@ -9137,6 +9179,9 @@
         <v>0</v>
       </c>
       <c r="AA26" s="155">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="156">
         <v>0</v>
       </c>
     </row>
@@ -9219,6 +9264,9 @@
       <c r="AA27" s="156">
         <v>0</v>
       </c>
+      <c r="AB27" s="156">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="52"/>
@@ -9299,6 +9347,9 @@
       <c r="AA28" s="156">
         <v>0</v>
       </c>
+      <c r="AB28" s="156">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="52"/>
@@ -9379,6 +9430,9 @@
       <c r="AA29" s="156">
         <v>0</v>
       </c>
+      <c r="AB29" s="156">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
@@ -9459,6 +9513,9 @@
       <c r="AA30" s="156">
         <v>0</v>
       </c>
+      <c r="AB30" s="156">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
@@ -9539,6 +9596,9 @@
       <c r="AA31" s="156">
         <v>0</v>
       </c>
+      <c r="AB31" s="156">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="52"/>
@@ -9619,8 +9679,11 @@
       <c r="AA32" s="156">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB32" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="52"/>
       <c r="B33" s="52">
         <f t="shared" si="3"/>
@@ -9699,8 +9762,11 @@
       <c r="AA33" s="156">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB33" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="52"/>
       <c r="B34" s="52">
         <f t="shared" si="3"/>
@@ -9779,8 +9845,11 @@
       <c r="AA34" s="156">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB34" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="52"/>
       <c r="B35" s="52">
         <f t="shared" si="3"/>
@@ -9859,8 +9928,11 @@
       <c r="AA35" s="156">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB35" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
       <c r="B36" s="52">
         <f t="shared" si="3"/>
@@ -9939,8 +10011,11 @@
       <c r="AA36" s="156">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB36" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
       <c r="B37" s="52">
         <f t="shared" si="3"/>
@@ -10019,8 +10094,11 @@
       <c r="AA37" s="156">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB37" s="156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="142"/>
       <c r="B38" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10051,8 +10129,9 @@
       <c r="Y38" s="142"/>
       <c r="Z38" s="142"/>
       <c r="AA38" s="156"/>
-    </row>
-    <row r="39" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB38" s="156"/>
+    </row>
+    <row r="39" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="52"/>
       <c r="B39" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10083,8 +10162,9 @@
       <c r="Y39" s="142"/>
       <c r="Z39" s="142"/>
       <c r="AA39" s="156"/>
-    </row>
-    <row r="40" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB39" s="156"/>
+    </row>
+    <row r="40" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="52"/>
       <c r="B40" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10115,8 +10195,9 @@
       <c r="Y40" s="142"/>
       <c r="Z40" s="142"/>
       <c r="AA40" s="156"/>
-    </row>
-    <row r="41" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB40" s="156"/>
+    </row>
+    <row r="41" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="52"/>
       <c r="B41" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10147,8 +10228,9 @@
       <c r="Y41" s="142"/>
       <c r="Z41" s="142"/>
       <c r="AA41" s="156"/>
-    </row>
-    <row r="42" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB41" s="156"/>
+    </row>
+    <row r="42" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="52"/>
       <c r="B42" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10179,8 +10261,9 @@
       <c r="Y42" s="142"/>
       <c r="Z42" s="142"/>
       <c r="AA42" s="156"/>
-    </row>
-    <row r="43" spans="1:27" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB42" s="156"/>
+    </row>
+    <row r="43" spans="1:28" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="52"/>
       <c r="B43" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10211,8 +10294,9 @@
       <c r="Y43" s="142"/>
       <c r="Z43" s="142"/>
       <c r="AA43" s="156"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB43" s="156"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="52"/>
       <c r="B44" s="52" t="str">
         <f t="shared" si="3"/>
@@ -10243,8 +10327,9 @@
       <c r="Y44" s="142"/>
       <c r="Z44" s="142"/>
       <c r="AA44" s="156"/>
-    </row>
-    <row r="45" spans="1:27" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB44" s="156"/>
+    </row>
+    <row r="45" spans="1:28" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="52"/>
       <c r="B45" s="55" t="str">
         <f t="shared" si="3"/>
@@ -10275,33 +10360,34 @@
       <c r="Y45" s="157"/>
       <c r="Z45" s="157"/>
       <c r="AA45" s="158"/>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="181" t="s">
+      <c r="AB45" s="158"/>
+    </row>
+    <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="182"/>
-      <c r="D47" s="182"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="183"/>
-      <c r="J47" s="181" t="s">
+      <c r="C47" s="192"/>
+      <c r="D47" s="192"/>
+      <c r="E47" s="192"/>
+      <c r="F47" s="192"/>
+      <c r="G47" s="192"/>
+      <c r="H47" s="193"/>
+      <c r="J47" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="K47" s="182"/>
-      <c r="L47" s="182"/>
-      <c r="M47" s="182"/>
-      <c r="N47" s="182"/>
-      <c r="O47" s="182"/>
-      <c r="P47" s="182"/>
-      <c r="Q47" s="182"/>
-      <c r="R47" s="182"/>
-      <c r="S47" s="182"/>
-      <c r="T47" s="183"/>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K47" s="192"/>
+      <c r="L47" s="192"/>
+      <c r="M47" s="192"/>
+      <c r="N47" s="192"/>
+      <c r="O47" s="192"/>
+      <c r="P47" s="192"/>
+      <c r="Q47" s="192"/>
+      <c r="R47" s="192"/>
+      <c r="S47" s="192"/>
+      <c r="T47" s="193"/>
+    </row>
+    <row r="48" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="143" t="s">
         <v>0</v>
       </c>
@@ -10657,10 +10743,14 @@
     </row>
     <row r="62" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="177" t="s">
+      <c r="B63" s="189" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="178"/>
+      <c r="C63" s="190"/>
+      <c r="E63" s="189" t="s">
+        <v>297</v>
+      </c>
+      <c r="F63" s="190"/>
     </row>
     <row r="64" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="143" t="s">
@@ -10669,124 +10759,173 @@
       <c r="C64" s="145" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E64" s="143" t="s">
+        <v>298</v>
+      </c>
+      <c r="F64" s="145" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <v>1</v>
       </c>
       <c r="C65" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>2</v>
       </c>
       <c r="C66" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E66" s="3">
+        <v>3</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>3</v>
       </c>
       <c r="C67" s="5">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E67" s="3"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>4</v>
       </c>
       <c r="C68" s="5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E68" s="3"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>5</v>
       </c>
       <c r="C69" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E69" s="3"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>6</v>
       </c>
       <c r="C70" s="5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E70" s="3"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>7</v>
       </c>
       <c r="C71" s="5">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E71" s="3"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>8</v>
       </c>
       <c r="C72" s="5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E72" s="3"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>9</v>
       </c>
       <c r="C73" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E73" s="3"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>10</v>
       </c>
       <c r="C74" s="5">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E74" s="3"/>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E75" s="3"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E76" s="3"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E77" s="3"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E78" s="3"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E79" s="3"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="3"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
       <c r="C81" s="8"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="J47:T47"/>
-    <mergeCell ref="B24:AA24"/>
     <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B24:AB24"/>
+    <mergeCell ref="E63:F63"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X27:X33 X37:X43" xr:uid="{3900C4C6-43F3-4DF6-8675-9B5D9868FF8C}">
@@ -10866,33 +11005,33 @@
       <c r="G2" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="185" t="s">
+      <c r="H2" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="187" t="s">
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="187" t="s">
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="196" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="185"/>
-      <c r="AB2" s="186"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="195"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="95">
@@ -12048,10 +12187,10 @@
       <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="B27" s="189"/>
+      <c r="B27" s="198"/>
       <c r="D27" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12612,7 +12751,7 @@
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:AB40">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="28" priority="1">
       <formula>$D3=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15679,22 +15818,22 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="D6:AA102 D3:G3 I3 D4:I5 K3:AA5">
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>$D3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>$D4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>$D3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$D3=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16405,7 +16544,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:K4">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$D3=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16610,14 +16749,14 @@
       <c r="B14" s="20"/>
     </row>
     <row r="15" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="186"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="195"/>
     </row>
     <row r="16" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="105" t="s">
@@ -19619,92 +19758,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="U2:U18">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>$T2="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U18">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$T2="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U18">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:U46">
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>$T19="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:U46">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$T19="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U19:U46">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47:U51">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="16" priority="13">
       <formula>$T47="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47:U51">
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>$T47="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47:U51">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:AG18">
-    <cfRule type="expression" dxfId="14" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>$T2="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:AG18">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$T2="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:AG18">
-    <cfRule type="expression" dxfId="12" priority="7">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19:AG46">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$T19="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19:AG46">
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$T19="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V19:AG46">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V47:AG51">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$T47="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V47:AG51">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$T47="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V47:AG51">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19745,7 +19884,7 @@
   </sheetPr>
   <dimension ref="A1:AJ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
@@ -19901,19 +20040,19 @@
       <c r="N2" s="167">
         <v>1</v>
       </c>
-      <c r="P2" s="198">
+      <c r="P2" s="185">
         <v>1</v>
       </c>
-      <c r="Q2" s="199">
-        <v>0</v>
-      </c>
-      <c r="R2" s="199">
+      <c r="Q2" s="186">
+        <v>0</v>
+      </c>
+      <c r="R2" s="186">
         <v>0.5</v>
       </c>
-      <c r="S2" s="200" t="s">
+      <c r="S2" s="187" t="s">
         <v>189</v>
       </c>
-      <c r="T2" s="195" t="s">
+      <c r="T2" s="182" t="s">
         <v>126</v>
       </c>
       <c r="U2" s="166">
@@ -19955,16 +20094,16 @@
         <f>IF(S2="Clay",AC2,AD2)</f>
         <v>1.25</v>
       </c>
-      <c r="AG2" s="201">
+      <c r="AG2" s="188">
         <v>1</v>
       </c>
-      <c r="AH2" s="195">
+      <c r="AH2" s="182">
         <v>80</v>
       </c>
       <c r="AI2" s="166">
         <v>-0.4</v>
       </c>
-      <c r="AJ2" s="193">
+      <c r="AJ2" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -20002,7 +20141,7 @@
       <c r="N3" s="159">
         <v>0</v>
       </c>
-      <c r="P3" s="191">
+      <c r="P3" s="178">
         <v>2</v>
       </c>
       <c r="Q3" s="162">
@@ -20012,59 +20151,59 @@
       <c r="R3" s="162">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S3" s="197" t="s">
+      <c r="S3" s="184" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="196" t="s">
+      <c r="T3" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="U3" s="192">
+      <c r="U3" s="179">
         <v>0.5</v>
       </c>
-      <c r="V3" s="192">
+      <c r="V3" s="179">
         <v>0.25</v>
       </c>
-      <c r="W3" s="192">
+      <c r="W3" s="179">
         <v>2.5</v>
       </c>
-      <c r="X3" s="192">
+      <c r="X3" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y3" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="192">
+      <c r="Y3" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="179">
         <v>9</v>
       </c>
-      <c r="AC3" s="192">
+      <c r="AC3" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD3" s="192">
+      <c r="AD3" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE3" s="192">
+      <c r="AE3" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF3" s="192">
+      <c r="AF3" s="179">
         <v>0.8</v>
       </c>
-      <c r="AG3" s="193">
+      <c r="AG3" s="180">
         <v>1</v>
       </c>
-      <c r="AH3" s="196">
+      <c r="AH3" s="183">
         <v>80</v>
       </c>
-      <c r="AI3" s="192">
+      <c r="AI3" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ3" s="193">
+      <c r="AJ3" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -20090,7 +20229,7 @@
       <c r="N4" s="159">
         <v>0</v>
       </c>
-      <c r="P4" s="191">
+      <c r="P4" s="178">
         <v>3</v>
       </c>
       <c r="Q4" s="162">
@@ -20100,59 +20239,59 @@
       <c r="R4" s="162">
         <v>2</v>
       </c>
-      <c r="S4" s="197" t="s">
+      <c r="S4" s="184" t="s">
         <v>189</v>
       </c>
-      <c r="T4" s="196" t="s">
+      <c r="T4" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="U4" s="192">
+      <c r="U4" s="179">
         <v>0.5</v>
       </c>
-      <c r="V4" s="192">
+      <c r="V4" s="179">
         <v>0.25</v>
       </c>
-      <c r="W4" s="192">
+      <c r="W4" s="179">
         <v>2.5</v>
       </c>
-      <c r="X4" s="192">
+      <c r="X4" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y4" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="192">
+      <c r="Y4" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="179">
         <v>9</v>
       </c>
-      <c r="AC4" s="192">
+      <c r="AC4" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD4" s="192">
+      <c r="AD4" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE4" s="192">
+      <c r="AE4" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF4" s="192">
+      <c r="AF4" s="179">
         <v>0.8</v>
       </c>
-      <c r="AG4" s="193">
+      <c r="AG4" s="180">
         <v>1</v>
       </c>
-      <c r="AH4" s="196">
+      <c r="AH4" s="183">
         <v>80</v>
       </c>
-      <c r="AI4" s="192">
+      <c r="AI4" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ4" s="193">
+      <c r="AJ4" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -20178,7 +20317,7 @@
       <c r="N5" s="159">
         <v>0</v>
       </c>
-      <c r="P5" s="191">
+      <c r="P5" s="178">
         <v>4</v>
       </c>
       <c r="Q5" s="162">
@@ -20188,59 +20327,59 @@
       <c r="R5" s="162">
         <v>3.5</v>
       </c>
-      <c r="S5" s="197" t="s">
+      <c r="S5" s="184" t="s">
         <v>189</v>
       </c>
-      <c r="T5" s="196" t="s">
+      <c r="T5" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="U5" s="192">
+      <c r="U5" s="179">
         <v>0.5</v>
       </c>
-      <c r="V5" s="192">
+      <c r="V5" s="179">
         <v>0.25</v>
       </c>
-      <c r="W5" s="192">
+      <c r="W5" s="179">
         <v>2.5</v>
       </c>
-      <c r="X5" s="192">
+      <c r="X5" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y5" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="192">
+      <c r="Y5" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="179">
         <v>9</v>
       </c>
-      <c r="AC5" s="192">
+      <c r="AC5" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD5" s="192">
+      <c r="AD5" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE5" s="192">
+      <c r="AE5" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF5" s="192">
+      <c r="AF5" s="179">
         <v>0.8</v>
       </c>
-      <c r="AG5" s="193">
+      <c r="AG5" s="180">
         <v>1</v>
       </c>
-      <c r="AH5" s="196">
+      <c r="AH5" s="183">
         <v>80</v>
       </c>
-      <c r="AI5" s="192">
+      <c r="AI5" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ5" s="193">
+      <c r="AJ5" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -20266,7 +20405,7 @@
       <c r="N6" s="159">
         <v>0</v>
       </c>
-      <c r="P6" s="191">
+      <c r="P6" s="178">
         <v>5</v>
       </c>
       <c r="Q6" s="162">
@@ -20276,59 +20415,59 @@
       <c r="R6" s="162">
         <v>4</v>
       </c>
-      <c r="S6" s="197" t="s">
+      <c r="S6" s="184" t="s">
         <v>189</v>
       </c>
-      <c r="T6" s="196" t="s">
+      <c r="T6" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="U6" s="192">
+      <c r="U6" s="179">
         <v>0.5</v>
       </c>
-      <c r="V6" s="192">
+      <c r="V6" s="179">
         <v>0.25</v>
       </c>
-      <c r="W6" s="192">
+      <c r="W6" s="179">
         <v>2.5</v>
       </c>
-      <c r="X6" s="192">
+      <c r="X6" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y6" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="192">
+      <c r="Y6" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="179">
         <v>9</v>
       </c>
-      <c r="AC6" s="192">
+      <c r="AC6" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD6" s="192">
+      <c r="AD6" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE6" s="192">
+      <c r="AE6" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF6" s="192">
+      <c r="AF6" s="179">
         <v>0.8</v>
       </c>
-      <c r="AG6" s="193">
+      <c r="AG6" s="180">
         <v>1</v>
       </c>
-      <c r="AH6" s="196">
+      <c r="AH6" s="183">
         <v>80</v>
       </c>
-      <c r="AI6" s="192">
+      <c r="AI6" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ6" s="193">
+      <c r="AJ6" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -20354,7 +20493,7 @@
       <c r="N7" s="159">
         <v>0</v>
       </c>
-      <c r="P7" s="191">
+      <c r="P7" s="178">
         <v>6</v>
       </c>
       <c r="Q7" s="162">
@@ -20364,59 +20503,59 @@
       <c r="R7" s="162">
         <v>5</v>
       </c>
-      <c r="S7" s="197" t="s">
+      <c r="S7" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="T7" s="196" t="s">
+      <c r="T7" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="U7" s="192">
+      <c r="U7" s="179">
         <v>0.5</v>
       </c>
-      <c r="V7" s="192">
+      <c r="V7" s="179">
         <v>0.25</v>
       </c>
-      <c r="W7" s="192">
+      <c r="W7" s="179">
         <v>2.5</v>
       </c>
-      <c r="X7" s="192">
+      <c r="X7" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y7" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="192">
+      <c r="Y7" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="179">
         <v>9</v>
       </c>
-      <c r="AC7" s="192">
+      <c r="AC7" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD7" s="192">
+      <c r="AD7" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE7" s="192">
+      <c r="AE7" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF7" s="192">
+      <c r="AF7" s="179">
         <v>0.8</v>
       </c>
-      <c r="AG7" s="193">
+      <c r="AG7" s="180">
         <v>1</v>
       </c>
-      <c r="AH7" s="196">
+      <c r="AH7" s="183">
         <v>80</v>
       </c>
-      <c r="AI7" s="192">
+      <c r="AI7" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ7" s="193">
+      <c r="AJ7" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -20442,7 +20581,7 @@
       <c r="N8" s="159">
         <v>0</v>
       </c>
-      <c r="P8" s="191">
+      <c r="P8" s="178">
         <v>7</v>
       </c>
       <c r="Q8" s="162">
@@ -20452,59 +20591,59 @@
       <c r="R8" s="162">
         <v>5.9</v>
       </c>
-      <c r="S8" s="197" t="s">
+      <c r="S8" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="T8" s="196" t="s">
+      <c r="T8" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="U8" s="192">
+      <c r="U8" s="179">
         <v>0.5</v>
       </c>
-      <c r="V8" s="192">
+      <c r="V8" s="179">
         <v>0.25</v>
       </c>
-      <c r="W8" s="192">
+      <c r="W8" s="179">
         <v>2.5</v>
       </c>
-      <c r="X8" s="192">
+      <c r="X8" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y8" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="192">
+      <c r="Y8" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="179">
         <v>9</v>
       </c>
-      <c r="AC8" s="192">
+      <c r="AC8" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD8" s="192">
+      <c r="AD8" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE8" s="192">
+      <c r="AE8" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF8" s="192">
+      <c r="AF8" s="179">
         <v>0.8</v>
       </c>
-      <c r="AG8" s="193">
+      <c r="AG8" s="180">
         <v>1</v>
       </c>
-      <c r="AH8" s="196">
+      <c r="AH8" s="183">
         <v>80</v>
       </c>
-      <c r="AI8" s="192">
+      <c r="AI8" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ8" s="193">
+      <c r="AJ8" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -20530,7 +20669,7 @@
       <c r="N9" s="159">
         <v>0</v>
       </c>
-      <c r="P9" s="191">
+      <c r="P9" s="178">
         <v>8</v>
       </c>
       <c r="Q9" s="162">
@@ -20540,59 +20679,59 @@
       <c r="R9" s="162">
         <v>10.9</v>
       </c>
-      <c r="S9" s="197" t="s">
+      <c r="S9" s="184" t="s">
         <v>189</v>
       </c>
-      <c r="T9" s="196" t="s">
+      <c r="T9" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="U9" s="192">
+      <c r="U9" s="179">
         <v>0.5</v>
       </c>
-      <c r="V9" s="192">
+      <c r="V9" s="179">
         <v>0.25</v>
       </c>
-      <c r="W9" s="192">
+      <c r="W9" s="179">
         <v>2.5</v>
       </c>
-      <c r="X9" s="192">
+      <c r="X9" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y9" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="192">
+      <c r="Y9" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="179">
         <v>9</v>
       </c>
-      <c r="AC9" s="192">
+      <c r="AC9" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD9" s="192">
+      <c r="AD9" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE9" s="192">
+      <c r="AE9" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF9" s="192">
+      <c r="AF9" s="179">
         <v>0.8</v>
       </c>
-      <c r="AG9" s="193">
+      <c r="AG9" s="180">
         <v>1</v>
       </c>
-      <c r="AH9" s="196">
+      <c r="AH9" s="183">
         <v>80</v>
       </c>
-      <c r="AI9" s="192">
+      <c r="AI9" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ9" s="193">
+      <c r="AJ9" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -20618,7 +20757,7 @@
       <c r="N10" s="159">
         <v>0</v>
       </c>
-      <c r="P10" s="191">
+      <c r="P10" s="178">
         <v>9</v>
       </c>
       <c r="Q10" s="162">
@@ -20628,59 +20767,59 @@
       <c r="R10" s="162">
         <v>14</v>
       </c>
-      <c r="S10" s="197" t="s">
+      <c r="S10" s="184" t="s">
         <v>189</v>
       </c>
-      <c r="T10" s="196" t="s">
+      <c r="T10" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="U10" s="192">
+      <c r="U10" s="179">
         <v>0.5</v>
       </c>
-      <c r="V10" s="192">
+      <c r="V10" s="179">
         <v>0.25</v>
       </c>
-      <c r="W10" s="192">
+      <c r="W10" s="179">
         <v>2.5</v>
       </c>
-      <c r="X10" s="192">
+      <c r="X10" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y10" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="192">
+      <c r="Y10" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="179">
         <v>9</v>
       </c>
-      <c r="AC10" s="192">
+      <c r="AC10" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD10" s="192">
+      <c r="AD10" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE10" s="192">
+      <c r="AE10" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF10" s="192">
+      <c r="AF10" s="179">
         <v>1.25</v>
       </c>
-      <c r="AG10" s="193">
+      <c r="AG10" s="180">
         <v>1</v>
       </c>
-      <c r="AH10" s="196">
+      <c r="AH10" s="183">
         <v>80</v>
       </c>
-      <c r="AI10" s="192">
+      <c r="AI10" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ10" s="193">
+      <c r="AJ10" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -20706,7 +20845,7 @@
       <c r="N11" s="159">
         <v>0</v>
       </c>
-      <c r="P11" s="191">
+      <c r="P11" s="178">
         <v>10</v>
       </c>
       <c r="Q11" s="162">
@@ -20716,59 +20855,59 @@
       <c r="R11" s="162">
         <v>16.5</v>
       </c>
-      <c r="S11" s="197" t="s">
+      <c r="S11" s="184" t="s">
         <v>189</v>
       </c>
-      <c r="T11" s="196" t="s">
+      <c r="T11" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="U11" s="192">
+      <c r="U11" s="179">
         <v>0.5</v>
       </c>
-      <c r="V11" s="192">
+      <c r="V11" s="179">
         <v>0.25</v>
       </c>
-      <c r="W11" s="192">
+      <c r="W11" s="179">
         <v>2.5</v>
       </c>
-      <c r="X11" s="192">
+      <c r="X11" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y11" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="192">
+      <c r="Y11" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="179">
         <v>9</v>
       </c>
-      <c r="AC11" s="192">
+      <c r="AC11" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD11" s="192">
+      <c r="AD11" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE11" s="192">
+      <c r="AE11" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF11" s="192">
+      <c r="AF11" s="179">
         <v>1.25</v>
       </c>
-      <c r="AG11" s="193">
+      <c r="AG11" s="180">
         <v>1</v>
       </c>
-      <c r="AH11" s="196">
+      <c r="AH11" s="183">
         <v>80</v>
       </c>
-      <c r="AI11" s="192">
+      <c r="AI11" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ11" s="193">
+      <c r="AJ11" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -20794,7 +20933,7 @@
       <c r="N12" s="159">
         <v>0</v>
       </c>
-      <c r="P12" s="191">
+      <c r="P12" s="178">
         <v>11</v>
       </c>
       <c r="Q12" s="162">
@@ -20804,59 +20943,59 @@
       <c r="R12" s="162">
         <v>19.8</v>
       </c>
-      <c r="S12" s="197" t="s">
+      <c r="S12" s="184" t="s">
         <v>189</v>
       </c>
-      <c r="T12" s="196" t="s">
+      <c r="T12" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="U12" s="192">
+      <c r="U12" s="179">
         <v>0.5</v>
       </c>
-      <c r="V12" s="192">
+      <c r="V12" s="179">
         <v>0.25</v>
       </c>
-      <c r="W12" s="192">
+      <c r="W12" s="179">
         <v>2.5</v>
       </c>
-      <c r="X12" s="192">
+      <c r="X12" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y12" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="192">
+      <c r="Y12" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="179">
         <v>9</v>
       </c>
-      <c r="AC12" s="192">
+      <c r="AC12" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD12" s="192">
+      <c r="AD12" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE12" s="192">
+      <c r="AE12" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF12" s="192">
+      <c r="AF12" s="179">
         <v>1.25</v>
       </c>
-      <c r="AG12" s="193">
+      <c r="AG12" s="180">
         <v>1</v>
       </c>
-      <c r="AH12" s="196">
+      <c r="AH12" s="183">
         <v>80</v>
       </c>
-      <c r="AI12" s="192">
+      <c r="AI12" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ12" s="193">
+      <c r="AJ12" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -20882,7 +21021,7 @@
       <c r="N13" s="159">
         <v>0</v>
       </c>
-      <c r="P13" s="191">
+      <c r="P13" s="178">
         <v>12</v>
       </c>
       <c r="Q13" s="162">
@@ -20892,59 +21031,59 @@
       <c r="R13" s="162">
         <v>30</v>
       </c>
-      <c r="S13" s="197" t="s">
+      <c r="S13" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="T13" s="196" t="s">
+      <c r="T13" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="U13" s="192">
+      <c r="U13" s="179">
         <v>0.5</v>
       </c>
-      <c r="V13" s="192">
+      <c r="V13" s="179">
         <v>0.25</v>
       </c>
-      <c r="W13" s="192">
+      <c r="W13" s="179">
         <v>2.5</v>
       </c>
-      <c r="X13" s="192">
+      <c r="X13" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y13" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="192">
+      <c r="Y13" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="179">
         <v>9</v>
       </c>
-      <c r="AC13" s="192">
+      <c r="AC13" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD13" s="192">
+      <c r="AD13" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE13" s="192">
+      <c r="AE13" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF13" s="192">
+      <c r="AF13" s="179">
         <v>1.25</v>
       </c>
-      <c r="AG13" s="193">
+      <c r="AG13" s="180">
         <v>1</v>
       </c>
-      <c r="AH13" s="196">
+      <c r="AH13" s="183">
         <v>80</v>
       </c>
-      <c r="AI13" s="192">
+      <c r="AI13" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ13" s="193">
+      <c r="AJ13" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -20971,7 +21110,7 @@
       <c r="N14" s="163">
         <v>0</v>
       </c>
-      <c r="P14" s="191">
+      <c r="P14" s="178">
         <v>13</v>
       </c>
       <c r="Q14" s="162">
@@ -20981,59 +21120,59 @@
       <c r="R14" s="162">
         <v>42.8</v>
       </c>
-      <c r="S14" s="197" t="s">
+      <c r="S14" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="T14" s="196" t="s">
+      <c r="T14" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="U14" s="192">
+      <c r="U14" s="179">
         <v>0.5</v>
       </c>
-      <c r="V14" s="192">
+      <c r="V14" s="179">
         <v>0.25</v>
       </c>
-      <c r="W14" s="192">
+      <c r="W14" s="179">
         <v>2.5</v>
       </c>
-      <c r="X14" s="192">
+      <c r="X14" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y14" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="192">
+      <c r="Y14" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="179">
         <v>9</v>
       </c>
-      <c r="AC14" s="192">
+      <c r="AC14" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD14" s="192">
+      <c r="AD14" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE14" s="192">
+      <c r="AE14" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF14" s="192">
+      <c r="AF14" s="179">
         <v>1.25</v>
       </c>
-      <c r="AG14" s="193">
+      <c r="AG14" s="180">
         <v>1</v>
       </c>
-      <c r="AH14" s="196">
+      <c r="AH14" s="183">
         <v>80</v>
       </c>
-      <c r="AI14" s="192">
+      <c r="AI14" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ14" s="193">
+      <c r="AJ14" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -21050,7 +21189,7 @@
       <c r="J15" s="159" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="191">
+      <c r="P15" s="178">
         <v>14</v>
       </c>
       <c r="Q15" s="162">
@@ -21060,59 +21199,59 @@
       <c r="R15" s="162">
         <v>47.5</v>
       </c>
-      <c r="S15" s="197" t="s">
+      <c r="S15" s="184" t="s">
         <v>189</v>
       </c>
-      <c r="T15" s="196" t="s">
+      <c r="T15" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="U15" s="192">
+      <c r="U15" s="179">
         <v>0.5</v>
       </c>
-      <c r="V15" s="192">
+      <c r="V15" s="179">
         <v>0.25</v>
       </c>
-      <c r="W15" s="192">
+      <c r="W15" s="179">
         <v>2.5</v>
       </c>
-      <c r="X15" s="192">
+      <c r="X15" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y15" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="192">
+      <c r="Y15" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="179">
         <v>9</v>
       </c>
-      <c r="AC15" s="192">
+      <c r="AC15" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD15" s="192">
+      <c r="AD15" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE15" s="192">
+      <c r="AE15" s="179">
         <f t="shared" si="0"/>
         <v>3.6176470588235294</v>
       </c>
-      <c r="AF15" s="192">
+      <c r="AF15" s="179">
         <v>1.25</v>
       </c>
-      <c r="AG15" s="193">
+      <c r="AG15" s="180">
         <v>1</v>
       </c>
-      <c r="AH15" s="196">
+      <c r="AH15" s="183">
         <v>80</v>
       </c>
-      <c r="AI15" s="192">
+      <c r="AI15" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ15" s="193">
+      <c r="AJ15" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -21129,7 +21268,7 @@
       <c r="J16" s="159" t="s">
         <v>167</v>
       </c>
-      <c r="P16" s="191">
+      <c r="P16" s="178">
         <v>15</v>
       </c>
       <c r="Q16" s="162">
@@ -21139,58 +21278,58 @@
       <c r="R16" s="162">
         <v>55</v>
       </c>
-      <c r="S16" s="197" t="s">
+      <c r="S16" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="T16" s="196" t="s">
+      <c r="T16" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="U16" s="192">
+      <c r="U16" s="179">
         <v>0.5</v>
       </c>
-      <c r="V16" s="192">
+      <c r="V16" s="179">
         <v>0.25</v>
       </c>
-      <c r="W16" s="192">
+      <c r="W16" s="179">
         <v>2.5</v>
       </c>
-      <c r="X16" s="192">
+      <c r="X16" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y16" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="192">
+      <c r="Y16" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="179">
         <v>9</v>
       </c>
-      <c r="AC16" s="192">
+      <c r="AC16" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD16" s="192">
+      <c r="AD16" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE16" s="192">
+      <c r="AE16" s="179">
         <v>1.5</v>
       </c>
-      <c r="AF16" s="192">
+      <c r="AF16" s="179">
         <v>1.25</v>
       </c>
-      <c r="AG16" s="193">
+      <c r="AG16" s="180">
         <v>1</v>
       </c>
-      <c r="AH16" s="196">
+      <c r="AH16" s="183">
         <v>80</v>
       </c>
-      <c r="AI16" s="192">
+      <c r="AI16" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ16" s="193">
+      <c r="AJ16" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -21207,7 +21346,7 @@
       <c r="J17" s="159" t="s">
         <v>167</v>
       </c>
-      <c r="P17" s="191">
+      <c r="P17" s="178">
         <v>16</v>
       </c>
       <c r="Q17" s="162">
@@ -21217,58 +21356,58 @@
       <c r="R17" s="162">
         <v>61</v>
       </c>
-      <c r="S17" s="197" t="s">
+      <c r="S17" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="T17" s="196" t="s">
+      <c r="T17" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="U17" s="192">
+      <c r="U17" s="179">
         <v>0.5</v>
       </c>
-      <c r="V17" s="192">
+      <c r="V17" s="179">
         <v>0.25</v>
       </c>
-      <c r="W17" s="192">
+      <c r="W17" s="179">
         <v>2.5</v>
       </c>
-      <c r="X17" s="192">
+      <c r="X17" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y17" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="192">
+      <c r="Y17" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="179">
         <v>9</v>
       </c>
-      <c r="AC17" s="192">
+      <c r="AC17" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD17" s="192">
+      <c r="AD17" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE17" s="192">
+      <c r="AE17" s="179">
         <v>1.5</v>
       </c>
-      <c r="AF17" s="192">
+      <c r="AF17" s="179">
         <v>1.25</v>
       </c>
-      <c r="AG17" s="193">
+      <c r="AG17" s="180">
         <v>1</v>
       </c>
-      <c r="AH17" s="196">
+      <c r="AH17" s="183">
         <v>80</v>
       </c>
-      <c r="AI17" s="192">
+      <c r="AI17" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ17" s="193">
+      <c r="AJ17" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -21285,68 +21424,68 @@
       <c r="J18" s="159" t="s">
         <v>167</v>
       </c>
-      <c r="P18" s="194">
+      <c r="P18" s="181">
         <v>17</v>
       </c>
-      <c r="Q18" s="190">
+      <c r="Q18" s="177">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="R18" s="190">
+      <c r="R18" s="177">
         <v>80</v>
       </c>
-      <c r="S18" s="197" t="s">
+      <c r="S18" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="T18" s="196" t="s">
+      <c r="T18" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="U18" s="192">
+      <c r="U18" s="179">
         <v>0.5</v>
       </c>
-      <c r="V18" s="192">
+      <c r="V18" s="179">
         <v>0.25</v>
       </c>
-      <c r="W18" s="192">
+      <c r="W18" s="179">
         <v>2.5</v>
       </c>
-      <c r="X18" s="192">
+      <c r="X18" s="179">
         <v>2.5</v>
       </c>
-      <c r="Y18" s="192">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="192">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="192">
+      <c r="Y18" s="179">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="179">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="179">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="179">
         <v>9</v>
       </c>
-      <c r="AC18" s="192">
+      <c r="AC18" s="179">
         <v>0.8</v>
       </c>
-      <c r="AD18" s="192">
+      <c r="AD18" s="179">
         <v>1.25</v>
       </c>
-      <c r="AE18" s="192">
+      <c r="AE18" s="179">
         <v>1.5</v>
       </c>
-      <c r="AF18" s="192">
+      <c r="AF18" s="179">
         <v>1.25</v>
       </c>
-      <c r="AG18" s="193">
+      <c r="AG18" s="180">
         <v>1</v>
       </c>
-      <c r="AH18" s="196">
+      <c r="AH18" s="183">
         <v>80</v>
       </c>
-      <c r="AI18" s="192">
+      <c r="AI18" s="179">
         <v>-0.4</v>
       </c>
-      <c r="AJ18" s="193">
+      <c r="AJ18" s="180">
         <v>0.3</v>
       </c>
     </row>
@@ -22651,27 +22790,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Y2:AB18">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$T2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:X18">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$T2="Alm_Hamre"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:X18">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$T2="ICP_18"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:X18">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$T$2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AE18 AG2:AH18 AJ2:AJ18">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$T2="Stevens"</formula>
     </cfRule>
   </conditionalFormatting>
